--- a/Before the storm.xlsx
+++ b/Before the storm.xlsx
@@ -1,17 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955" activeTab="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -87,29 +84,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
     </font>
@@ -119,7 +113,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -129,13 +123,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
@@ -149,49 +137,48 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="22" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
       <c:tx>
@@ -208,33 +195,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-CA"/>
+              <a:rPr b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:rPr>
               <a:t>Number of hours required to complete</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hours needed (med)</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -242,71 +224,8 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>12.820512817527812</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.101210122252221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.45833333794144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9697885200703489</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.111111114067691</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.914529915751034</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.3333333323244005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1379698397519462</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9506172840224796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.8866189979720325</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.8235294097103179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.8866189979720325</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.9506172840224796</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.9890319506018841</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.0277777781011537</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0336590678064983</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.0395480254270382</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.0336590678064983</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.0395480224673275</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.0336590663285694</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Sheet1!$I$2:$I$1000</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -317,12 +236,6 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hours needed (avg)</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -330,90 +243,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>12.820512817527812</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.101210122252221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.742187505756284</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.188329734597318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.360416931453637</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.095398174724789</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.9790005399097605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.7671385308440986</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6084753874355773</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5113185547798746</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4182084406713056</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.464092851646619</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.4290383814242666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.4001079574657478</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.440978981047218</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.4485043254677503</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.4924885125959051</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.4091445744149933</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.3889402576258174</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.6818458941193271</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Sheet1!$J$2:$J$1000</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="87643648"/>
-        <c:axId val="117559232"/>
+        <c:axId val="1952689042"/>
+        <c:axId val="2116980534"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87643648"/>
+        <c:axId val="1952689042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,18 +274,23 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CA"/>
+                  <a:rPr b="1" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
                   <a:t>Evaluation #</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr rot="5400000"/>
           <a:lstStyle/>
@@ -458,18 +303,12 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117559232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:crossAx val="2116980534"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117559232"/>
+        <c:axId val="2116980534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,23 +347,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CA"/>
+                  <a:rPr b="1" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
                   <a:t>Total (hours)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -538,12 +379,9 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87643648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossAx val="1952689042"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -553,7 +391,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -567,24 +404,20 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -593,9 +426,9 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7086600" cy="4295775"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -604,7 +437,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -613,315 +446,36 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="15.57"/>
+    <col customWidth="1" min="2" max="2" width="5.29"/>
+    <col customWidth="1" min="3" max="3" width="15.57"/>
+    <col customWidth="1" min="4" max="4" width="5.29"/>
+    <col customWidth="1" min="5" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="11.0"/>
+    <col customWidth="1" min="7" max="7" width="10.43"/>
+    <col customWidth="1" min="8" max="8" width="8.14"/>
+    <col customWidth="1" min="9" max="9" width="19.57"/>
+    <col customWidth="1" min="10" max="10" width="18.57"/>
+    <col customWidth="1" min="11" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="19.57"/>
+    <col customWidth="1" min="13" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -953,767 +507,767 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2">
       <c r="A2" s="5">
-        <v>43304.385416666672</v>
+        <v>43304.38541666667</v>
       </c>
       <c r="B2" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="5">
         <v>43304.40625</v>
       </c>
       <c r="D2" s="6">
+        <v>39.0</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:F2" si="1">C2-A2</f>
+        <v>0.02083333333</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:F2" si="0">C2-A2</f>
-        <v>2.0833333328482695E-2</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G21" si="1">F2/(E2*24*60)</f>
-        <v>1.3000000003026799</v>
+        <f t="shared" ref="G2:G21" si="3">F2/(E2*24*60)</f>
+        <v>1.3</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H21" si="2">G2*60</f>
-        <v>78.00000001816079</v>
+        <f t="shared" ref="H2:H21" si="4">G2*60</f>
+        <v>78.00000002</v>
       </c>
       <c r="I2" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H2)</f>
-        <v>12.820512817527812</v>
+        <v>12.82051282</v>
       </c>
       <c r="J2" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H2)</f>
-        <v>12.820512817527812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>12.82051282</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="5">
-        <v>43304.789583333331</v>
+        <v>43304.78958333333</v>
       </c>
       <c r="B3" s="6">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="C3" s="5">
-        <v>43304.797222222223</v>
+        <v>43304.79722222222</v>
       </c>
       <c r="D3" s="6">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="3">C3-A3</f>
-        <v>7.6388888919609599E-3</v>
+        <f t="shared" ref="E3:F3" si="2">C3-A3</f>
+        <v>0.007638888892</v>
       </c>
       <c r="F3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4545454539604916</v>
+        <v>1.454545454</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="2"/>
-        <v>87.272727237629496</v>
+        <f t="shared" si="4"/>
+        <v>87.27272724</v>
       </c>
       <c r="I3" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H3)</f>
-        <v>12.101210122252221</v>
+        <v>12.10121012</v>
       </c>
       <c r="J3" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H3)</f>
-        <v>12.101210122252221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>12.10121012</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="5">
-        <v>43305.016666666663</v>
+        <v>43305.01666666666</v>
       </c>
       <c r="B4" s="7">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="C4" s="5">
         <v>43305.023611111115</v>
       </c>
       <c r="D4" s="7">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:F4" si="4">C4-A4</f>
-        <v>6.9444444525288418E-3</v>
+        <f t="shared" ref="E4:F4" si="5">C4-A4</f>
+        <v>0.006944444453</v>
       </c>
       <c r="F4">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>1.899999998</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8999999977881088</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="2"/>
-        <v>113.99999986728653</v>
+        <v>113.9999999</v>
       </c>
       <c r="I4" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H4)</f>
-        <v>11.45833333794144</v>
+        <v>11.45833334</v>
       </c>
       <c r="J4" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H4)</f>
-        <v>10.742187505756284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>10.74218751</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="5">
-        <v>43305.385416666672</v>
+        <v>43305.38541666667</v>
       </c>
       <c r="B5" s="7">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="C5" s="5">
         <v>43305.410416666666</v>
       </c>
       <c r="D5" s="7">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:F5" si="5">C5-A5</f>
-        <v>2.4999999994179234E-2</v>
+        <f t="shared" ref="E5:F5" si="6">C5-A5</f>
+        <v>0.02499999999</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8888888893286802</v>
+        <f t="shared" si="3"/>
+        <v>1.888888889</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
-        <v>113.33333335972081</v>
+        <f t="shared" si="4"/>
+        <v>113.3333334</v>
       </c>
       <c r="I5" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H5)</f>
-        <v>9.9697885200703489</v>
+        <v>9.96978852</v>
       </c>
       <c r="J5" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H5)</f>
-        <v>10.188329734597318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>10.18832973</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="5">
-        <v>43305.775694444441</v>
+        <v>43305.77569444444</v>
       </c>
       <c r="B6" s="7">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="C6" s="5">
-        <v>43305.795138888891</v>
+        <v>43305.79513888889</v>
       </c>
       <c r="D6" s="7">
-        <v>184</v>
+        <v>184.0</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:F6" si="6">C6-A6</f>
-        <v>1.9444444449618459E-2</v>
+        <f t="shared" ref="E6:F6" si="7">C6-A6</f>
+        <v>0.01944444445</v>
       </c>
       <c r="F6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4999999996008617</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>89.999999976051697</v>
+        <f t="shared" si="4"/>
+        <v>89.99999998</v>
       </c>
       <c r="I6" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H6)</f>
-        <v>11.111111114067691</v>
+        <v>11.11111111</v>
       </c>
       <c r="J6" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H6)</f>
-        <v>10.360416931453637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>10.36041693</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="5">
-        <v>43306.386111111111</v>
+        <v>43306.38611111111</v>
       </c>
       <c r="B7" s="7">
-        <v>184</v>
+        <v>184.0</v>
       </c>
       <c r="C7" s="5">
         <v>43306.40625</v>
       </c>
       <c r="D7" s="7">
-        <v>238</v>
+        <v>238.0</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:F7" si="7">C7-A7</f>
-        <v>2.0138888889050577E-2</v>
+        <f t="shared" ref="E7:F7" si="8">C7-A7</f>
+        <v>0.02013888889</v>
       </c>
       <c r="F7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8620689655022915</v>
+        <f t="shared" si="3"/>
+        <v>1.862068966</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>111.72413793013749</v>
+        <f t="shared" si="4"/>
+        <v>111.7241379</v>
       </c>
       <c r="I7" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H7)</f>
-        <v>9.914529915751034</v>
+        <v>9.914529916</v>
       </c>
       <c r="J7" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H7)</f>
-        <v>10.095398174724789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>10.09539817</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="5">
-        <v>43307.388888888891</v>
+        <v>43307.38888888889</v>
       </c>
       <c r="B8" s="7">
-        <v>238</v>
+        <v>238.0</v>
       </c>
       <c r="C8" s="5">
-        <v>43307.408333333333</v>
+        <v>43307.40833333333</v>
       </c>
       <c r="D8" s="7">
-        <v>288</v>
+        <v>288.0</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:F8" si="8">C8-A8</f>
-        <v>1.9444444442342501E-2</v>
+        <f t="shared" ref="E8:F8" si="9">C8-A8</f>
+        <v>0.01944444444</v>
       </c>
       <c r="F8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7857142859073214</v>
+        <f t="shared" si="3"/>
+        <v>1.785714286</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
-        <v>107.14285715443928</v>
+        <f t="shared" si="4"/>
+        <v>107.1428572</v>
       </c>
       <c r="I8" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H8)</f>
-        <v>9.3333333323244005</v>
+        <v>9.333333332</v>
       </c>
       <c r="J8" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H8)</f>
-        <v>9.9790005399097605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>9.97900054</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="5">
         <v>43307.77847222222</v>
       </c>
       <c r="B9" s="6">
-        <v>288</v>
+        <v>288.0</v>
       </c>
       <c r="C9" s="5">
-        <v>43307.795833333337</v>
+        <v>43307.79583333334</v>
       </c>
       <c r="D9" s="6">
-        <v>337</v>
+        <v>337.0</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:F9" si="9">C9-A9</f>
-        <v>1.7361111116770189E-2</v>
+        <f t="shared" ref="E9:F9" si="10">C9-A9</f>
+        <v>0.01736111112</v>
       </c>
       <c r="F9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9599999993611128</v>
+        <f t="shared" si="3"/>
+        <v>1.959999999</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
-        <v>117.59999996166677</v>
+        <f t="shared" si="4"/>
+        <v>117.6</v>
       </c>
       <c r="I9" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H9)</f>
-        <v>9.1379698397519462</v>
+        <v>9.13796984</v>
       </c>
       <c r="J9" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H9)</f>
-        <v>9.7671385308440986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>9.767138531</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="5">
         <v>43307.802777777775</v>
       </c>
       <c r="B10" s="6">
-        <v>337</v>
+        <v>337.0</v>
       </c>
       <c r="C10" s="5">
         <v>43307.820138888885</v>
       </c>
       <c r="D10" s="6">
-        <v>386</v>
+        <v>386.0</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:F10" si="10">C10-A10</f>
-        <v>1.7361111109494232E-2</v>
+        <f t="shared" ref="E10:F10" si="11">C10-A10</f>
+        <v>0.01736111111</v>
       </c>
       <c r="F10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9600000001825393</v>
+        <f t="shared" si="3"/>
+        <v>1.96</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
-        <v>117.60000001095236</v>
+        <f t="shared" si="4"/>
+        <v>117.6</v>
       </c>
       <c r="I10" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H10)</f>
-        <v>8.9506172840224796</v>
+        <v>8.950617284</v>
       </c>
       <c r="J10" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H10)</f>
-        <v>9.6084753874355773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>9.608475387</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="5">
-        <v>43308.385416666672</v>
+        <v>43308.38541666667</v>
       </c>
       <c r="B11" s="6">
-        <v>386</v>
+        <v>386.0</v>
       </c>
       <c r="C11" s="5">
         <v>43308.40902777778</v>
       </c>
       <c r="D11" s="6">
-        <v>451</v>
+        <v>451.0</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:F11" si="11">C11-A11</f>
-        <v>2.361111110803904E-2</v>
+        <f t="shared" ref="E11:F11" si="12">C11-A11</f>
+        <v>0.02361111111</v>
       </c>
       <c r="F11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9117647061310949</v>
+        <f t="shared" si="3"/>
+        <v>1.911764706</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>114.7058823678657</v>
+        <f t="shared" si="4"/>
+        <v>114.7058824</v>
       </c>
       <c r="I11" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H11)</f>
-        <v>8.8866189979720325</v>
+        <v>8.886618998</v>
       </c>
       <c r="J11" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H11)</f>
-        <v>9.5113185547798746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>9.511318555</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="5">
-        <v>43308.760416666672</v>
+        <v>43308.76041666667</v>
       </c>
       <c r="B12" s="6">
-        <v>451</v>
+        <v>451.0</v>
       </c>
       <c r="C12" s="5">
-        <v>43308.784722222219</v>
+        <v>43308.78472222222</v>
       </c>
       <c r="D12" s="6">
-        <v>519</v>
+        <v>519.0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:F12" si="12">C12-A12</f>
-        <v>2.4305555547471158E-2</v>
+        <f t="shared" ref="E12:F12" si="13">C12-A12</f>
+        <v>0.02430555555</v>
       </c>
       <c r="F12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9428571435033666</v>
+        <f t="shared" si="3"/>
+        <v>1.942857144</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
-        <v>116.57142861020199</v>
+        <f t="shared" si="4"/>
+        <v>116.5714286</v>
       </c>
       <c r="I12" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H12)</f>
-        <v>8.8235294097103179</v>
+        <v>8.82352941</v>
       </c>
       <c r="J12" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H12)</f>
-        <v>9.4182084406713056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>9.418208441</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="5">
-        <v>43311.385416666672</v>
+        <v>43311.38541666667</v>
       </c>
       <c r="B13" s="6">
-        <v>519</v>
+        <v>519.0</v>
       </c>
       <c r="C13" s="5">
-        <v>43311.408333333333</v>
+        <v>43311.40833333333</v>
       </c>
       <c r="D13" s="6">
-        <v>574</v>
+        <v>574.0</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:F13" si="13">C13-A13</f>
-        <v>2.2916666661330964E-2</v>
+        <f t="shared" ref="E13:F13" si="14">C13-A13</f>
+        <v>0.02291666666</v>
       </c>
       <c r="F13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6666666670547177</v>
+        <f t="shared" si="3"/>
+        <v>1.666666667</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
-        <v>100.00000002328306</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="I13" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H13)</f>
-        <v>8.8866189979720325</v>
+        <v>8.886618998</v>
       </c>
       <c r="J13" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H13)</f>
-        <v>9.464092851646619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>9.464092852</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="5">
-        <v>43311.768750000003</v>
+        <v>43311.76875</v>
       </c>
       <c r="B14" s="7">
-        <v>574</v>
+        <v>574.0</v>
       </c>
       <c r="C14" s="5">
-        <v>43311.786805555559</v>
+        <v>43311.78680555556</v>
       </c>
       <c r="D14" s="7">
-        <v>622</v>
+        <v>622.0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:F14" si="14">C14-A14</f>
-        <v>1.8055555556202307E-2</v>
+        <f t="shared" ref="E14:F14" si="15">C14-A14</f>
+        <v>0.01805555556</v>
       </c>
       <c r="F14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8461538460877167</v>
+        <f t="shared" si="3"/>
+        <v>1.846153846</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
-        <v>110.769230765263</v>
+        <f t="shared" si="4"/>
+        <v>110.7692308</v>
       </c>
       <c r="I14" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H14)</f>
-        <v>8.9506172840224796</v>
+        <v>8.950617284</v>
       </c>
       <c r="J14" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H14)</f>
-        <v>9.4290383814242666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>9.429038381</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="5">
         <v>43312.38680555555</v>
       </c>
       <c r="B15" s="6">
-        <v>622</v>
+        <v>622.0</v>
       </c>
       <c r="C15" s="5">
         <v>43312.40902777778</v>
       </c>
       <c r="D15" s="6">
-        <v>681</v>
+        <v>681.0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:F15" si="15">C15-A15</f>
-        <v>2.2222222229174804E-2</v>
+        <f t="shared" ref="E15:F15" si="16">C15-A15</f>
+        <v>0.02222222223</v>
       </c>
       <c r="F15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.843749999423153</v>
+        <f t="shared" si="3"/>
+        <v>1.843749999</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
-        <v>110.62499996538918</v>
+        <f t="shared" si="4"/>
+        <v>110.625</v>
       </c>
       <c r="I15" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H15)</f>
-        <v>8.9890319506018841</v>
+        <v>8.989031951</v>
       </c>
       <c r="J15" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H15)</f>
-        <v>9.4001079574657478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>9.400107957</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="5">
         <v>43312.773611111115</v>
       </c>
       <c r="B16" s="6">
-        <v>681</v>
+        <v>681.0</v>
       </c>
       <c r="C16" s="5">
-        <v>43312.800000000003</v>
+        <v>43312.8</v>
       </c>
       <c r="D16" s="6">
-        <v>744</v>
+        <v>744.0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:F16" si="16">C16-A16</f>
-        <v>2.6388888887595385E-2</v>
+        <f t="shared" ref="E16:F16" si="17">C16-A16</f>
+        <v>0.02638888889</v>
       </c>
       <c r="F16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>63</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6578947369233703</v>
+        <f t="shared" si="3"/>
+        <v>1.657894737</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
-        <v>99.473684215402216</v>
+        <f t="shared" si="4"/>
+        <v>99.47368422</v>
       </c>
       <c r="I16" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H16)</f>
-        <v>9.0277777781011537</v>
+        <v>9.027777778</v>
       </c>
       <c r="J16" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H16)</f>
-        <v>9.440978981047218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>9.440978981</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="5">
         <v>43313.384722222225</v>
       </c>
       <c r="B17" s="6">
-        <v>744</v>
+        <v>744.0</v>
       </c>
       <c r="C17" s="5">
         <v>43313.40902777778</v>
       </c>
       <c r="D17" s="6">
-        <v>805</v>
+        <v>805.0</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:F17" si="17">C17-A17</f>
-        <v>2.4305555554747116E-2</v>
+        <f t="shared" ref="E17:F17" si="18">C17-A17</f>
+        <v>0.02430555555</v>
       </c>
       <c r="F17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>1.742857142915113</v>
+        <f t="shared" si="3"/>
+        <v>1.742857143</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
-        <v>104.57142857490678</v>
+        <f t="shared" si="4"/>
+        <v>104.5714286</v>
       </c>
       <c r="I17" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H17)</f>
-        <v>9.0336590678064983</v>
+        <v>9.033659068</v>
       </c>
       <c r="J17" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H17)</f>
-        <v>9.4485043254677503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>9.448504325</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="5">
         <v>43313.756944444445</v>
       </c>
       <c r="B18" s="6">
-        <v>805</v>
+        <v>805.0</v>
       </c>
       <c r="C18" s="5">
-        <v>43313.784722222219</v>
+        <v>43313.78472222222</v>
       </c>
       <c r="D18" s="6">
-        <v>870</v>
+        <v>870.0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:F18" si="18">C18-A18</f>
-        <v>2.7777777773735579E-2</v>
+        <f t="shared" ref="E18:F18" si="19">C18-A18</f>
+        <v>0.02777777777</v>
       </c>
       <c r="F18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6250000002364686</v>
+        <f t="shared" si="3"/>
+        <v>1.625</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
-        <v>97.500000014188117</v>
+        <f t="shared" si="4"/>
+        <v>97.50000001</v>
       </c>
       <c r="I18" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H18)</f>
-        <v>9.0395480254270382</v>
+        <v>9.039548025</v>
       </c>
       <c r="J18" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H18)</f>
-        <v>9.4924885125959051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>9.492488513</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="5">
         <v>43314.38680555555</v>
       </c>
       <c r="B19" s="6">
-        <v>870</v>
+        <v>870.0</v>
       </c>
       <c r="C19" s="5">
         <v>43314.40625</v>
       </c>
       <c r="D19" s="6">
-        <v>927</v>
+        <v>927.0</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:F19" si="19">C19-A19</f>
-        <v>1.9444444449618459E-2</v>
+        <f t="shared" ref="E19:F19" si="20">C19-A19</f>
+        <v>0.01944444445</v>
       </c>
       <c r="F19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>2.035714285172598</v>
+        <f t="shared" si="3"/>
+        <v>2.035714285</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
-        <v>122.14285711035588</v>
+        <f t="shared" si="4"/>
+        <v>122.1428571</v>
       </c>
       <c r="I19" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H19)</f>
-        <v>9.0336590678064983</v>
+        <v>9.033659068</v>
       </c>
       <c r="J19" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H19)</f>
-        <v>9.4091445744149933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>9.409144574</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="5">
-        <v>43314.753472222219</v>
+        <v>43314.75347222222</v>
       </c>
       <c r="B20" s="6">
-        <v>927</v>
+        <v>927.0</v>
       </c>
       <c r="C20" s="5">
-        <v>43314.775694444441</v>
+        <v>43314.77569444444</v>
       </c>
       <c r="D20" s="6">
-        <v>986</v>
+        <v>986.0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:F20" si="20">C20-A20</f>
-        <v>2.2222222221898846E-2</v>
+        <f t="shared" ref="E20:F20" si="21">C20-A20</f>
+        <v>0.02222222222</v>
       </c>
       <c r="F20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8437500000268301</v>
+        <f t="shared" si="3"/>
+        <v>1.84375</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
-        <v>110.62500000160981</v>
+        <f t="shared" si="4"/>
+        <v>110.625</v>
       </c>
       <c r="I20" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H20)</f>
-        <v>9.0395480224673275</v>
+        <v>9.039548022</v>
       </c>
       <c r="J20" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H20)</f>
-        <v>9.3889402576258174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+        <v>9.388940258</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5">
-        <v>43315.385416666672</v>
+        <v>43315.38541666667</v>
       </c>
       <c r="B21" s="6">
-        <v>986</v>
+        <v>986.0</v>
       </c>
       <c r="C21" s="5">
-        <v>43315.387499999997</v>
+        <v>43315.3875</v>
       </c>
       <c r="D21" s="6">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ref="E21:F21" si="21">C21-A21</f>
-        <v>2.0833333255723119E-3</v>
+        <f t="shared" ref="E21:F21" si="22">C21-A21</f>
+        <v>0.002083333326</v>
       </c>
       <c r="F21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6666666840513544</v>
+        <f t="shared" si="3"/>
+        <v>4.666666684</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
-        <v>280.00000104308128</v>
+        <f t="shared" si="4"/>
+        <v>280.000001</v>
       </c>
       <c r="I21" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H21)</f>
-        <v>9.0336590663285694</v>
+        <v>9.033659066</v>
       </c>
       <c r="J21" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H21)</f>
-        <v>8.6818458941193271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+        <v>8.681845894</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
@@ -1724,7 +1278,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
@@ -1735,7 +1289,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
@@ -1746,7 +1300,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
@@ -1757,7 +1311,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
@@ -1768,7 +1322,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
@@ -1779,7 +1333,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="8"/>
@@ -1790,7 +1344,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
@@ -1801,7 +1355,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
@@ -1813,7 +1367,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
@@ -1825,7 +1379,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
@@ -1837,7 +1391,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
@@ -1849,7 +1403,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
@@ -1861,7 +1415,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
@@ -1873,7 +1427,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
@@ -1885,7 +1439,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="8"/>
@@ -1897,7 +1451,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
@@ -1909,7 +1463,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
@@ -1921,7 +1475,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
@@ -1933,7 +1487,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
@@ -1945,7 +1499,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
@@ -1957,7 +1511,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
@@ -1969,7 +1523,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
@@ -1981,7 +1535,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
@@ -1993,7 +1547,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
@@ -2005,7 +1559,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
@@ -2017,7 +1571,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
@@ -2029,7 +1583,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="8"/>
@@ -2041,7 +1595,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="8"/>
@@ -2053,7 +1607,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="8"/>
@@ -2067,7 +1621,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="3"/>
       <c r="C52" s="8"/>
@@ -2083,7 +1637,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="8"/>
@@ -2095,7 +1649,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="3"/>
       <c r="C54" s="8"/>
@@ -2107,7 +1661,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="3"/>
       <c r="C55" s="8"/>
@@ -2119,7 +1673,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="3"/>
       <c r="C56" s="8"/>
@@ -2131,7 +1685,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="8"/>
@@ -2143,7 +1697,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8"/>
       <c r="B58" s="3"/>
       <c r="C58" s="8"/>
@@ -2155,7 +1709,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8"/>
       <c r="B59" s="3"/>
       <c r="C59" s="8"/>
@@ -2167,7 +1721,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="3"/>
       <c r="C60" s="8"/>
@@ -2179,7 +1733,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="3"/>
       <c r="C61" s="8"/>
@@ -2191,7 +1745,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="3"/>
       <c r="C62" s="8"/>
@@ -2203,7 +1757,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8"/>
       <c r="B63" s="3"/>
       <c r="C63" s="8"/>
@@ -2215,7 +1769,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8"/>
       <c r="B64" s="3"/>
       <c r="C64" s="8"/>
@@ -2227,7 +1781,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8"/>
       <c r="B65" s="3"/>
       <c r="C65" s="8"/>
@@ -2239,7 +1793,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="3"/>
       <c r="C66" s="8"/>
@@ -2251,7 +1805,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="3"/>
       <c r="C67" s="8"/>
@@ -2263,7 +1817,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="3"/>
       <c r="C68" s="8"/>
@@ -2275,7 +1829,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="3"/>
       <c r="C69" s="8"/>
@@ -2287,7 +1841,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8"/>
       <c r="B70" s="3"/>
       <c r="C70" s="8"/>
@@ -2299,7 +1853,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8"/>
       <c r="B71" s="3"/>
       <c r="C71" s="8"/>
@@ -2311,7 +1865,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
       <c r="C72" s="8"/>
@@ -2323,7 +1877,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
       <c r="C73" s="8"/>
@@ -2335,7 +1889,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
       <c r="C74" s="8"/>
@@ -2347,7 +1901,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="3"/>
       <c r="C75" s="8"/>
@@ -2359,7 +1913,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="3"/>
       <c r="C76" s="8"/>
@@ -2371,7 +1925,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8"/>
       <c r="B77" s="3"/>
       <c r="C77" s="8"/>
@@ -2383,7 +1937,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="3"/>
       <c r="C78" s="8"/>
@@ -2395,7 +1949,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="3"/>
       <c r="C79" s="8"/>
@@ -2407,7 +1961,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8"/>
       <c r="B80" s="3"/>
       <c r="C80" s="8"/>
@@ -2419,7 +1973,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8"/>
       <c r="B81" s="3"/>
       <c r="C81" s="8"/>
@@ -2431,7 +1985,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
@@ -2443,7 +1997,7 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="9"/>
       <c r="C83" s="11"/>
@@ -2455,5539 +2009,5543 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="E84" s="1"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="E85" s="1"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="E86" s="1"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="E87" s="1"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="E88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="E89" s="1"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="E90" s="1"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="E91" s="1"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="E92" s="1"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="E93" s="1"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="E94" s="1"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="E95" s="1"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="E96" s="1"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="5:9" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="E97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="5:9" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="E98" s="1"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="5:9" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="E99" s="1"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="5:9" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="E100" s="1"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="5:9" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="E101" s="1"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="5:9" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="E102" s="1"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="5:9" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="E103" s="1"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="5:9" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="E104" s="1"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="5:9" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="E105" s="1"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="5:9" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="E106" s="1"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="5:9" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="E107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="5:9" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="E108" s="1"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="5:9" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="E109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="5:9" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="E110" s="1"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="5:9" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="E111" s="1"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="5:9" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="E112" s="1"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="5:9" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="E113" s="1"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="5:9" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="E114" s="1"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="5:9" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="E115" s="1"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="5:9" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="E116" s="1"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="5:9" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="E117" s="1"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="5:9" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="E118" s="1"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="5:9" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="E119" s="1"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="5:9" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="E120" s="1"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="5:9" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="E121" s="1"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="5:9" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="E122" s="1"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="5:9" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="E123" s="1"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="5:9" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="E124" s="1"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="5:9" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="E125" s="1"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="5:9" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="E126" s="1"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="5:9" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="E127" s="1"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="5:9" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="E128" s="1"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="5:9" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="E129" s="1"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="5:9" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="E130" s="1"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="5:9" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="E131" s="1"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="5:9" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="E132" s="1"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="5:9" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="E133" s="1"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="5:9" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="E134" s="1"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="5:9" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="E135" s="1"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="5:9" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="E136" s="1"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="5:9" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="E137" s="1"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="5:9" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="E138" s="1"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="5:9" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="E139" s="1"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="5:9" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="E140" s="1"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="5:9" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="E141" s="1"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="5:9" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="E142" s="1"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="5:9" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="E143" s="1"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="5:9" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="E144" s="1"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="5:9" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="E145" s="1"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="5:9" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="E146" s="1"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="5:9" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="E147" s="1"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="5:9" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="E148" s="1"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="5:9" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="E149" s="1"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="3"/>
     </row>
-    <row r="150" spans="5:9" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="E150" s="1"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="5:9" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="E151" s="1"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="5:9" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="E152" s="1"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="5:9" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="E153" s="1"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="5:9" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="E154" s="1"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="5:9" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="E155" s="1"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="5:9" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="E156" s="1"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="5:9" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="E157" s="1"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="5:9" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="E158" s="1"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="5:9" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="E159" s="1"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" spans="5:9" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="E160" s="1"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" spans="5:9" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="E161" s="1"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="3"/>
     </row>
-    <row r="162" spans="5:9" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="E162" s="1"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="3"/>
     </row>
-    <row r="163" spans="5:9" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="E163" s="1"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" spans="5:9" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="E164" s="1"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="3"/>
     </row>
-    <row r="165" spans="5:9" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="E165" s="1"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="3"/>
     </row>
-    <row r="166" spans="5:9" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="E166" s="1"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="5:9" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="E167" s="1"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="3"/>
     </row>
-    <row r="168" spans="5:9" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="E168" s="1"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="3"/>
     </row>
-    <row r="169" spans="5:9" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="E169" s="1"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="3"/>
     </row>
-    <row r="170" spans="5:9" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="E170" s="1"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" spans="5:9" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="E171" s="1"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="3"/>
     </row>
-    <row r="172" spans="5:9" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="E172" s="1"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" spans="5:9" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="E173" s="1"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" spans="5:9" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="E174" s="1"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" spans="5:9" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="E175" s="1"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" spans="5:9" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="E176" s="1"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="5:9" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="E177" s="1"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="3"/>
     </row>
-    <row r="178" spans="5:9" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="E178" s="1"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="5:9" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="E179" s="1"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="3"/>
     </row>
-    <row r="180" spans="5:9" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="E180" s="1"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="3"/>
     </row>
-    <row r="181" spans="5:9" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="E181" s="1"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="3"/>
     </row>
-    <row r="182" spans="5:9" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="E182" s="1"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="5:9" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="E183" s="1"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="5:9" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="E184" s="1"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="5:9" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="E185" s="1"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="5:9" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="E186" s="1"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="5:9" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="E187" s="1"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" spans="5:9" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="E188" s="1"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="5:9" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="E189" s="1"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="3"/>
     </row>
-    <row r="190" spans="5:9" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="E190" s="1"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="3"/>
     </row>
-    <row r="191" spans="5:9" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="E191" s="1"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="3"/>
     </row>
-    <row r="192" spans="5:9" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="E192" s="1"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="3"/>
     </row>
-    <row r="193" spans="5:9" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="E193" s="1"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="3"/>
     </row>
-    <row r="194" spans="5:9" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="E194" s="1"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" spans="5:9" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="E195" s="1"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="3"/>
     </row>
-    <row r="196" spans="5:9" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="E196" s="1"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" spans="5:9" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="E197" s="1"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" spans="5:9" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="E198" s="1"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" spans="5:9" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="E199" s="1"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" spans="5:9" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="E200" s="1"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="5:9" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="E201" s="1"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="3"/>
     </row>
-    <row r="202" spans="5:9" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="E202" s="1"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" spans="5:9" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="E203" s="1"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="3"/>
     </row>
-    <row r="204" spans="5:9" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="E204" s="1"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="5:9" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="E205" s="1"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="3"/>
     </row>
-    <row r="206" spans="5:9" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="E206" s="1"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="5:9" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="E207" s="1"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="3"/>
     </row>
-    <row r="208" spans="5:9" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="E208" s="1"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="3"/>
     </row>
-    <row r="209" spans="5:9" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="E209" s="1"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="3"/>
     </row>
-    <row r="210" spans="5:9" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="E210" s="1"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="3"/>
     </row>
-    <row r="211" spans="5:9" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="E211" s="1"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="3"/>
     </row>
-    <row r="212" spans="5:9" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="E212" s="1"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="3"/>
     </row>
-    <row r="213" spans="5:9" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="E213" s="1"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="3"/>
     </row>
-    <row r="214" spans="5:9" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="E214" s="1"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="3"/>
     </row>
-    <row r="215" spans="5:9" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="E215" s="1"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="3"/>
     </row>
-    <row r="216" spans="5:9" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="E216" s="1"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="5:9" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="E217" s="1"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="3"/>
     </row>
-    <row r="218" spans="5:9" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="E218" s="1"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" spans="5:9" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="E219" s="1"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="3"/>
     </row>
-    <row r="220" spans="5:9" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="E220" s="1"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" spans="5:9" ht="15.75" customHeight="1">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="E221" s="1"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" spans="5:9" ht="15.75" customHeight="1">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="E222" s="1"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" spans="5:9" ht="15.75" customHeight="1">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="E223" s="1"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" spans="5:9" ht="15.75" customHeight="1">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="E224" s="1"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="3"/>
     </row>
-    <row r="225" spans="5:9" ht="15.75" customHeight="1">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="E225" s="1"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="3"/>
     </row>
-    <row r="226" spans="5:9" ht="15.75" customHeight="1">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="E226" s="1"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="3"/>
     </row>
-    <row r="227" spans="5:9" ht="15.75" customHeight="1">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="E227" s="1"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="3"/>
     </row>
-    <row r="228" spans="5:9" ht="15.75" customHeight="1">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="E228" s="1"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="3"/>
     </row>
-    <row r="229" spans="5:9" ht="15.75" customHeight="1">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="E229" s="1"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="3"/>
     </row>
-    <row r="230" spans="5:9" ht="15.75" customHeight="1">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="E230" s="1"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="3"/>
     </row>
-    <row r="231" spans="5:9" ht="15.75" customHeight="1">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="E231" s="1"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="3"/>
     </row>
-    <row r="232" spans="5:9" ht="15.75" customHeight="1">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="E232" s="1"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="3"/>
     </row>
-    <row r="233" spans="5:9" ht="15.75" customHeight="1">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="E233" s="1"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="I233" s="3"/>
     </row>
-    <row r="234" spans="5:9" ht="15.75" customHeight="1">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="E234" s="1"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="5:9" ht="15.75" customHeight="1">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="E235" s="1"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="3"/>
     </row>
-    <row r="236" spans="5:9" ht="15.75" customHeight="1">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="E236" s="1"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="3"/>
     </row>
-    <row r="237" spans="5:9" ht="15.75" customHeight="1">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="E237" s="1"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="3"/>
     </row>
-    <row r="238" spans="5:9" ht="15.75" customHeight="1">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="E238" s="1"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="3"/>
     </row>
-    <row r="239" spans="5:9" ht="15.75" customHeight="1">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="E239" s="1"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="5:9" ht="15.75" customHeight="1">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="E240" s="1"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="3"/>
     </row>
-    <row r="241" spans="5:9" ht="15.75" customHeight="1">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="E241" s="1"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="3"/>
     </row>
-    <row r="242" spans="5:9" ht="15.75" customHeight="1">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="E242" s="1"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="5:9" ht="15.75" customHeight="1">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="E243" s="1"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="3"/>
     </row>
-    <row r="244" spans="5:9" ht="15.75" customHeight="1">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="E244" s="1"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" s="3"/>
     </row>
-    <row r="245" spans="5:9" ht="15.75" customHeight="1">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="E245" s="1"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" s="3"/>
     </row>
-    <row r="246" spans="5:9" ht="15.75" customHeight="1">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="E246" s="1"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="I246" s="3"/>
     </row>
-    <row r="247" spans="5:9" ht="15.75" customHeight="1">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="E247" s="1"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="I247" s="3"/>
     </row>
-    <row r="248" spans="5:9" ht="15.75" customHeight="1">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="E248" s="1"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="3"/>
     </row>
-    <row r="249" spans="5:9" ht="15.75" customHeight="1">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="E249" s="1"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="3"/>
     </row>
-    <row r="250" spans="5:9" ht="15.75" customHeight="1">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="E250" s="1"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="3"/>
     </row>
-    <row r="251" spans="5:9" ht="15.75" customHeight="1">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="E251" s="1"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="3"/>
     </row>
-    <row r="252" spans="5:9" ht="15.75" customHeight="1">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="E252" s="1"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="3"/>
     </row>
-    <row r="253" spans="5:9" ht="15.75" customHeight="1">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="E253" s="1"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="I253" s="3"/>
     </row>
-    <row r="254" spans="5:9" ht="15.75" customHeight="1">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="E254" s="1"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="3"/>
     </row>
-    <row r="255" spans="5:9" ht="15.75" customHeight="1">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="E255" s="1"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="3"/>
     </row>
-    <row r="256" spans="5:9" ht="15.75" customHeight="1">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="E256" s="1"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="I256" s="3"/>
     </row>
-    <row r="257" spans="5:9" ht="15.75" customHeight="1">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="E257" s="1"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="I257" s="3"/>
     </row>
-    <row r="258" spans="5:9" ht="15.75" customHeight="1">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="E258" s="1"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="3"/>
     </row>
-    <row r="259" spans="5:9" ht="15.75" customHeight="1">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="E259" s="1"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="3"/>
     </row>
-    <row r="260" spans="5:9" ht="15.75" customHeight="1">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="E260" s="1"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="I260" s="3"/>
     </row>
-    <row r="261" spans="5:9" ht="15.75" customHeight="1">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="E261" s="1"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="3"/>
     </row>
-    <row r="262" spans="5:9" ht="15.75" customHeight="1">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="E262" s="1"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="3"/>
     </row>
-    <row r="263" spans="5:9" ht="15.75" customHeight="1">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="E263" s="1"/>
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="I263" s="3"/>
     </row>
-    <row r="264" spans="5:9" ht="15.75" customHeight="1">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="E264" s="1"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" s="3"/>
     </row>
-    <row r="265" spans="5:9" ht="15.75" customHeight="1">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="E265" s="1"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="I265" s="3"/>
     </row>
-    <row r="266" spans="5:9" ht="15.75" customHeight="1">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="E266" s="1"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="5:9" ht="15.75" customHeight="1">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="E267" s="1"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="3"/>
     </row>
-    <row r="268" spans="5:9" ht="15.75" customHeight="1">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="E268" s="1"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="3"/>
     </row>
-    <row r="269" spans="5:9" ht="15.75" customHeight="1">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="E269" s="1"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="I269" s="3"/>
     </row>
-    <row r="270" spans="5:9" ht="15.75" customHeight="1">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="E270" s="1"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="3"/>
     </row>
-    <row r="271" spans="5:9" ht="15.75" customHeight="1">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="E271" s="1"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="3"/>
     </row>
-    <row r="272" spans="5:9" ht="15.75" customHeight="1">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="E272" s="1"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="3"/>
     </row>
-    <row r="273" spans="5:9" ht="15.75" customHeight="1">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="E273" s="1"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="3"/>
     </row>
-    <row r="274" spans="5:9" ht="15.75" customHeight="1">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="E274" s="1"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="3"/>
     </row>
-    <row r="275" spans="5:9" ht="15.75" customHeight="1">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="E275" s="1"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" s="3"/>
     </row>
-    <row r="276" spans="5:9" ht="15.75" customHeight="1">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="E276" s="1"/>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="I276" s="3"/>
     </row>
-    <row r="277" spans="5:9" ht="15.75" customHeight="1">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="E277" s="1"/>
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="I277" s="3"/>
     </row>
-    <row r="278" spans="5:9" ht="15.75" customHeight="1">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="E278" s="1"/>
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="I278" s="3"/>
     </row>
-    <row r="279" spans="5:9" ht="15.75" customHeight="1">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="E279" s="1"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="3"/>
     </row>
-    <row r="280" spans="5:9" ht="15.75" customHeight="1">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="E280" s="1"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="3"/>
     </row>
-    <row r="281" spans="5:9" ht="15.75" customHeight="1">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="E281" s="1"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="3"/>
     </row>
-    <row r="282" spans="5:9" ht="15.75" customHeight="1">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="E282" s="1"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="3"/>
     </row>
-    <row r="283" spans="5:9" ht="15.75" customHeight="1">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="E283" s="1"/>
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="I283" s="3"/>
     </row>
-    <row r="284" spans="5:9" ht="15.75" customHeight="1">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="E284" s="1"/>
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="I284" s="3"/>
     </row>
-    <row r="285" spans="5:9" ht="15.75" customHeight="1">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="E285" s="1"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="I285" s="3"/>
     </row>
-    <row r="286" spans="5:9" ht="15.75" customHeight="1">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="E286" s="1"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="3"/>
     </row>
-    <row r="287" spans="5:9" ht="15.75" customHeight="1">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="E287" s="1"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="3"/>
     </row>
-    <row r="288" spans="5:9" ht="15.75" customHeight="1">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="E288" s="1"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="3"/>
     </row>
-    <row r="289" spans="5:9" ht="15.75" customHeight="1">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="E289" s="1"/>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="I289" s="3"/>
     </row>
-    <row r="290" spans="5:9" ht="15.75" customHeight="1">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="E290" s="1"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="3"/>
     </row>
-    <row r="291" spans="5:9" ht="15.75" customHeight="1">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="E291" s="1"/>
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="I291" s="3"/>
     </row>
-    <row r="292" spans="5:9" ht="15.75" customHeight="1">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="E292" s="1"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="I292" s="3"/>
     </row>
-    <row r="293" spans="5:9" ht="15.75" customHeight="1">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="E293" s="1"/>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="I293" s="3"/>
     </row>
-    <row r="294" spans="5:9" ht="15.75" customHeight="1">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="E294" s="1"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="3"/>
     </row>
-    <row r="295" spans="5:9" ht="15.75" customHeight="1">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="E295" s="1"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="I295" s="3"/>
     </row>
-    <row r="296" spans="5:9" ht="15.75" customHeight="1">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="E296" s="1"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="3"/>
     </row>
-    <row r="297" spans="5:9" ht="15.75" customHeight="1">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="E297" s="1"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="3"/>
     </row>
-    <row r="298" spans="5:9" ht="15.75" customHeight="1">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="E298" s="1"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="I298" s="3"/>
     </row>
-    <row r="299" spans="5:9" ht="15.75" customHeight="1">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="E299" s="1"/>
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="I299" s="3"/>
     </row>
-    <row r="300" spans="5:9" ht="15.75" customHeight="1">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="E300" s="1"/>
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="I300" s="3"/>
     </row>
-    <row r="301" spans="5:9" ht="15.75" customHeight="1">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="E301" s="1"/>
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="I301" s="3"/>
     </row>
-    <row r="302" spans="5:9" ht="15.75" customHeight="1">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="E302" s="1"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="3"/>
     </row>
-    <row r="303" spans="5:9" ht="15.75" customHeight="1">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="E303" s="1"/>
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" s="3"/>
     </row>
-    <row r="304" spans="5:9" ht="15.75" customHeight="1">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="E304" s="1"/>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="I304" s="3"/>
     </row>
-    <row r="305" spans="5:9" ht="15.75" customHeight="1">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="E305" s="1"/>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" s="3"/>
     </row>
-    <row r="306" spans="5:9" ht="15.75" customHeight="1">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="E306" s="1"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="I306" s="3"/>
     </row>
-    <row r="307" spans="5:9" ht="15.75" customHeight="1">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="E307" s="1"/>
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="I307" s="3"/>
     </row>
-    <row r="308" spans="5:9" ht="15.75" customHeight="1">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="E308" s="1"/>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="I308" s="3"/>
     </row>
-    <row r="309" spans="5:9" ht="15.75" customHeight="1">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="E309" s="1"/>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="I309" s="3"/>
     </row>
-    <row r="310" spans="5:9" ht="15.75" customHeight="1">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="E310" s="1"/>
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="I310" s="3"/>
     </row>
-    <row r="311" spans="5:9" ht="15.75" customHeight="1">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="E311" s="1"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="I311" s="3"/>
     </row>
-    <row r="312" spans="5:9" ht="15.75" customHeight="1">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="E312" s="1"/>
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="I312" s="3"/>
     </row>
-    <row r="313" spans="5:9" ht="15.75" customHeight="1">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="E313" s="1"/>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="3"/>
     </row>
-    <row r="314" spans="5:9" ht="15.75" customHeight="1">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="E314" s="1"/>
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="5:9" ht="15.75" customHeight="1">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="E315" s="1"/>
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="I315" s="3"/>
     </row>
-    <row r="316" spans="5:9" ht="15.75" customHeight="1">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="E316" s="1"/>
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="I316" s="3"/>
     </row>
-    <row r="317" spans="5:9" ht="15.75" customHeight="1">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="E317" s="1"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="I317" s="3"/>
     </row>
-    <row r="318" spans="5:9" ht="15.75" customHeight="1">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="E318" s="1"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="3"/>
     </row>
-    <row r="319" spans="5:9" ht="15.75" customHeight="1">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="E319" s="1"/>
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="3"/>
     </row>
-    <row r="320" spans="5:9" ht="15.75" customHeight="1">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="E320" s="1"/>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="I320" s="3"/>
     </row>
-    <row r="321" spans="5:9" ht="15.75" customHeight="1">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="E321" s="1"/>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="3"/>
     </row>
-    <row r="322" spans="5:9" ht="15.75" customHeight="1">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="E322" s="1"/>
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="I322" s="3"/>
     </row>
-    <row r="323" spans="5:9" ht="15.75" customHeight="1">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="E323" s="1"/>
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="I323" s="3"/>
     </row>
-    <row r="324" spans="5:9" ht="15.75" customHeight="1">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="E324" s="1"/>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="I324" s="3"/>
     </row>
-    <row r="325" spans="5:9" ht="15.75" customHeight="1">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="E325" s="1"/>
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="I325" s="3"/>
     </row>
-    <row r="326" spans="5:9" ht="15.75" customHeight="1">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="E326" s="1"/>
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="I326" s="3"/>
     </row>
-    <row r="327" spans="5:9" ht="15.75" customHeight="1">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="E327" s="1"/>
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="I327" s="3"/>
     </row>
-    <row r="328" spans="5:9" ht="15.75" customHeight="1">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="E328" s="1"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" s="3"/>
     </row>
-    <row r="329" spans="5:9" ht="15.75" customHeight="1">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="E329" s="1"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" s="3"/>
     </row>
-    <row r="330" spans="5:9" ht="15.75" customHeight="1">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="E330" s="1"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" s="3"/>
     </row>
-    <row r="331" spans="5:9" ht="15.75" customHeight="1">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="E331" s="1"/>
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="I331" s="3"/>
     </row>
-    <row r="332" spans="5:9" ht="15.75" customHeight="1">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="E332" s="1"/>
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="I332" s="3"/>
     </row>
-    <row r="333" spans="5:9" ht="15.75" customHeight="1">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="E333" s="1"/>
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="I333" s="3"/>
     </row>
-    <row r="334" spans="5:9" ht="15.75" customHeight="1">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="E334" s="1"/>
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="I334" s="3"/>
     </row>
-    <row r="335" spans="5:9" ht="15.75" customHeight="1">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="E335" s="1"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="I335" s="3"/>
     </row>
-    <row r="336" spans="5:9" ht="15.75" customHeight="1">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="E336" s="1"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="5:9" ht="15.75" customHeight="1">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="E337" s="1"/>
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="I337" s="3"/>
     </row>
-    <row r="338" spans="5:9" ht="15.75" customHeight="1">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="E338" s="1"/>
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="I338" s="3"/>
     </row>
-    <row r="339" spans="5:9" ht="15.75" customHeight="1">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="E339" s="1"/>
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="I339" s="3"/>
     </row>
-    <row r="340" spans="5:9" ht="15.75" customHeight="1">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="E340" s="1"/>
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="I340" s="3"/>
     </row>
-    <row r="341" spans="5:9" ht="15.75" customHeight="1">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="E341" s="1"/>
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="3"/>
     </row>
-    <row r="342" spans="5:9" ht="15.75" customHeight="1">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="E342" s="1"/>
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="I342" s="3"/>
     </row>
-    <row r="343" spans="5:9" ht="15.75" customHeight="1">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="E343" s="1"/>
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="I343" s="3"/>
     </row>
-    <row r="344" spans="5:9" ht="15.75" customHeight="1">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="E344" s="1"/>
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="I344" s="3"/>
     </row>
-    <row r="345" spans="5:9" ht="15.75" customHeight="1">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="E345" s="1"/>
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="I345" s="3"/>
     </row>
-    <row r="346" spans="5:9" ht="15.75" customHeight="1">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="E346" s="1"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="3"/>
     </row>
-    <row r="347" spans="5:9" ht="15.75" customHeight="1">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="E347" s="1"/>
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="I347" s="3"/>
     </row>
-    <row r="348" spans="5:9" ht="15.75" customHeight="1">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="E348" s="1"/>
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="I348" s="3"/>
     </row>
-    <row r="349" spans="5:9" ht="15.75" customHeight="1">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="E349" s="1"/>
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="I349" s="3"/>
     </row>
-    <row r="350" spans="5:9" ht="15.75" customHeight="1">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="E350" s="1"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="I350" s="3"/>
     </row>
-    <row r="351" spans="5:9" ht="15.75" customHeight="1">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="E351" s="1"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="I351" s="3"/>
     </row>
-    <row r="352" spans="5:9" ht="15.75" customHeight="1">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="E352" s="1"/>
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="I352" s="3"/>
     </row>
-    <row r="353" spans="5:9" ht="15.75" customHeight="1">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="E353" s="1"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="I353" s="3"/>
     </row>
-    <row r="354" spans="5:9" ht="15.75" customHeight="1">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="E354" s="1"/>
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="I354" s="3"/>
     </row>
-    <row r="355" spans="5:9" ht="15.75" customHeight="1">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="E355" s="1"/>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="I355" s="3"/>
     </row>
-    <row r="356" spans="5:9" ht="15.75" customHeight="1">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="E356" s="1"/>
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="I356" s="3"/>
     </row>
-    <row r="357" spans="5:9" ht="15.75" customHeight="1">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="E357" s="1"/>
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="I357" s="3"/>
     </row>
-    <row r="358" spans="5:9" ht="15.75" customHeight="1">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="E358" s="1"/>
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="I358" s="3"/>
     </row>
-    <row r="359" spans="5:9" ht="15.75" customHeight="1">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="E359" s="1"/>
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="I359" s="3"/>
     </row>
-    <row r="360" spans="5:9" ht="15.75" customHeight="1">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="E360" s="1"/>
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="I360" s="3"/>
     </row>
-    <row r="361" spans="5:9" ht="15.75" customHeight="1">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="E361" s="1"/>
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="I361" s="3"/>
     </row>
-    <row r="362" spans="5:9" ht="15.75" customHeight="1">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="E362" s="1"/>
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="I362" s="3"/>
     </row>
-    <row r="363" spans="5:9" ht="15.75" customHeight="1">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="E363" s="1"/>
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="I363" s="3"/>
     </row>
-    <row r="364" spans="5:9" ht="15.75" customHeight="1">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="E364" s="1"/>
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="I364" s="3"/>
     </row>
-    <row r="365" spans="5:9" ht="15.75" customHeight="1">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="E365" s="1"/>
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="I365" s="3"/>
     </row>
-    <row r="366" spans="5:9" ht="15.75" customHeight="1">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="E366" s="1"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="3"/>
     </row>
-    <row r="367" spans="5:9" ht="15.75" customHeight="1">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="E367" s="1"/>
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="I367" s="3"/>
     </row>
-    <row r="368" spans="5:9" ht="15.75" customHeight="1">
+    <row r="368" ht="15.75" customHeight="1">
       <c r="E368" s="1"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="3"/>
     </row>
-    <row r="369" spans="5:9" ht="15.75" customHeight="1">
+    <row r="369" ht="15.75" customHeight="1">
       <c r="E369" s="1"/>
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="3"/>
     </row>
-    <row r="370" spans="5:9" ht="15.75" customHeight="1">
+    <row r="370" ht="15.75" customHeight="1">
       <c r="E370" s="1"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="I370" s="3"/>
     </row>
-    <row r="371" spans="5:9" ht="15.75" customHeight="1">
+    <row r="371" ht="15.75" customHeight="1">
       <c r="E371" s="1"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="I371" s="3"/>
     </row>
-    <row r="372" spans="5:9" ht="15.75" customHeight="1">
+    <row r="372" ht="15.75" customHeight="1">
       <c r="E372" s="1"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="3"/>
     </row>
-    <row r="373" spans="5:9" ht="15.75" customHeight="1">
+    <row r="373" ht="15.75" customHeight="1">
       <c r="E373" s="1"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="I373" s="3"/>
     </row>
-    <row r="374" spans="5:9" ht="15.75" customHeight="1">
+    <row r="374" ht="15.75" customHeight="1">
       <c r="E374" s="1"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="I374" s="3"/>
     </row>
-    <row r="375" spans="5:9" ht="15.75" customHeight="1">
+    <row r="375" ht="15.75" customHeight="1">
       <c r="E375" s="1"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="I375" s="3"/>
     </row>
-    <row r="376" spans="5:9" ht="15.75" customHeight="1">
+    <row r="376" ht="15.75" customHeight="1">
       <c r="E376" s="1"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="I376" s="3"/>
     </row>
-    <row r="377" spans="5:9" ht="15.75" customHeight="1">
+    <row r="377" ht="15.75" customHeight="1">
       <c r="E377" s="1"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="I377" s="3"/>
     </row>
-    <row r="378" spans="5:9" ht="15.75" customHeight="1">
+    <row r="378" ht="15.75" customHeight="1">
       <c r="E378" s="1"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="I378" s="3"/>
     </row>
-    <row r="379" spans="5:9" ht="15.75" customHeight="1">
+    <row r="379" ht="15.75" customHeight="1">
       <c r="E379" s="1"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="I379" s="3"/>
     </row>
-    <row r="380" spans="5:9" ht="15.75" customHeight="1">
+    <row r="380" ht="15.75" customHeight="1">
       <c r="E380" s="1"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="3"/>
     </row>
-    <row r="381" spans="5:9" ht="15.75" customHeight="1">
+    <row r="381" ht="15.75" customHeight="1">
       <c r="E381" s="1"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="3"/>
     </row>
-    <row r="382" spans="5:9" ht="15.75" customHeight="1">
+    <row r="382" ht="15.75" customHeight="1">
       <c r="E382" s="1"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="I382" s="3"/>
     </row>
-    <row r="383" spans="5:9" ht="15.75" customHeight="1">
+    <row r="383" ht="15.75" customHeight="1">
       <c r="E383" s="1"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="3"/>
     </row>
-    <row r="384" spans="5:9" ht="15.75" customHeight="1">
+    <row r="384" ht="15.75" customHeight="1">
       <c r="E384" s="1"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="I384" s="3"/>
     </row>
-    <row r="385" spans="5:9" ht="15.75" customHeight="1">
+    <row r="385" ht="15.75" customHeight="1">
       <c r="E385" s="1"/>
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="I385" s="3"/>
     </row>
-    <row r="386" spans="5:9" ht="15.75" customHeight="1">
+    <row r="386" ht="15.75" customHeight="1">
       <c r="E386" s="1"/>
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="I386" s="3"/>
     </row>
-    <row r="387" spans="5:9" ht="15.75" customHeight="1">
+    <row r="387" ht="15.75" customHeight="1">
       <c r="E387" s="1"/>
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="I387" s="3"/>
     </row>
-    <row r="388" spans="5:9" ht="15.75" customHeight="1">
+    <row r="388" ht="15.75" customHeight="1">
       <c r="E388" s="1"/>
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="I388" s="3"/>
     </row>
-    <row r="389" spans="5:9" ht="15.75" customHeight="1">
+    <row r="389" ht="15.75" customHeight="1">
       <c r="E389" s="1"/>
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="I389" s="3"/>
     </row>
-    <row r="390" spans="5:9" ht="15.75" customHeight="1">
+    <row r="390" ht="15.75" customHeight="1">
       <c r="E390" s="1"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="3"/>
     </row>
-    <row r="391" spans="5:9" ht="15.75" customHeight="1">
+    <row r="391" ht="15.75" customHeight="1">
       <c r="E391" s="1"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="3"/>
     </row>
-    <row r="392" spans="5:9" ht="15.75" customHeight="1">
+    <row r="392" ht="15.75" customHeight="1">
       <c r="E392" s="1"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="I392" s="3"/>
     </row>
-    <row r="393" spans="5:9" ht="15.75" customHeight="1">
+    <row r="393" ht="15.75" customHeight="1">
       <c r="E393" s="1"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="3"/>
     </row>
-    <row r="394" spans="5:9" ht="15.75" customHeight="1">
+    <row r="394" ht="15.75" customHeight="1">
       <c r="E394" s="1"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="3"/>
     </row>
-    <row r="395" spans="5:9" ht="15.75" customHeight="1">
+    <row r="395" ht="15.75" customHeight="1">
       <c r="E395" s="1"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="I395" s="3"/>
     </row>
-    <row r="396" spans="5:9" ht="15.75" customHeight="1">
+    <row r="396" ht="15.75" customHeight="1">
       <c r="E396" s="1"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="I396" s="3"/>
     </row>
-    <row r="397" spans="5:9" ht="15.75" customHeight="1">
+    <row r="397" ht="15.75" customHeight="1">
       <c r="E397" s="1"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="I397" s="3"/>
     </row>
-    <row r="398" spans="5:9" ht="15.75" customHeight="1">
+    <row r="398" ht="15.75" customHeight="1">
       <c r="E398" s="1"/>
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="I398" s="3"/>
     </row>
-    <row r="399" spans="5:9" ht="15.75" customHeight="1">
+    <row r="399" ht="15.75" customHeight="1">
       <c r="E399" s="1"/>
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="I399" s="3"/>
     </row>
-    <row r="400" spans="5:9" ht="15.75" customHeight="1">
+    <row r="400" ht="15.75" customHeight="1">
       <c r="E400" s="1"/>
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="I400" s="3"/>
     </row>
-    <row r="401" spans="5:9" ht="15.75" customHeight="1">
+    <row r="401" ht="15.75" customHeight="1">
       <c r="E401" s="1"/>
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="I401" s="3"/>
     </row>
-    <row r="402" spans="5:9" ht="15.75" customHeight="1">
+    <row r="402" ht="15.75" customHeight="1">
       <c r="E402" s="1"/>
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="I402" s="3"/>
     </row>
-    <row r="403" spans="5:9" ht="15.75" customHeight="1">
+    <row r="403" ht="15.75" customHeight="1">
       <c r="E403" s="1"/>
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="I403" s="3"/>
     </row>
-    <row r="404" spans="5:9" ht="15.75" customHeight="1">
+    <row r="404" ht="15.75" customHeight="1">
       <c r="E404" s="1"/>
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="I404" s="3"/>
     </row>
-    <row r="405" spans="5:9" ht="15.75" customHeight="1">
+    <row r="405" ht="15.75" customHeight="1">
       <c r="E405" s="1"/>
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="I405" s="3"/>
     </row>
-    <row r="406" spans="5:9" ht="15.75" customHeight="1">
+    <row r="406" ht="15.75" customHeight="1">
       <c r="E406" s="1"/>
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="I406" s="3"/>
     </row>
-    <row r="407" spans="5:9" ht="15.75" customHeight="1">
+    <row r="407" ht="15.75" customHeight="1">
       <c r="E407" s="1"/>
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="I407" s="3"/>
     </row>
-    <row r="408" spans="5:9" ht="15.75" customHeight="1">
+    <row r="408" ht="15.75" customHeight="1">
       <c r="E408" s="1"/>
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="I408" s="3"/>
     </row>
-    <row r="409" spans="5:9" ht="15.75" customHeight="1">
+    <row r="409" ht="15.75" customHeight="1">
       <c r="E409" s="1"/>
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="I409" s="3"/>
     </row>
-    <row r="410" spans="5:9" ht="15.75" customHeight="1">
+    <row r="410" ht="15.75" customHeight="1">
       <c r="E410" s="1"/>
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="I410" s="3"/>
     </row>
-    <row r="411" spans="5:9" ht="15.75" customHeight="1">
+    <row r="411" ht="15.75" customHeight="1">
       <c r="E411" s="1"/>
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="I411" s="3"/>
     </row>
-    <row r="412" spans="5:9" ht="15.75" customHeight="1">
+    <row r="412" ht="15.75" customHeight="1">
       <c r="E412" s="1"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="3"/>
     </row>
-    <row r="413" spans="5:9" ht="15.75" customHeight="1">
+    <row r="413" ht="15.75" customHeight="1">
       <c r="E413" s="1"/>
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="I413" s="3"/>
     </row>
-    <row r="414" spans="5:9" ht="15.75" customHeight="1">
+    <row r="414" ht="15.75" customHeight="1">
       <c r="E414" s="1"/>
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="I414" s="3"/>
     </row>
-    <row r="415" spans="5:9" ht="15.75" customHeight="1">
+    <row r="415" ht="15.75" customHeight="1">
       <c r="E415" s="1"/>
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" s="3"/>
     </row>
-    <row r="416" spans="5:9" ht="15.75" customHeight="1">
+    <row r="416" ht="15.75" customHeight="1">
       <c r="E416" s="1"/>
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="3"/>
     </row>
-    <row r="417" spans="5:9" ht="15.75" customHeight="1">
+    <row r="417" ht="15.75" customHeight="1">
       <c r="E417" s="1"/>
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="I417" s="3"/>
     </row>
-    <row r="418" spans="5:9" ht="15.75" customHeight="1">
+    <row r="418" ht="15.75" customHeight="1">
       <c r="E418" s="1"/>
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="I418" s="3"/>
     </row>
-    <row r="419" spans="5:9" ht="15.75" customHeight="1">
+    <row r="419" ht="15.75" customHeight="1">
       <c r="E419" s="1"/>
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="I419" s="3"/>
     </row>
-    <row r="420" spans="5:9" ht="15.75" customHeight="1">
+    <row r="420" ht="15.75" customHeight="1">
       <c r="E420" s="1"/>
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="I420" s="3"/>
     </row>
-    <row r="421" spans="5:9" ht="15.75" customHeight="1">
+    <row r="421" ht="15.75" customHeight="1">
       <c r="E421" s="1"/>
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="I421" s="3"/>
     </row>
-    <row r="422" spans="5:9" ht="15.75" customHeight="1">
+    <row r="422" ht="15.75" customHeight="1">
       <c r="E422" s="1"/>
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
       <c r="I422" s="3"/>
     </row>
-    <row r="423" spans="5:9" ht="15.75" customHeight="1">
+    <row r="423" ht="15.75" customHeight="1">
       <c r="E423" s="1"/>
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
       <c r="I423" s="3"/>
     </row>
-    <row r="424" spans="5:9" ht="15.75" customHeight="1">
+    <row r="424" ht="15.75" customHeight="1">
       <c r="E424" s="1"/>
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
       <c r="I424" s="3"/>
     </row>
-    <row r="425" spans="5:9" ht="15.75" customHeight="1">
+    <row r="425" ht="15.75" customHeight="1">
       <c r="E425" s="1"/>
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
       <c r="I425" s="3"/>
     </row>
-    <row r="426" spans="5:9" ht="15.75" customHeight="1">
+    <row r="426" ht="15.75" customHeight="1">
       <c r="E426" s="1"/>
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
       <c r="I426" s="3"/>
     </row>
-    <row r="427" spans="5:9" ht="15.75" customHeight="1">
+    <row r="427" ht="15.75" customHeight="1">
       <c r="E427" s="1"/>
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
       <c r="I427" s="3"/>
     </row>
-    <row r="428" spans="5:9" ht="15.75" customHeight="1">
+    <row r="428" ht="15.75" customHeight="1">
       <c r="E428" s="1"/>
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
       <c r="I428" s="3"/>
     </row>
-    <row r="429" spans="5:9" ht="15.75" customHeight="1">
+    <row r="429" ht="15.75" customHeight="1">
       <c r="E429" s="1"/>
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
       <c r="I429" s="3"/>
     </row>
-    <row r="430" spans="5:9" ht="15.75" customHeight="1">
+    <row r="430" ht="15.75" customHeight="1">
       <c r="E430" s="1"/>
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="I430" s="3"/>
     </row>
-    <row r="431" spans="5:9" ht="15.75" customHeight="1">
+    <row r="431" ht="15.75" customHeight="1">
       <c r="E431" s="1"/>
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
       <c r="I431" s="3"/>
     </row>
-    <row r="432" spans="5:9" ht="15.75" customHeight="1">
+    <row r="432" ht="15.75" customHeight="1">
       <c r="E432" s="1"/>
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
       <c r="I432" s="3"/>
     </row>
-    <row r="433" spans="5:9" ht="15.75" customHeight="1">
+    <row r="433" ht="15.75" customHeight="1">
       <c r="E433" s="1"/>
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="I433" s="3"/>
     </row>
-    <row r="434" spans="5:9" ht="15.75" customHeight="1">
+    <row r="434" ht="15.75" customHeight="1">
       <c r="E434" s="1"/>
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="I434" s="3"/>
     </row>
-    <row r="435" spans="5:9" ht="15.75" customHeight="1">
+    <row r="435" ht="15.75" customHeight="1">
       <c r="E435" s="1"/>
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
       <c r="I435" s="3"/>
     </row>
-    <row r="436" spans="5:9" ht="15.75" customHeight="1">
+    <row r="436" ht="15.75" customHeight="1">
       <c r="E436" s="1"/>
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
       <c r="I436" s="3"/>
     </row>
-    <row r="437" spans="5:9" ht="15.75" customHeight="1">
+    <row r="437" ht="15.75" customHeight="1">
       <c r="E437" s="1"/>
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
       <c r="I437" s="3"/>
     </row>
-    <row r="438" spans="5:9" ht="15.75" customHeight="1">
+    <row r="438" ht="15.75" customHeight="1">
       <c r="E438" s="1"/>
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="I438" s="3"/>
     </row>
-    <row r="439" spans="5:9" ht="15.75" customHeight="1">
+    <row r="439" ht="15.75" customHeight="1">
       <c r="E439" s="1"/>
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="I439" s="3"/>
     </row>
-    <row r="440" spans="5:9" ht="15.75" customHeight="1">
+    <row r="440" ht="15.75" customHeight="1">
       <c r="E440" s="1"/>
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
       <c r="I440" s="3"/>
     </row>
-    <row r="441" spans="5:9" ht="15.75" customHeight="1">
+    <row r="441" ht="15.75" customHeight="1">
       <c r="E441" s="1"/>
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
       <c r="I441" s="3"/>
     </row>
-    <row r="442" spans="5:9" ht="15.75" customHeight="1">
+    <row r="442" ht="15.75" customHeight="1">
       <c r="E442" s="1"/>
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
       <c r="I442" s="3"/>
     </row>
-    <row r="443" spans="5:9" ht="15.75" customHeight="1">
+    <row r="443" ht="15.75" customHeight="1">
       <c r="E443" s="1"/>
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="I443" s="3"/>
     </row>
-    <row r="444" spans="5:9" ht="15.75" customHeight="1">
+    <row r="444" ht="15.75" customHeight="1">
       <c r="E444" s="1"/>
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="I444" s="3"/>
     </row>
-    <row r="445" spans="5:9" ht="15.75" customHeight="1">
+    <row r="445" ht="15.75" customHeight="1">
       <c r="E445" s="1"/>
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
       <c r="I445" s="3"/>
     </row>
-    <row r="446" spans="5:9" ht="15.75" customHeight="1">
+    <row r="446" ht="15.75" customHeight="1">
       <c r="E446" s="1"/>
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
       <c r="I446" s="3"/>
     </row>
-    <row r="447" spans="5:9" ht="15.75" customHeight="1">
+    <row r="447" ht="15.75" customHeight="1">
       <c r="E447" s="1"/>
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
       <c r="I447" s="3"/>
     </row>
-    <row r="448" spans="5:9" ht="15.75" customHeight="1">
+    <row r="448" ht="15.75" customHeight="1">
       <c r="E448" s="1"/>
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
       <c r="I448" s="3"/>
     </row>
-    <row r="449" spans="5:9" ht="15.75" customHeight="1">
+    <row r="449" ht="15.75" customHeight="1">
       <c r="E449" s="1"/>
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
       <c r="I449" s="3"/>
     </row>
-    <row r="450" spans="5:9" ht="15.75" customHeight="1">
+    <row r="450" ht="15.75" customHeight="1">
       <c r="E450" s="1"/>
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
       <c r="I450" s="3"/>
     </row>
-    <row r="451" spans="5:9" ht="15.75" customHeight="1">
+    <row r="451" ht="15.75" customHeight="1">
       <c r="E451" s="1"/>
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
       <c r="I451" s="3"/>
     </row>
-    <row r="452" spans="5:9" ht="15.75" customHeight="1">
+    <row r="452" ht="15.75" customHeight="1">
       <c r="E452" s="1"/>
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
       <c r="I452" s="3"/>
     </row>
-    <row r="453" spans="5:9" ht="15.75" customHeight="1">
+    <row r="453" ht="15.75" customHeight="1">
       <c r="E453" s="1"/>
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
       <c r="I453" s="3"/>
     </row>
-    <row r="454" spans="5:9" ht="15.75" customHeight="1">
+    <row r="454" ht="15.75" customHeight="1">
       <c r="E454" s="1"/>
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
       <c r="I454" s="3"/>
     </row>
-    <row r="455" spans="5:9" ht="15.75" customHeight="1">
+    <row r="455" ht="15.75" customHeight="1">
       <c r="E455" s="1"/>
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
       <c r="I455" s="3"/>
     </row>
-    <row r="456" spans="5:9" ht="15.75" customHeight="1">
+    <row r="456" ht="15.75" customHeight="1">
       <c r="E456" s="1"/>
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" s="3"/>
     </row>
-    <row r="457" spans="5:9" ht="15.75" customHeight="1">
+    <row r="457" ht="15.75" customHeight="1">
       <c r="E457" s="1"/>
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="I457" s="3"/>
     </row>
-    <row r="458" spans="5:9" ht="15.75" customHeight="1">
+    <row r="458" ht="15.75" customHeight="1">
       <c r="E458" s="1"/>
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
       <c r="I458" s="3"/>
     </row>
-    <row r="459" spans="5:9" ht="15.75" customHeight="1">
+    <row r="459" ht="15.75" customHeight="1">
       <c r="E459" s="1"/>
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="I459" s="3"/>
     </row>
-    <row r="460" spans="5:9" ht="15.75" customHeight="1">
+    <row r="460" ht="15.75" customHeight="1">
       <c r="E460" s="1"/>
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="I460" s="3"/>
     </row>
-    <row r="461" spans="5:9" ht="15.75" customHeight="1">
+    <row r="461" ht="15.75" customHeight="1">
       <c r="E461" s="1"/>
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="I461" s="3"/>
     </row>
-    <row r="462" spans="5:9" ht="15.75" customHeight="1">
+    <row r="462" ht="15.75" customHeight="1">
       <c r="E462" s="1"/>
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
       <c r="I462" s="3"/>
     </row>
-    <row r="463" spans="5:9" ht="15.75" customHeight="1">
+    <row r="463" ht="15.75" customHeight="1">
       <c r="E463" s="1"/>
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
       <c r="I463" s="3"/>
     </row>
-    <row r="464" spans="5:9" ht="15.75" customHeight="1">
+    <row r="464" ht="15.75" customHeight="1">
       <c r="E464" s="1"/>
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
       <c r="I464" s="3"/>
     </row>
-    <row r="465" spans="5:9" ht="15.75" customHeight="1">
+    <row r="465" ht="15.75" customHeight="1">
       <c r="E465" s="1"/>
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
       <c r="I465" s="3"/>
     </row>
-    <row r="466" spans="5:9" ht="15.75" customHeight="1">
+    <row r="466" ht="15.75" customHeight="1">
       <c r="E466" s="1"/>
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
       <c r="I466" s="3"/>
     </row>
-    <row r="467" spans="5:9" ht="15.75" customHeight="1">
+    <row r="467" ht="15.75" customHeight="1">
       <c r="E467" s="1"/>
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
       <c r="I467" s="3"/>
     </row>
-    <row r="468" spans="5:9" ht="15.75" customHeight="1">
+    <row r="468" ht="15.75" customHeight="1">
       <c r="E468" s="1"/>
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
       <c r="I468" s="3"/>
     </row>
-    <row r="469" spans="5:9" ht="15.75" customHeight="1">
+    <row r="469" ht="15.75" customHeight="1">
       <c r="E469" s="1"/>
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
       <c r="I469" s="3"/>
     </row>
-    <row r="470" spans="5:9" ht="15.75" customHeight="1">
+    <row r="470" ht="15.75" customHeight="1">
       <c r="E470" s="1"/>
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
       <c r="I470" s="3"/>
     </row>
-    <row r="471" spans="5:9" ht="15.75" customHeight="1">
+    <row r="471" ht="15.75" customHeight="1">
       <c r="E471" s="1"/>
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
       <c r="I471" s="3"/>
     </row>
-    <row r="472" spans="5:9" ht="15.75" customHeight="1">
+    <row r="472" ht="15.75" customHeight="1">
       <c r="E472" s="1"/>
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="I472" s="3"/>
     </row>
-    <row r="473" spans="5:9" ht="15.75" customHeight="1">
+    <row r="473" ht="15.75" customHeight="1">
       <c r="E473" s="1"/>
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="I473" s="3"/>
     </row>
-    <row r="474" spans="5:9" ht="15.75" customHeight="1">
+    <row r="474" ht="15.75" customHeight="1">
       <c r="E474" s="1"/>
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
       <c r="I474" s="3"/>
     </row>
-    <row r="475" spans="5:9" ht="15.75" customHeight="1">
+    <row r="475" ht="15.75" customHeight="1">
       <c r="E475" s="1"/>
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
       <c r="I475" s="3"/>
     </row>
-    <row r="476" spans="5:9" ht="15.75" customHeight="1">
+    <row r="476" ht="15.75" customHeight="1">
       <c r="E476" s="1"/>
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="I476" s="3"/>
     </row>
-    <row r="477" spans="5:9" ht="15.75" customHeight="1">
+    <row r="477" ht="15.75" customHeight="1">
       <c r="E477" s="1"/>
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="I477" s="3"/>
     </row>
-    <row r="478" spans="5:9" ht="15.75" customHeight="1">
+    <row r="478" ht="15.75" customHeight="1">
       <c r="E478" s="1"/>
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
       <c r="I478" s="3"/>
     </row>
-    <row r="479" spans="5:9" ht="15.75" customHeight="1">
+    <row r="479" ht="15.75" customHeight="1">
       <c r="E479" s="1"/>
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
       <c r="I479" s="3"/>
     </row>
-    <row r="480" spans="5:9" ht="15.75" customHeight="1">
+    <row r="480" ht="15.75" customHeight="1">
       <c r="E480" s="1"/>
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
       <c r="I480" s="3"/>
     </row>
-    <row r="481" spans="5:9" ht="15.75" customHeight="1">
+    <row r="481" ht="15.75" customHeight="1">
       <c r="E481" s="1"/>
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
       <c r="I481" s="3"/>
     </row>
-    <row r="482" spans="5:9" ht="15.75" customHeight="1">
+    <row r="482" ht="15.75" customHeight="1">
       <c r="E482" s="1"/>
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
       <c r="I482" s="3"/>
     </row>
-    <row r="483" spans="5:9" ht="15.75" customHeight="1">
+    <row r="483" ht="15.75" customHeight="1">
       <c r="E483" s="1"/>
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
       <c r="I483" s="3"/>
     </row>
-    <row r="484" spans="5:9" ht="15.75" customHeight="1">
+    <row r="484" ht="15.75" customHeight="1">
       <c r="E484" s="1"/>
       <c r="G484" s="2"/>
       <c r="H484" s="2"/>
       <c r="I484" s="3"/>
     </row>
-    <row r="485" spans="5:9" ht="15.75" customHeight="1">
+    <row r="485" ht="15.75" customHeight="1">
       <c r="E485" s="1"/>
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
       <c r="I485" s="3"/>
     </row>
-    <row r="486" spans="5:9" ht="15.75" customHeight="1">
+    <row r="486" ht="15.75" customHeight="1">
       <c r="E486" s="1"/>
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
       <c r="I486" s="3"/>
     </row>
-    <row r="487" spans="5:9" ht="15.75" customHeight="1">
+    <row r="487" ht="15.75" customHeight="1">
       <c r="E487" s="1"/>
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
       <c r="I487" s="3"/>
     </row>
-    <row r="488" spans="5:9" ht="15.75" customHeight="1">
+    <row r="488" ht="15.75" customHeight="1">
       <c r="E488" s="1"/>
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
       <c r="I488" s="3"/>
     </row>
-    <row r="489" spans="5:9" ht="15.75" customHeight="1">
+    <row r="489" ht="15.75" customHeight="1">
       <c r="E489" s="1"/>
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
       <c r="I489" s="3"/>
     </row>
-    <row r="490" spans="5:9" ht="15.75" customHeight="1">
+    <row r="490" ht="15.75" customHeight="1">
       <c r="E490" s="1"/>
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
       <c r="I490" s="3"/>
     </row>
-    <row r="491" spans="5:9" ht="15.75" customHeight="1">
+    <row r="491" ht="15.75" customHeight="1">
       <c r="E491" s="1"/>
       <c r="G491" s="2"/>
       <c r="H491" s="2"/>
       <c r="I491" s="3"/>
     </row>
-    <row r="492" spans="5:9" ht="15.75" customHeight="1">
+    <row r="492" ht="15.75" customHeight="1">
       <c r="E492" s="1"/>
       <c r="G492" s="2"/>
       <c r="H492" s="2"/>
       <c r="I492" s="3"/>
     </row>
-    <row r="493" spans="5:9" ht="15.75" customHeight="1">
+    <row r="493" ht="15.75" customHeight="1">
       <c r="E493" s="1"/>
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
       <c r="I493" s="3"/>
     </row>
-    <row r="494" spans="5:9" ht="15.75" customHeight="1">
+    <row r="494" ht="15.75" customHeight="1">
       <c r="E494" s="1"/>
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
       <c r="I494" s="3"/>
     </row>
-    <row r="495" spans="5:9" ht="15.75" customHeight="1">
+    <row r="495" ht="15.75" customHeight="1">
       <c r="E495" s="1"/>
       <c r="G495" s="2"/>
       <c r="H495" s="2"/>
       <c r="I495" s="3"/>
     </row>
-    <row r="496" spans="5:9" ht="15.75" customHeight="1">
+    <row r="496" ht="15.75" customHeight="1">
       <c r="E496" s="1"/>
       <c r="G496" s="2"/>
       <c r="H496" s="2"/>
       <c r="I496" s="3"/>
     </row>
-    <row r="497" spans="5:9" ht="15.75" customHeight="1">
+    <row r="497" ht="15.75" customHeight="1">
       <c r="E497" s="1"/>
       <c r="G497" s="2"/>
       <c r="H497" s="2"/>
       <c r="I497" s="3"/>
     </row>
-    <row r="498" spans="5:9" ht="15.75" customHeight="1">
+    <row r="498" ht="15.75" customHeight="1">
       <c r="E498" s="1"/>
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
       <c r="I498" s="3"/>
     </row>
-    <row r="499" spans="5:9" ht="15.75" customHeight="1">
+    <row r="499" ht="15.75" customHeight="1">
       <c r="E499" s="1"/>
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
       <c r="I499" s="3"/>
     </row>
-    <row r="500" spans="5:9" ht="15.75" customHeight="1">
+    <row r="500" ht="15.75" customHeight="1">
       <c r="E500" s="1"/>
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
       <c r="I500" s="3"/>
     </row>
-    <row r="501" spans="5:9" ht="15.75" customHeight="1">
+    <row r="501" ht="15.75" customHeight="1">
       <c r="E501" s="1"/>
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
       <c r="I501" s="3"/>
     </row>
-    <row r="502" spans="5:9" ht="15.75" customHeight="1">
+    <row r="502" ht="15.75" customHeight="1">
       <c r="E502" s="1"/>
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
       <c r="I502" s="3"/>
     </row>
-    <row r="503" spans="5:9" ht="15.75" customHeight="1">
+    <row r="503" ht="15.75" customHeight="1">
       <c r="E503" s="1"/>
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
       <c r="I503" s="3"/>
     </row>
-    <row r="504" spans="5:9" ht="15.75" customHeight="1">
+    <row r="504" ht="15.75" customHeight="1">
       <c r="E504" s="1"/>
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
       <c r="I504" s="3"/>
     </row>
-    <row r="505" spans="5:9" ht="15.75" customHeight="1">
+    <row r="505" ht="15.75" customHeight="1">
       <c r="E505" s="1"/>
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
       <c r="I505" s="3"/>
     </row>
-    <row r="506" spans="5:9" ht="15.75" customHeight="1">
+    <row r="506" ht="15.75" customHeight="1">
       <c r="E506" s="1"/>
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
       <c r="I506" s="3"/>
     </row>
-    <row r="507" spans="5:9" ht="15.75" customHeight="1">
+    <row r="507" ht="15.75" customHeight="1">
       <c r="E507" s="1"/>
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
       <c r="I507" s="3"/>
     </row>
-    <row r="508" spans="5:9" ht="15.75" customHeight="1">
+    <row r="508" ht="15.75" customHeight="1">
       <c r="E508" s="1"/>
       <c r="G508" s="2"/>
       <c r="H508" s="2"/>
       <c r="I508" s="3"/>
     </row>
-    <row r="509" spans="5:9" ht="15.75" customHeight="1">
+    <row r="509" ht="15.75" customHeight="1">
       <c r="E509" s="1"/>
       <c r="G509" s="2"/>
       <c r="H509" s="2"/>
       <c r="I509" s="3"/>
     </row>
-    <row r="510" spans="5:9" ht="15.75" customHeight="1">
+    <row r="510" ht="15.75" customHeight="1">
       <c r="E510" s="1"/>
       <c r="G510" s="2"/>
       <c r="H510" s="2"/>
       <c r="I510" s="3"/>
     </row>
-    <row r="511" spans="5:9" ht="15.75" customHeight="1">
+    <row r="511" ht="15.75" customHeight="1">
       <c r="E511" s="1"/>
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
       <c r="I511" s="3"/>
     </row>
-    <row r="512" spans="5:9" ht="15.75" customHeight="1">
+    <row r="512" ht="15.75" customHeight="1">
       <c r="E512" s="1"/>
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
       <c r="I512" s="3"/>
     </row>
-    <row r="513" spans="5:9" ht="15.75" customHeight="1">
+    <row r="513" ht="15.75" customHeight="1">
       <c r="E513" s="1"/>
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
       <c r="I513" s="3"/>
     </row>
-    <row r="514" spans="5:9" ht="15.75" customHeight="1">
+    <row r="514" ht="15.75" customHeight="1">
       <c r="E514" s="1"/>
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
       <c r="I514" s="3"/>
     </row>
-    <row r="515" spans="5:9" ht="15.75" customHeight="1">
+    <row r="515" ht="15.75" customHeight="1">
       <c r="E515" s="1"/>
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
       <c r="I515" s="3"/>
     </row>
-    <row r="516" spans="5:9" ht="15.75" customHeight="1">
+    <row r="516" ht="15.75" customHeight="1">
       <c r="E516" s="1"/>
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
       <c r="I516" s="3"/>
     </row>
-    <row r="517" spans="5:9" ht="15.75" customHeight="1">
+    <row r="517" ht="15.75" customHeight="1">
       <c r="E517" s="1"/>
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
       <c r="I517" s="3"/>
     </row>
-    <row r="518" spans="5:9" ht="15.75" customHeight="1">
+    <row r="518" ht="15.75" customHeight="1">
       <c r="E518" s="1"/>
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
       <c r="I518" s="3"/>
     </row>
-    <row r="519" spans="5:9" ht="15.75" customHeight="1">
+    <row r="519" ht="15.75" customHeight="1">
       <c r="E519" s="1"/>
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
       <c r="I519" s="3"/>
     </row>
-    <row r="520" spans="5:9" ht="15.75" customHeight="1">
+    <row r="520" ht="15.75" customHeight="1">
       <c r="E520" s="1"/>
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
       <c r="I520" s="3"/>
     </row>
-    <row r="521" spans="5:9" ht="15.75" customHeight="1">
+    <row r="521" ht="15.75" customHeight="1">
       <c r="E521" s="1"/>
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
       <c r="I521" s="3"/>
     </row>
-    <row r="522" spans="5:9" ht="15.75" customHeight="1">
+    <row r="522" ht="15.75" customHeight="1">
       <c r="E522" s="1"/>
       <c r="G522" s="2"/>
       <c r="H522" s="2"/>
       <c r="I522" s="3"/>
     </row>
-    <row r="523" spans="5:9" ht="15.75" customHeight="1">
+    <row r="523" ht="15.75" customHeight="1">
       <c r="E523" s="1"/>
       <c r="G523" s="2"/>
       <c r="H523" s="2"/>
       <c r="I523" s="3"/>
     </row>
-    <row r="524" spans="5:9" ht="15.75" customHeight="1">
+    <row r="524" ht="15.75" customHeight="1">
       <c r="E524" s="1"/>
       <c r="G524" s="2"/>
       <c r="H524" s="2"/>
       <c r="I524" s="3"/>
     </row>
-    <row r="525" spans="5:9" ht="15.75" customHeight="1">
+    <row r="525" ht="15.75" customHeight="1">
       <c r="E525" s="1"/>
       <c r="G525" s="2"/>
       <c r="H525" s="2"/>
       <c r="I525" s="3"/>
     </row>
-    <row r="526" spans="5:9" ht="15.75" customHeight="1">
+    <row r="526" ht="15.75" customHeight="1">
       <c r="E526" s="1"/>
       <c r="G526" s="2"/>
       <c r="H526" s="2"/>
       <c r="I526" s="3"/>
     </row>
-    <row r="527" spans="5:9" ht="15.75" customHeight="1">
+    <row r="527" ht="15.75" customHeight="1">
       <c r="E527" s="1"/>
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
       <c r="I527" s="3"/>
     </row>
-    <row r="528" spans="5:9" ht="15.75" customHeight="1">
+    <row r="528" ht="15.75" customHeight="1">
       <c r="E528" s="1"/>
       <c r="G528" s="2"/>
       <c r="H528" s="2"/>
       <c r="I528" s="3"/>
     </row>
-    <row r="529" spans="5:9" ht="15.75" customHeight="1">
+    <row r="529" ht="15.75" customHeight="1">
       <c r="E529" s="1"/>
       <c r="G529" s="2"/>
       <c r="H529" s="2"/>
       <c r="I529" s="3"/>
     </row>
-    <row r="530" spans="5:9" ht="15.75" customHeight="1">
+    <row r="530" ht="15.75" customHeight="1">
       <c r="E530" s="1"/>
       <c r="G530" s="2"/>
       <c r="H530" s="2"/>
       <c r="I530" s="3"/>
     </row>
-    <row r="531" spans="5:9" ht="15.75" customHeight="1">
+    <row r="531" ht="15.75" customHeight="1">
       <c r="E531" s="1"/>
       <c r="G531" s="2"/>
       <c r="H531" s="2"/>
       <c r="I531" s="3"/>
     </row>
-    <row r="532" spans="5:9" ht="15.75" customHeight="1">
+    <row r="532" ht="15.75" customHeight="1">
       <c r="E532" s="1"/>
       <c r="G532" s="2"/>
       <c r="H532" s="2"/>
       <c r="I532" s="3"/>
     </row>
-    <row r="533" spans="5:9" ht="15.75" customHeight="1">
+    <row r="533" ht="15.75" customHeight="1">
       <c r="E533" s="1"/>
       <c r="G533" s="2"/>
       <c r="H533" s="2"/>
       <c r="I533" s="3"/>
     </row>
-    <row r="534" spans="5:9" ht="15.75" customHeight="1">
+    <row r="534" ht="15.75" customHeight="1">
       <c r="E534" s="1"/>
       <c r="G534" s="2"/>
       <c r="H534" s="2"/>
       <c r="I534" s="3"/>
     </row>
-    <row r="535" spans="5:9" ht="15.75" customHeight="1">
+    <row r="535" ht="15.75" customHeight="1">
       <c r="E535" s="1"/>
       <c r="G535" s="2"/>
       <c r="H535" s="2"/>
       <c r="I535" s="3"/>
     </row>
-    <row r="536" spans="5:9" ht="15.75" customHeight="1">
+    <row r="536" ht="15.75" customHeight="1">
       <c r="E536" s="1"/>
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
       <c r="I536" s="3"/>
     </row>
-    <row r="537" spans="5:9" ht="15.75" customHeight="1">
+    <row r="537" ht="15.75" customHeight="1">
       <c r="E537" s="1"/>
       <c r="G537" s="2"/>
       <c r="H537" s="2"/>
       <c r="I537" s="3"/>
     </row>
-    <row r="538" spans="5:9" ht="15.75" customHeight="1">
+    <row r="538" ht="15.75" customHeight="1">
       <c r="E538" s="1"/>
       <c r="G538" s="2"/>
       <c r="H538" s="2"/>
       <c r="I538" s="3"/>
     </row>
-    <row r="539" spans="5:9" ht="15.75" customHeight="1">
+    <row r="539" ht="15.75" customHeight="1">
       <c r="E539" s="1"/>
       <c r="G539" s="2"/>
       <c r="H539" s="2"/>
       <c r="I539" s="3"/>
     </row>
-    <row r="540" spans="5:9" ht="15.75" customHeight="1">
+    <row r="540" ht="15.75" customHeight="1">
       <c r="E540" s="1"/>
       <c r="G540" s="2"/>
       <c r="H540" s="2"/>
       <c r="I540" s="3"/>
     </row>
-    <row r="541" spans="5:9" ht="15.75" customHeight="1">
+    <row r="541" ht="15.75" customHeight="1">
       <c r="E541" s="1"/>
       <c r="G541" s="2"/>
       <c r="H541" s="2"/>
       <c r="I541" s="3"/>
     </row>
-    <row r="542" spans="5:9" ht="15.75" customHeight="1">
+    <row r="542" ht="15.75" customHeight="1">
       <c r="E542" s="1"/>
       <c r="G542" s="2"/>
       <c r="H542" s="2"/>
       <c r="I542" s="3"/>
     </row>
-    <row r="543" spans="5:9" ht="15.75" customHeight="1">
+    <row r="543" ht="15.75" customHeight="1">
       <c r="E543" s="1"/>
       <c r="G543" s="2"/>
       <c r="H543" s="2"/>
       <c r="I543" s="3"/>
     </row>
-    <row r="544" spans="5:9" ht="15.75" customHeight="1">
+    <row r="544" ht="15.75" customHeight="1">
       <c r="E544" s="1"/>
       <c r="G544" s="2"/>
       <c r="H544" s="2"/>
       <c r="I544" s="3"/>
     </row>
-    <row r="545" spans="5:9" ht="15.75" customHeight="1">
+    <row r="545" ht="15.75" customHeight="1">
       <c r="E545" s="1"/>
       <c r="G545" s="2"/>
       <c r="H545" s="2"/>
       <c r="I545" s="3"/>
     </row>
-    <row r="546" spans="5:9" ht="15.75" customHeight="1">
+    <row r="546" ht="15.75" customHeight="1">
       <c r="E546" s="1"/>
       <c r="G546" s="2"/>
       <c r="H546" s="2"/>
       <c r="I546" s="3"/>
     </row>
-    <row r="547" spans="5:9" ht="15.75" customHeight="1">
+    <row r="547" ht="15.75" customHeight="1">
       <c r="E547" s="1"/>
       <c r="G547" s="2"/>
       <c r="H547" s="2"/>
       <c r="I547" s="3"/>
     </row>
-    <row r="548" spans="5:9" ht="15.75" customHeight="1">
+    <row r="548" ht="15.75" customHeight="1">
       <c r="E548" s="1"/>
       <c r="G548" s="2"/>
       <c r="H548" s="2"/>
       <c r="I548" s="3"/>
     </row>
-    <row r="549" spans="5:9" ht="15.75" customHeight="1">
+    <row r="549" ht="15.75" customHeight="1">
       <c r="E549" s="1"/>
       <c r="G549" s="2"/>
       <c r="H549" s="2"/>
       <c r="I549" s="3"/>
     </row>
-    <row r="550" spans="5:9" ht="15.75" customHeight="1">
+    <row r="550" ht="15.75" customHeight="1">
       <c r="E550" s="1"/>
       <c r="G550" s="2"/>
       <c r="H550" s="2"/>
       <c r="I550" s="3"/>
     </row>
-    <row r="551" spans="5:9" ht="15.75" customHeight="1">
+    <row r="551" ht="15.75" customHeight="1">
       <c r="E551" s="1"/>
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
       <c r="I551" s="3"/>
     </row>
-    <row r="552" spans="5:9" ht="15.75" customHeight="1">
+    <row r="552" ht="15.75" customHeight="1">
       <c r="E552" s="1"/>
       <c r="G552" s="2"/>
       <c r="H552" s="2"/>
       <c r="I552" s="3"/>
     </row>
-    <row r="553" spans="5:9" ht="15.75" customHeight="1">
+    <row r="553" ht="15.75" customHeight="1">
       <c r="E553" s="1"/>
       <c r="G553" s="2"/>
       <c r="H553" s="2"/>
       <c r="I553" s="3"/>
     </row>
-    <row r="554" spans="5:9" ht="15.75" customHeight="1">
+    <row r="554" ht="15.75" customHeight="1">
       <c r="E554" s="1"/>
       <c r="G554" s="2"/>
       <c r="H554" s="2"/>
       <c r="I554" s="3"/>
     </row>
-    <row r="555" spans="5:9" ht="15.75" customHeight="1">
+    <row r="555" ht="15.75" customHeight="1">
       <c r="E555" s="1"/>
       <c r="G555" s="2"/>
       <c r="H555" s="2"/>
       <c r="I555" s="3"/>
     </row>
-    <row r="556" spans="5:9" ht="15.75" customHeight="1">
+    <row r="556" ht="15.75" customHeight="1">
       <c r="E556" s="1"/>
       <c r="G556" s="2"/>
       <c r="H556" s="2"/>
       <c r="I556" s="3"/>
     </row>
-    <row r="557" spans="5:9" ht="15.75" customHeight="1">
+    <row r="557" ht="15.75" customHeight="1">
       <c r="E557" s="1"/>
       <c r="G557" s="2"/>
       <c r="H557" s="2"/>
       <c r="I557" s="3"/>
     </row>
-    <row r="558" spans="5:9" ht="15.75" customHeight="1">
+    <row r="558" ht="15.75" customHeight="1">
       <c r="E558" s="1"/>
       <c r="G558" s="2"/>
       <c r="H558" s="2"/>
       <c r="I558" s="3"/>
     </row>
-    <row r="559" spans="5:9" ht="15.75" customHeight="1">
+    <row r="559" ht="15.75" customHeight="1">
       <c r="E559" s="1"/>
       <c r="G559" s="2"/>
       <c r="H559" s="2"/>
       <c r="I559" s="3"/>
     </row>
-    <row r="560" spans="5:9" ht="15.75" customHeight="1">
+    <row r="560" ht="15.75" customHeight="1">
       <c r="E560" s="1"/>
       <c r="G560" s="2"/>
       <c r="H560" s="2"/>
       <c r="I560" s="3"/>
     </row>
-    <row r="561" spans="5:9" ht="15.75" customHeight="1">
+    <row r="561" ht="15.75" customHeight="1">
       <c r="E561" s="1"/>
       <c r="G561" s="2"/>
       <c r="H561" s="2"/>
       <c r="I561" s="3"/>
     </row>
-    <row r="562" spans="5:9" ht="15.75" customHeight="1">
+    <row r="562" ht="15.75" customHeight="1">
       <c r="E562" s="1"/>
       <c r="G562" s="2"/>
       <c r="H562" s="2"/>
       <c r="I562" s="3"/>
     </row>
-    <row r="563" spans="5:9" ht="15.75" customHeight="1">
+    <row r="563" ht="15.75" customHeight="1">
       <c r="E563" s="1"/>
       <c r="G563" s="2"/>
       <c r="H563" s="2"/>
       <c r="I563" s="3"/>
     </row>
-    <row r="564" spans="5:9" ht="15.75" customHeight="1">
+    <row r="564" ht="15.75" customHeight="1">
       <c r="E564" s="1"/>
       <c r="G564" s="2"/>
       <c r="H564" s="2"/>
       <c r="I564" s="3"/>
     </row>
-    <row r="565" spans="5:9" ht="15.75" customHeight="1">
+    <row r="565" ht="15.75" customHeight="1">
       <c r="E565" s="1"/>
       <c r="G565" s="2"/>
       <c r="H565" s="2"/>
       <c r="I565" s="3"/>
     </row>
-    <row r="566" spans="5:9" ht="15.75" customHeight="1">
+    <row r="566" ht="15.75" customHeight="1">
       <c r="E566" s="1"/>
       <c r="G566" s="2"/>
       <c r="H566" s="2"/>
       <c r="I566" s="3"/>
     </row>
-    <row r="567" spans="5:9" ht="15.75" customHeight="1">
+    <row r="567" ht="15.75" customHeight="1">
       <c r="E567" s="1"/>
       <c r="G567" s="2"/>
       <c r="H567" s="2"/>
       <c r="I567" s="3"/>
     </row>
-    <row r="568" spans="5:9" ht="15.75" customHeight="1">
+    <row r="568" ht="15.75" customHeight="1">
       <c r="E568" s="1"/>
       <c r="G568" s="2"/>
       <c r="H568" s="2"/>
       <c r="I568" s="3"/>
     </row>
-    <row r="569" spans="5:9" ht="15.75" customHeight="1">
+    <row r="569" ht="15.75" customHeight="1">
       <c r="E569" s="1"/>
       <c r="G569" s="2"/>
       <c r="H569" s="2"/>
       <c r="I569" s="3"/>
     </row>
-    <row r="570" spans="5:9" ht="15.75" customHeight="1">
+    <row r="570" ht="15.75" customHeight="1">
       <c r="E570" s="1"/>
       <c r="G570" s="2"/>
       <c r="H570" s="2"/>
       <c r="I570" s="3"/>
     </row>
-    <row r="571" spans="5:9" ht="15.75" customHeight="1">
+    <row r="571" ht="15.75" customHeight="1">
       <c r="E571" s="1"/>
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
       <c r="I571" s="3"/>
     </row>
-    <row r="572" spans="5:9" ht="15.75" customHeight="1">
+    <row r="572" ht="15.75" customHeight="1">
       <c r="E572" s="1"/>
       <c r="G572" s="2"/>
       <c r="H572" s="2"/>
       <c r="I572" s="3"/>
     </row>
-    <row r="573" spans="5:9" ht="15.75" customHeight="1">
+    <row r="573" ht="15.75" customHeight="1">
       <c r="E573" s="1"/>
       <c r="G573" s="2"/>
       <c r="H573" s="2"/>
       <c r="I573" s="3"/>
     </row>
-    <row r="574" spans="5:9" ht="15.75" customHeight="1">
+    <row r="574" ht="15.75" customHeight="1">
       <c r="E574" s="1"/>
       <c r="G574" s="2"/>
       <c r="H574" s="2"/>
       <c r="I574" s="3"/>
     </row>
-    <row r="575" spans="5:9" ht="15.75" customHeight="1">
+    <row r="575" ht="15.75" customHeight="1">
       <c r="E575" s="1"/>
       <c r="G575" s="2"/>
       <c r="H575" s="2"/>
       <c r="I575" s="3"/>
     </row>
-    <row r="576" spans="5:9" ht="15.75" customHeight="1">
+    <row r="576" ht="15.75" customHeight="1">
       <c r="E576" s="1"/>
       <c r="G576" s="2"/>
       <c r="H576" s="2"/>
       <c r="I576" s="3"/>
     </row>
-    <row r="577" spans="5:9" ht="15.75" customHeight="1">
+    <row r="577" ht="15.75" customHeight="1">
       <c r="E577" s="1"/>
       <c r="G577" s="2"/>
       <c r="H577" s="2"/>
       <c r="I577" s="3"/>
     </row>
-    <row r="578" spans="5:9" ht="15.75" customHeight="1">
+    <row r="578" ht="15.75" customHeight="1">
       <c r="E578" s="1"/>
       <c r="G578" s="2"/>
       <c r="H578" s="2"/>
       <c r="I578" s="3"/>
     </row>
-    <row r="579" spans="5:9" ht="15.75" customHeight="1">
+    <row r="579" ht="15.75" customHeight="1">
       <c r="E579" s="1"/>
       <c r="G579" s="2"/>
       <c r="H579" s="2"/>
       <c r="I579" s="3"/>
     </row>
-    <row r="580" spans="5:9" ht="15.75" customHeight="1">
+    <row r="580" ht="15.75" customHeight="1">
       <c r="E580" s="1"/>
       <c r="G580" s="2"/>
       <c r="H580" s="2"/>
       <c r="I580" s="3"/>
     </row>
-    <row r="581" spans="5:9" ht="15.75" customHeight="1">
+    <row r="581" ht="15.75" customHeight="1">
       <c r="E581" s="1"/>
       <c r="G581" s="2"/>
       <c r="H581" s="2"/>
       <c r="I581" s="3"/>
     </row>
-    <row r="582" spans="5:9" ht="15.75" customHeight="1">
+    <row r="582" ht="15.75" customHeight="1">
       <c r="E582" s="1"/>
       <c r="G582" s="2"/>
       <c r="H582" s="2"/>
       <c r="I582" s="3"/>
     </row>
-    <row r="583" spans="5:9" ht="15.75" customHeight="1">
+    <row r="583" ht="15.75" customHeight="1">
       <c r="E583" s="1"/>
       <c r="G583" s="2"/>
       <c r="H583" s="2"/>
       <c r="I583" s="3"/>
     </row>
-    <row r="584" spans="5:9" ht="15.75" customHeight="1">
+    <row r="584" ht="15.75" customHeight="1">
       <c r="E584" s="1"/>
       <c r="G584" s="2"/>
       <c r="H584" s="2"/>
       <c r="I584" s="3"/>
     </row>
-    <row r="585" spans="5:9" ht="15.75" customHeight="1">
+    <row r="585" ht="15.75" customHeight="1">
       <c r="E585" s="1"/>
       <c r="G585" s="2"/>
       <c r="H585" s="2"/>
       <c r="I585" s="3"/>
     </row>
-    <row r="586" spans="5:9" ht="15.75" customHeight="1">
+    <row r="586" ht="15.75" customHeight="1">
       <c r="E586" s="1"/>
       <c r="G586" s="2"/>
       <c r="H586" s="2"/>
       <c r="I586" s="3"/>
     </row>
-    <row r="587" spans="5:9" ht="15.75" customHeight="1">
+    <row r="587" ht="15.75" customHeight="1">
       <c r="E587" s="1"/>
       <c r="G587" s="2"/>
       <c r="H587" s="2"/>
       <c r="I587" s="3"/>
     </row>
-    <row r="588" spans="5:9" ht="15.75" customHeight="1">
+    <row r="588" ht="15.75" customHeight="1">
       <c r="E588" s="1"/>
       <c r="G588" s="2"/>
       <c r="H588" s="2"/>
       <c r="I588" s="3"/>
     </row>
-    <row r="589" spans="5:9" ht="15.75" customHeight="1">
+    <row r="589" ht="15.75" customHeight="1">
       <c r="E589" s="1"/>
       <c r="G589" s="2"/>
       <c r="H589" s="2"/>
       <c r="I589" s="3"/>
     </row>
-    <row r="590" spans="5:9" ht="15.75" customHeight="1">
+    <row r="590" ht="15.75" customHeight="1">
       <c r="E590" s="1"/>
       <c r="G590" s="2"/>
       <c r="H590" s="2"/>
       <c r="I590" s="3"/>
     </row>
-    <row r="591" spans="5:9" ht="15.75" customHeight="1">
+    <row r="591" ht="15.75" customHeight="1">
       <c r="E591" s="1"/>
       <c r="G591" s="2"/>
       <c r="H591" s="2"/>
       <c r="I591" s="3"/>
     </row>
-    <row r="592" spans="5:9" ht="15.75" customHeight="1">
+    <row r="592" ht="15.75" customHeight="1">
       <c r="E592" s="1"/>
       <c r="G592" s="2"/>
       <c r="H592" s="2"/>
       <c r="I592" s="3"/>
     </row>
-    <row r="593" spans="5:9" ht="15.75" customHeight="1">
+    <row r="593" ht="15.75" customHeight="1">
       <c r="E593" s="1"/>
       <c r="G593" s="2"/>
       <c r="H593" s="2"/>
       <c r="I593" s="3"/>
     </row>
-    <row r="594" spans="5:9" ht="15.75" customHeight="1">
+    <row r="594" ht="15.75" customHeight="1">
       <c r="E594" s="1"/>
       <c r="G594" s="2"/>
       <c r="H594" s="2"/>
       <c r="I594" s="3"/>
     </row>
-    <row r="595" spans="5:9" ht="15.75" customHeight="1">
+    <row r="595" ht="15.75" customHeight="1">
       <c r="E595" s="1"/>
       <c r="G595" s="2"/>
       <c r="H595" s="2"/>
       <c r="I595" s="3"/>
     </row>
-    <row r="596" spans="5:9" ht="15.75" customHeight="1">
+    <row r="596" ht="15.75" customHeight="1">
       <c r="E596" s="1"/>
       <c r="G596" s="2"/>
       <c r="H596" s="2"/>
       <c r="I596" s="3"/>
     </row>
-    <row r="597" spans="5:9" ht="15.75" customHeight="1">
+    <row r="597" ht="15.75" customHeight="1">
       <c r="E597" s="1"/>
       <c r="G597" s="2"/>
       <c r="H597" s="2"/>
       <c r="I597" s="3"/>
     </row>
-    <row r="598" spans="5:9" ht="15.75" customHeight="1">
+    <row r="598" ht="15.75" customHeight="1">
       <c r="E598" s="1"/>
       <c r="G598" s="2"/>
       <c r="H598" s="2"/>
       <c r="I598" s="3"/>
     </row>
-    <row r="599" spans="5:9" ht="15.75" customHeight="1">
+    <row r="599" ht="15.75" customHeight="1">
       <c r="E599" s="1"/>
       <c r="G599" s="2"/>
       <c r="H599" s="2"/>
       <c r="I599" s="3"/>
     </row>
-    <row r="600" spans="5:9" ht="15.75" customHeight="1">
+    <row r="600" ht="15.75" customHeight="1">
       <c r="E600" s="1"/>
       <c r="G600" s="2"/>
       <c r="H600" s="2"/>
       <c r="I600" s="3"/>
     </row>
-    <row r="601" spans="5:9" ht="15.75" customHeight="1">
+    <row r="601" ht="15.75" customHeight="1">
       <c r="E601" s="1"/>
       <c r="G601" s="2"/>
       <c r="H601" s="2"/>
       <c r="I601" s="3"/>
     </row>
-    <row r="602" spans="5:9" ht="15.75" customHeight="1">
+    <row r="602" ht="15.75" customHeight="1">
       <c r="E602" s="1"/>
       <c r="G602" s="2"/>
       <c r="H602" s="2"/>
       <c r="I602" s="3"/>
     </row>
-    <row r="603" spans="5:9" ht="15.75" customHeight="1">
+    <row r="603" ht="15.75" customHeight="1">
       <c r="E603" s="1"/>
       <c r="G603" s="2"/>
       <c r="H603" s="2"/>
       <c r="I603" s="3"/>
     </row>
-    <row r="604" spans="5:9" ht="15.75" customHeight="1">
+    <row r="604" ht="15.75" customHeight="1">
       <c r="E604" s="1"/>
       <c r="G604" s="2"/>
       <c r="H604" s="2"/>
       <c r="I604" s="3"/>
     </row>
-    <row r="605" spans="5:9" ht="15.75" customHeight="1">
+    <row r="605" ht="15.75" customHeight="1">
       <c r="E605" s="1"/>
       <c r="G605" s="2"/>
       <c r="H605" s="2"/>
       <c r="I605" s="3"/>
     </row>
-    <row r="606" spans="5:9" ht="15.75" customHeight="1">
+    <row r="606" ht="15.75" customHeight="1">
       <c r="E606" s="1"/>
       <c r="G606" s="2"/>
       <c r="H606" s="2"/>
       <c r="I606" s="3"/>
     </row>
-    <row r="607" spans="5:9" ht="15.75" customHeight="1">
+    <row r="607" ht="15.75" customHeight="1">
       <c r="E607" s="1"/>
       <c r="G607" s="2"/>
       <c r="H607" s="2"/>
       <c r="I607" s="3"/>
     </row>
-    <row r="608" spans="5:9" ht="15.75" customHeight="1">
+    <row r="608" ht="15.75" customHeight="1">
       <c r="E608" s="1"/>
       <c r="G608" s="2"/>
       <c r="H608" s="2"/>
       <c r="I608" s="3"/>
     </row>
-    <row r="609" spans="5:9" ht="15.75" customHeight="1">
+    <row r="609" ht="15.75" customHeight="1">
       <c r="E609" s="1"/>
       <c r="G609" s="2"/>
       <c r="H609" s="2"/>
       <c r="I609" s="3"/>
     </row>
-    <row r="610" spans="5:9" ht="15.75" customHeight="1">
+    <row r="610" ht="15.75" customHeight="1">
       <c r="E610" s="1"/>
       <c r="G610" s="2"/>
       <c r="H610" s="2"/>
       <c r="I610" s="3"/>
     </row>
-    <row r="611" spans="5:9" ht="15.75" customHeight="1">
+    <row r="611" ht="15.75" customHeight="1">
       <c r="E611" s="1"/>
       <c r="G611" s="2"/>
       <c r="H611" s="2"/>
       <c r="I611" s="3"/>
     </row>
-    <row r="612" spans="5:9" ht="15.75" customHeight="1">
+    <row r="612" ht="15.75" customHeight="1">
       <c r="E612" s="1"/>
       <c r="G612" s="2"/>
       <c r="H612" s="2"/>
       <c r="I612" s="3"/>
     </row>
-    <row r="613" spans="5:9" ht="15.75" customHeight="1">
+    <row r="613" ht="15.75" customHeight="1">
       <c r="E613" s="1"/>
       <c r="G613" s="2"/>
       <c r="H613" s="2"/>
       <c r="I613" s="3"/>
     </row>
-    <row r="614" spans="5:9" ht="15.75" customHeight="1">
+    <row r="614" ht="15.75" customHeight="1">
       <c r="E614" s="1"/>
       <c r="G614" s="2"/>
       <c r="H614" s="2"/>
       <c r="I614" s="3"/>
     </row>
-    <row r="615" spans="5:9" ht="15.75" customHeight="1">
+    <row r="615" ht="15.75" customHeight="1">
       <c r="E615" s="1"/>
       <c r="G615" s="2"/>
       <c r="H615" s="2"/>
       <c r="I615" s="3"/>
     </row>
-    <row r="616" spans="5:9" ht="15.75" customHeight="1">
+    <row r="616" ht="15.75" customHeight="1">
       <c r="E616" s="1"/>
       <c r="G616" s="2"/>
       <c r="H616" s="2"/>
       <c r="I616" s="3"/>
     </row>
-    <row r="617" spans="5:9" ht="15.75" customHeight="1">
+    <row r="617" ht="15.75" customHeight="1">
       <c r="E617" s="1"/>
       <c r="G617" s="2"/>
       <c r="H617" s="2"/>
       <c r="I617" s="3"/>
     </row>
-    <row r="618" spans="5:9" ht="15.75" customHeight="1">
+    <row r="618" ht="15.75" customHeight="1">
       <c r="E618" s="1"/>
       <c r="G618" s="2"/>
       <c r="H618" s="2"/>
       <c r="I618" s="3"/>
     </row>
-    <row r="619" spans="5:9" ht="15.75" customHeight="1">
+    <row r="619" ht="15.75" customHeight="1">
       <c r="E619" s="1"/>
       <c r="G619" s="2"/>
       <c r="H619" s="2"/>
       <c r="I619" s="3"/>
     </row>
-    <row r="620" spans="5:9" ht="15.75" customHeight="1">
+    <row r="620" ht="15.75" customHeight="1">
       <c r="E620" s="1"/>
       <c r="G620" s="2"/>
       <c r="H620" s="2"/>
       <c r="I620" s="3"/>
     </row>
-    <row r="621" spans="5:9" ht="15.75" customHeight="1">
+    <row r="621" ht="15.75" customHeight="1">
       <c r="E621" s="1"/>
       <c r="G621" s="2"/>
       <c r="H621" s="2"/>
       <c r="I621" s="3"/>
     </row>
-    <row r="622" spans="5:9" ht="15.75" customHeight="1">
+    <row r="622" ht="15.75" customHeight="1">
       <c r="E622" s="1"/>
       <c r="G622" s="2"/>
       <c r="H622" s="2"/>
       <c r="I622" s="3"/>
     </row>
-    <row r="623" spans="5:9" ht="15.75" customHeight="1">
+    <row r="623" ht="15.75" customHeight="1">
       <c r="E623" s="1"/>
       <c r="G623" s="2"/>
       <c r="H623" s="2"/>
       <c r="I623" s="3"/>
     </row>
-    <row r="624" spans="5:9" ht="15.75" customHeight="1">
+    <row r="624" ht="15.75" customHeight="1">
       <c r="E624" s="1"/>
       <c r="G624" s="2"/>
       <c r="H624" s="2"/>
       <c r="I624" s="3"/>
     </row>
-    <row r="625" spans="5:9" ht="15.75" customHeight="1">
+    <row r="625" ht="15.75" customHeight="1">
       <c r="E625" s="1"/>
       <c r="G625" s="2"/>
       <c r="H625" s="2"/>
       <c r="I625" s="3"/>
     </row>
-    <row r="626" spans="5:9" ht="15.75" customHeight="1">
+    <row r="626" ht="15.75" customHeight="1">
       <c r="E626" s="1"/>
       <c r="G626" s="2"/>
       <c r="H626" s="2"/>
       <c r="I626" s="3"/>
     </row>
-    <row r="627" spans="5:9" ht="15.75" customHeight="1">
+    <row r="627" ht="15.75" customHeight="1">
       <c r="E627" s="1"/>
       <c r="G627" s="2"/>
       <c r="H627" s="2"/>
       <c r="I627" s="3"/>
     </row>
-    <row r="628" spans="5:9" ht="15.75" customHeight="1">
+    <row r="628" ht="15.75" customHeight="1">
       <c r="E628" s="1"/>
       <c r="G628" s="2"/>
       <c r="H628" s="2"/>
       <c r="I628" s="3"/>
     </row>
-    <row r="629" spans="5:9" ht="15.75" customHeight="1">
+    <row r="629" ht="15.75" customHeight="1">
       <c r="E629" s="1"/>
       <c r="G629" s="2"/>
       <c r="H629" s="2"/>
       <c r="I629" s="3"/>
     </row>
-    <row r="630" spans="5:9" ht="15.75" customHeight="1">
+    <row r="630" ht="15.75" customHeight="1">
       <c r="E630" s="1"/>
       <c r="G630" s="2"/>
       <c r="H630" s="2"/>
       <c r="I630" s="3"/>
     </row>
-    <row r="631" spans="5:9" ht="15.75" customHeight="1">
+    <row r="631" ht="15.75" customHeight="1">
       <c r="E631" s="1"/>
       <c r="G631" s="2"/>
       <c r="H631" s="2"/>
       <c r="I631" s="3"/>
     </row>
-    <row r="632" spans="5:9" ht="15.75" customHeight="1">
+    <row r="632" ht="15.75" customHeight="1">
       <c r="E632" s="1"/>
       <c r="G632" s="2"/>
       <c r="H632" s="2"/>
       <c r="I632" s="3"/>
     </row>
-    <row r="633" spans="5:9" ht="15.75" customHeight="1">
+    <row r="633" ht="15.75" customHeight="1">
       <c r="E633" s="1"/>
       <c r="G633" s="2"/>
       <c r="H633" s="2"/>
       <c r="I633" s="3"/>
     </row>
-    <row r="634" spans="5:9" ht="15.75" customHeight="1">
+    <row r="634" ht="15.75" customHeight="1">
       <c r="E634" s="1"/>
       <c r="G634" s="2"/>
       <c r="H634" s="2"/>
       <c r="I634" s="3"/>
     </row>
-    <row r="635" spans="5:9" ht="15.75" customHeight="1">
+    <row r="635" ht="15.75" customHeight="1">
       <c r="E635" s="1"/>
       <c r="G635" s="2"/>
       <c r="H635" s="2"/>
       <c r="I635" s="3"/>
     </row>
-    <row r="636" spans="5:9" ht="15.75" customHeight="1">
+    <row r="636" ht="15.75" customHeight="1">
       <c r="E636" s="1"/>
       <c r="G636" s="2"/>
       <c r="H636" s="2"/>
       <c r="I636" s="3"/>
     </row>
-    <row r="637" spans="5:9" ht="15.75" customHeight="1">
+    <row r="637" ht="15.75" customHeight="1">
       <c r="E637" s="1"/>
       <c r="G637" s="2"/>
       <c r="H637" s="2"/>
       <c r="I637" s="3"/>
     </row>
-    <row r="638" spans="5:9" ht="15.75" customHeight="1">
+    <row r="638" ht="15.75" customHeight="1">
       <c r="E638" s="1"/>
       <c r="G638" s="2"/>
       <c r="H638" s="2"/>
       <c r="I638" s="3"/>
     </row>
-    <row r="639" spans="5:9" ht="15.75" customHeight="1">
+    <row r="639" ht="15.75" customHeight="1">
       <c r="E639" s="1"/>
       <c r="G639" s="2"/>
       <c r="H639" s="2"/>
       <c r="I639" s="3"/>
     </row>
-    <row r="640" spans="5:9" ht="15.75" customHeight="1">
+    <row r="640" ht="15.75" customHeight="1">
       <c r="E640" s="1"/>
       <c r="G640" s="2"/>
       <c r="H640" s="2"/>
       <c r="I640" s="3"/>
     </row>
-    <row r="641" spans="5:9" ht="15.75" customHeight="1">
+    <row r="641" ht="15.75" customHeight="1">
       <c r="E641" s="1"/>
       <c r="G641" s="2"/>
       <c r="H641" s="2"/>
       <c r="I641" s="3"/>
     </row>
-    <row r="642" spans="5:9" ht="15.75" customHeight="1">
+    <row r="642" ht="15.75" customHeight="1">
       <c r="E642" s="1"/>
       <c r="G642" s="2"/>
       <c r="H642" s="2"/>
       <c r="I642" s="3"/>
     </row>
-    <row r="643" spans="5:9" ht="15.75" customHeight="1">
+    <row r="643" ht="15.75" customHeight="1">
       <c r="E643" s="1"/>
       <c r="G643" s="2"/>
       <c r="H643" s="2"/>
       <c r="I643" s="3"/>
     </row>
-    <row r="644" spans="5:9" ht="15.75" customHeight="1">
+    <row r="644" ht="15.75" customHeight="1">
       <c r="E644" s="1"/>
       <c r="G644" s="2"/>
       <c r="H644" s="2"/>
       <c r="I644" s="3"/>
     </row>
-    <row r="645" spans="5:9" ht="15.75" customHeight="1">
+    <row r="645" ht="15.75" customHeight="1">
       <c r="E645" s="1"/>
       <c r="G645" s="2"/>
       <c r="H645" s="2"/>
       <c r="I645" s="3"/>
     </row>
-    <row r="646" spans="5:9" ht="15.75" customHeight="1">
+    <row r="646" ht="15.75" customHeight="1">
       <c r="E646" s="1"/>
       <c r="G646" s="2"/>
       <c r="H646" s="2"/>
       <c r="I646" s="3"/>
     </row>
-    <row r="647" spans="5:9" ht="15.75" customHeight="1">
+    <row r="647" ht="15.75" customHeight="1">
       <c r="E647" s="1"/>
       <c r="G647" s="2"/>
       <c r="H647" s="2"/>
       <c r="I647" s="3"/>
     </row>
-    <row r="648" spans="5:9" ht="15.75" customHeight="1">
+    <row r="648" ht="15.75" customHeight="1">
       <c r="E648" s="1"/>
       <c r="G648" s="2"/>
       <c r="H648" s="2"/>
       <c r="I648" s="3"/>
     </row>
-    <row r="649" spans="5:9" ht="15.75" customHeight="1">
+    <row r="649" ht="15.75" customHeight="1">
       <c r="E649" s="1"/>
       <c r="G649" s="2"/>
       <c r="H649" s="2"/>
       <c r="I649" s="3"/>
     </row>
-    <row r="650" spans="5:9" ht="15.75" customHeight="1">
+    <row r="650" ht="15.75" customHeight="1">
       <c r="E650" s="1"/>
       <c r="G650" s="2"/>
       <c r="H650" s="2"/>
       <c r="I650" s="3"/>
     </row>
-    <row r="651" spans="5:9" ht="15.75" customHeight="1">
+    <row r="651" ht="15.75" customHeight="1">
       <c r="E651" s="1"/>
       <c r="G651" s="2"/>
       <c r="H651" s="2"/>
       <c r="I651" s="3"/>
     </row>
-    <row r="652" spans="5:9" ht="15.75" customHeight="1">
+    <row r="652" ht="15.75" customHeight="1">
       <c r="E652" s="1"/>
       <c r="G652" s="2"/>
       <c r="H652" s="2"/>
       <c r="I652" s="3"/>
     </row>
-    <row r="653" spans="5:9" ht="15.75" customHeight="1">
+    <row r="653" ht="15.75" customHeight="1">
       <c r="E653" s="1"/>
       <c r="G653" s="2"/>
       <c r="H653" s="2"/>
       <c r="I653" s="3"/>
     </row>
-    <row r="654" spans="5:9" ht="15.75" customHeight="1">
+    <row r="654" ht="15.75" customHeight="1">
       <c r="E654" s="1"/>
       <c r="G654" s="2"/>
       <c r="H654" s="2"/>
       <c r="I654" s="3"/>
     </row>
-    <row r="655" spans="5:9" ht="15.75" customHeight="1">
+    <row r="655" ht="15.75" customHeight="1">
       <c r="E655" s="1"/>
       <c r="G655" s="2"/>
       <c r="H655" s="2"/>
       <c r="I655" s="3"/>
     </row>
-    <row r="656" spans="5:9" ht="15.75" customHeight="1">
+    <row r="656" ht="15.75" customHeight="1">
       <c r="E656" s="1"/>
       <c r="G656" s="2"/>
       <c r="H656" s="2"/>
       <c r="I656" s="3"/>
     </row>
-    <row r="657" spans="5:9" ht="15.75" customHeight="1">
+    <row r="657" ht="15.75" customHeight="1">
       <c r="E657" s="1"/>
       <c r="G657" s="2"/>
       <c r="H657" s="2"/>
       <c r="I657" s="3"/>
     </row>
-    <row r="658" spans="5:9" ht="15.75" customHeight="1">
+    <row r="658" ht="15.75" customHeight="1">
       <c r="E658" s="1"/>
       <c r="G658" s="2"/>
       <c r="H658" s="2"/>
       <c r="I658" s="3"/>
     </row>
-    <row r="659" spans="5:9" ht="15.75" customHeight="1">
+    <row r="659" ht="15.75" customHeight="1">
       <c r="E659" s="1"/>
       <c r="G659" s="2"/>
       <c r="H659" s="2"/>
       <c r="I659" s="3"/>
     </row>
-    <row r="660" spans="5:9" ht="15.75" customHeight="1">
+    <row r="660" ht="15.75" customHeight="1">
       <c r="E660" s="1"/>
       <c r="G660" s="2"/>
       <c r="H660" s="2"/>
       <c r="I660" s="3"/>
     </row>
-    <row r="661" spans="5:9" ht="15.75" customHeight="1">
+    <row r="661" ht="15.75" customHeight="1">
       <c r="E661" s="1"/>
       <c r="G661" s="2"/>
       <c r="H661" s="2"/>
       <c r="I661" s="3"/>
     </row>
-    <row r="662" spans="5:9" ht="15.75" customHeight="1">
+    <row r="662" ht="15.75" customHeight="1">
       <c r="E662" s="1"/>
       <c r="G662" s="2"/>
       <c r="H662" s="2"/>
       <c r="I662" s="3"/>
     </row>
-    <row r="663" spans="5:9" ht="15.75" customHeight="1">
+    <row r="663" ht="15.75" customHeight="1">
       <c r="E663" s="1"/>
       <c r="G663" s="2"/>
       <c r="H663" s="2"/>
       <c r="I663" s="3"/>
     </row>
-    <row r="664" spans="5:9" ht="15.75" customHeight="1">
+    <row r="664" ht="15.75" customHeight="1">
       <c r="E664" s="1"/>
       <c r="G664" s="2"/>
       <c r="H664" s="2"/>
       <c r="I664" s="3"/>
     </row>
-    <row r="665" spans="5:9" ht="15.75" customHeight="1">
+    <row r="665" ht="15.75" customHeight="1">
       <c r="E665" s="1"/>
       <c r="G665" s="2"/>
       <c r="H665" s="2"/>
       <c r="I665" s="3"/>
     </row>
-    <row r="666" spans="5:9" ht="15.75" customHeight="1">
+    <row r="666" ht="15.75" customHeight="1">
       <c r="E666" s="1"/>
       <c r="G666" s="2"/>
       <c r="H666" s="2"/>
       <c r="I666" s="3"/>
     </row>
-    <row r="667" spans="5:9" ht="15.75" customHeight="1">
+    <row r="667" ht="15.75" customHeight="1">
       <c r="E667" s="1"/>
       <c r="G667" s="2"/>
       <c r="H667" s="2"/>
       <c r="I667" s="3"/>
     </row>
-    <row r="668" spans="5:9" ht="15.75" customHeight="1">
+    <row r="668" ht="15.75" customHeight="1">
       <c r="E668" s="1"/>
       <c r="G668" s="2"/>
       <c r="H668" s="2"/>
       <c r="I668" s="3"/>
     </row>
-    <row r="669" spans="5:9" ht="15.75" customHeight="1">
+    <row r="669" ht="15.75" customHeight="1">
       <c r="E669" s="1"/>
       <c r="G669" s="2"/>
       <c r="H669" s="2"/>
       <c r="I669" s="3"/>
     </row>
-    <row r="670" spans="5:9" ht="15.75" customHeight="1">
+    <row r="670" ht="15.75" customHeight="1">
       <c r="E670" s="1"/>
       <c r="G670" s="2"/>
       <c r="H670" s="2"/>
       <c r="I670" s="3"/>
     </row>
-    <row r="671" spans="5:9" ht="15.75" customHeight="1">
+    <row r="671" ht="15.75" customHeight="1">
       <c r="E671" s="1"/>
       <c r="G671" s="2"/>
       <c r="H671" s="2"/>
       <c r="I671" s="3"/>
     </row>
-    <row r="672" spans="5:9" ht="15.75" customHeight="1">
+    <row r="672" ht="15.75" customHeight="1">
       <c r="E672" s="1"/>
       <c r="G672" s="2"/>
       <c r="H672" s="2"/>
       <c r="I672" s="3"/>
     </row>
-    <row r="673" spans="5:9" ht="15.75" customHeight="1">
+    <row r="673" ht="15.75" customHeight="1">
       <c r="E673" s="1"/>
       <c r="G673" s="2"/>
       <c r="H673" s="2"/>
       <c r="I673" s="3"/>
     </row>
-    <row r="674" spans="5:9" ht="15.75" customHeight="1">
+    <row r="674" ht="15.75" customHeight="1">
       <c r="E674" s="1"/>
       <c r="G674" s="2"/>
       <c r="H674" s="2"/>
       <c r="I674" s="3"/>
     </row>
-    <row r="675" spans="5:9" ht="15.75" customHeight="1">
+    <row r="675" ht="15.75" customHeight="1">
       <c r="E675" s="1"/>
       <c r="G675" s="2"/>
       <c r="H675" s="2"/>
       <c r="I675" s="3"/>
     </row>
-    <row r="676" spans="5:9" ht="15.75" customHeight="1">
+    <row r="676" ht="15.75" customHeight="1">
       <c r="E676" s="1"/>
       <c r="G676" s="2"/>
       <c r="H676" s="2"/>
       <c r="I676" s="3"/>
     </row>
-    <row r="677" spans="5:9" ht="15.75" customHeight="1">
+    <row r="677" ht="15.75" customHeight="1">
       <c r="E677" s="1"/>
       <c r="G677" s="2"/>
       <c r="H677" s="2"/>
       <c r="I677" s="3"/>
     </row>
-    <row r="678" spans="5:9" ht="15.75" customHeight="1">
+    <row r="678" ht="15.75" customHeight="1">
       <c r="E678" s="1"/>
       <c r="G678" s="2"/>
       <c r="H678" s="2"/>
       <c r="I678" s="3"/>
     </row>
-    <row r="679" spans="5:9" ht="15.75" customHeight="1">
+    <row r="679" ht="15.75" customHeight="1">
       <c r="E679" s="1"/>
       <c r="G679" s="2"/>
       <c r="H679" s="2"/>
       <c r="I679" s="3"/>
     </row>
-    <row r="680" spans="5:9" ht="15.75" customHeight="1">
+    <row r="680" ht="15.75" customHeight="1">
       <c r="E680" s="1"/>
       <c r="G680" s="2"/>
       <c r="H680" s="2"/>
       <c r="I680" s="3"/>
     </row>
-    <row r="681" spans="5:9" ht="15.75" customHeight="1">
+    <row r="681" ht="15.75" customHeight="1">
       <c r="E681" s="1"/>
       <c r="G681" s="2"/>
       <c r="H681" s="2"/>
       <c r="I681" s="3"/>
     </row>
-    <row r="682" spans="5:9" ht="15.75" customHeight="1">
+    <row r="682" ht="15.75" customHeight="1">
       <c r="E682" s="1"/>
       <c r="G682" s="2"/>
       <c r="H682" s="2"/>
       <c r="I682" s="3"/>
     </row>
-    <row r="683" spans="5:9" ht="15.75" customHeight="1">
+    <row r="683" ht="15.75" customHeight="1">
       <c r="E683" s="1"/>
       <c r="G683" s="2"/>
       <c r="H683" s="2"/>
       <c r="I683" s="3"/>
     </row>
-    <row r="684" spans="5:9" ht="15.75" customHeight="1">
+    <row r="684" ht="15.75" customHeight="1">
       <c r="E684" s="1"/>
       <c r="G684" s="2"/>
       <c r="H684" s="2"/>
       <c r="I684" s="3"/>
     </row>
-    <row r="685" spans="5:9" ht="15.75" customHeight="1">
+    <row r="685" ht="15.75" customHeight="1">
       <c r="E685" s="1"/>
       <c r="G685" s="2"/>
       <c r="H685" s="2"/>
       <c r="I685" s="3"/>
     </row>
-    <row r="686" spans="5:9" ht="15.75" customHeight="1">
+    <row r="686" ht="15.75" customHeight="1">
       <c r="E686" s="1"/>
       <c r="G686" s="2"/>
       <c r="H686" s="2"/>
       <c r="I686" s="3"/>
     </row>
-    <row r="687" spans="5:9" ht="15.75" customHeight="1">
+    <row r="687" ht="15.75" customHeight="1">
       <c r="E687" s="1"/>
       <c r="G687" s="2"/>
       <c r="H687" s="2"/>
       <c r="I687" s="3"/>
     </row>
-    <row r="688" spans="5:9" ht="15.75" customHeight="1">
+    <row r="688" ht="15.75" customHeight="1">
       <c r="E688" s="1"/>
       <c r="G688" s="2"/>
       <c r="H688" s="2"/>
       <c r="I688" s="3"/>
     </row>
-    <row r="689" spans="5:9" ht="15.75" customHeight="1">
+    <row r="689" ht="15.75" customHeight="1">
       <c r="E689" s="1"/>
       <c r="G689" s="2"/>
       <c r="H689" s="2"/>
       <c r="I689" s="3"/>
     </row>
-    <row r="690" spans="5:9" ht="15.75" customHeight="1">
+    <row r="690" ht="15.75" customHeight="1">
       <c r="E690" s="1"/>
       <c r="G690" s="2"/>
       <c r="H690" s="2"/>
       <c r="I690" s="3"/>
     </row>
-    <row r="691" spans="5:9" ht="15.75" customHeight="1">
+    <row r="691" ht="15.75" customHeight="1">
       <c r="E691" s="1"/>
       <c r="G691" s="2"/>
       <c r="H691" s="2"/>
       <c r="I691" s="3"/>
     </row>
-    <row r="692" spans="5:9" ht="15.75" customHeight="1">
+    <row r="692" ht="15.75" customHeight="1">
       <c r="E692" s="1"/>
       <c r="G692" s="2"/>
       <c r="H692" s="2"/>
       <c r="I692" s="3"/>
     </row>
-    <row r="693" spans="5:9" ht="15.75" customHeight="1">
+    <row r="693" ht="15.75" customHeight="1">
       <c r="E693" s="1"/>
       <c r="G693" s="2"/>
       <c r="H693" s="2"/>
       <c r="I693" s="3"/>
     </row>
-    <row r="694" spans="5:9" ht="15.75" customHeight="1">
+    <row r="694" ht="15.75" customHeight="1">
       <c r="E694" s="1"/>
       <c r="G694" s="2"/>
       <c r="H694" s="2"/>
       <c r="I694" s="3"/>
     </row>
-    <row r="695" spans="5:9" ht="15.75" customHeight="1">
+    <row r="695" ht="15.75" customHeight="1">
       <c r="E695" s="1"/>
       <c r="G695" s="2"/>
       <c r="H695" s="2"/>
       <c r="I695" s="3"/>
     </row>
-    <row r="696" spans="5:9" ht="15.75" customHeight="1">
+    <row r="696" ht="15.75" customHeight="1">
       <c r="E696" s="1"/>
       <c r="G696" s="2"/>
       <c r="H696" s="2"/>
       <c r="I696" s="3"/>
     </row>
-    <row r="697" spans="5:9" ht="15.75" customHeight="1">
+    <row r="697" ht="15.75" customHeight="1">
       <c r="E697" s="1"/>
       <c r="G697" s="2"/>
       <c r="H697" s="2"/>
       <c r="I697" s="3"/>
     </row>
-    <row r="698" spans="5:9" ht="15.75" customHeight="1">
+    <row r="698" ht="15.75" customHeight="1">
       <c r="E698" s="1"/>
       <c r="G698" s="2"/>
       <c r="H698" s="2"/>
       <c r="I698" s="3"/>
     </row>
-    <row r="699" spans="5:9" ht="15.75" customHeight="1">
+    <row r="699" ht="15.75" customHeight="1">
       <c r="E699" s="1"/>
       <c r="G699" s="2"/>
       <c r="H699" s="2"/>
       <c r="I699" s="3"/>
     </row>
-    <row r="700" spans="5:9" ht="15.75" customHeight="1">
+    <row r="700" ht="15.75" customHeight="1">
       <c r="E700" s="1"/>
       <c r="G700" s="2"/>
       <c r="H700" s="2"/>
       <c r="I700" s="3"/>
     </row>
-    <row r="701" spans="5:9" ht="15.75" customHeight="1">
+    <row r="701" ht="15.75" customHeight="1">
       <c r="E701" s="1"/>
       <c r="G701" s="2"/>
       <c r="H701" s="2"/>
       <c r="I701" s="3"/>
     </row>
-    <row r="702" spans="5:9" ht="15.75" customHeight="1">
+    <row r="702" ht="15.75" customHeight="1">
       <c r="E702" s="1"/>
       <c r="G702" s="2"/>
       <c r="H702" s="2"/>
       <c r="I702" s="3"/>
     </row>
-    <row r="703" spans="5:9" ht="15.75" customHeight="1">
+    <row r="703" ht="15.75" customHeight="1">
       <c r="E703" s="1"/>
       <c r="G703" s="2"/>
       <c r="H703" s="2"/>
       <c r="I703" s="3"/>
     </row>
-    <row r="704" spans="5:9" ht="15.75" customHeight="1">
+    <row r="704" ht="15.75" customHeight="1">
       <c r="E704" s="1"/>
       <c r="G704" s="2"/>
       <c r="H704" s="2"/>
       <c r="I704" s="3"/>
     </row>
-    <row r="705" spans="5:9" ht="15.75" customHeight="1">
+    <row r="705" ht="15.75" customHeight="1">
       <c r="E705" s="1"/>
       <c r="G705" s="2"/>
       <c r="H705" s="2"/>
       <c r="I705" s="3"/>
     </row>
-    <row r="706" spans="5:9" ht="15.75" customHeight="1">
+    <row r="706" ht="15.75" customHeight="1">
       <c r="E706" s="1"/>
       <c r="G706" s="2"/>
       <c r="H706" s="2"/>
       <c r="I706" s="3"/>
     </row>
-    <row r="707" spans="5:9" ht="15.75" customHeight="1">
+    <row r="707" ht="15.75" customHeight="1">
       <c r="E707" s="1"/>
       <c r="G707" s="2"/>
       <c r="H707" s="2"/>
       <c r="I707" s="3"/>
     </row>
-    <row r="708" spans="5:9" ht="15.75" customHeight="1">
+    <row r="708" ht="15.75" customHeight="1">
       <c r="E708" s="1"/>
       <c r="G708" s="2"/>
       <c r="H708" s="2"/>
       <c r="I708" s="3"/>
     </row>
-    <row r="709" spans="5:9" ht="15.75" customHeight="1">
+    <row r="709" ht="15.75" customHeight="1">
       <c r="E709" s="1"/>
       <c r="G709" s="2"/>
       <c r="H709" s="2"/>
       <c r="I709" s="3"/>
     </row>
-    <row r="710" spans="5:9" ht="15.75" customHeight="1">
+    <row r="710" ht="15.75" customHeight="1">
       <c r="E710" s="1"/>
       <c r="G710" s="2"/>
       <c r="H710" s="2"/>
       <c r="I710" s="3"/>
     </row>
-    <row r="711" spans="5:9" ht="15.75" customHeight="1">
+    <row r="711" ht="15.75" customHeight="1">
       <c r="E711" s="1"/>
       <c r="G711" s="2"/>
       <c r="H711" s="2"/>
       <c r="I711" s="3"/>
     </row>
-    <row r="712" spans="5:9" ht="15.75" customHeight="1">
+    <row r="712" ht="15.75" customHeight="1">
       <c r="E712" s="1"/>
       <c r="G712" s="2"/>
       <c r="H712" s="2"/>
       <c r="I712" s="3"/>
     </row>
-    <row r="713" spans="5:9" ht="15.75" customHeight="1">
+    <row r="713" ht="15.75" customHeight="1">
       <c r="E713" s="1"/>
       <c r="G713" s="2"/>
       <c r="H713" s="2"/>
       <c r="I713" s="3"/>
     </row>
-    <row r="714" spans="5:9" ht="15.75" customHeight="1">
+    <row r="714" ht="15.75" customHeight="1">
       <c r="E714" s="1"/>
       <c r="G714" s="2"/>
       <c r="H714" s="2"/>
       <c r="I714" s="3"/>
     </row>
-    <row r="715" spans="5:9" ht="15.75" customHeight="1">
+    <row r="715" ht="15.75" customHeight="1">
       <c r="E715" s="1"/>
       <c r="G715" s="2"/>
       <c r="H715" s="2"/>
       <c r="I715" s="3"/>
     </row>
-    <row r="716" spans="5:9" ht="15.75" customHeight="1">
+    <row r="716" ht="15.75" customHeight="1">
       <c r="E716" s="1"/>
       <c r="G716" s="2"/>
       <c r="H716" s="2"/>
       <c r="I716" s="3"/>
     </row>
-    <row r="717" spans="5:9" ht="15.75" customHeight="1">
+    <row r="717" ht="15.75" customHeight="1">
       <c r="E717" s="1"/>
       <c r="G717" s="2"/>
       <c r="H717" s="2"/>
       <c r="I717" s="3"/>
     </row>
-    <row r="718" spans="5:9" ht="15.75" customHeight="1">
+    <row r="718" ht="15.75" customHeight="1">
       <c r="E718" s="1"/>
       <c r="G718" s="2"/>
       <c r="H718" s="2"/>
       <c r="I718" s="3"/>
     </row>
-    <row r="719" spans="5:9" ht="15.75" customHeight="1">
+    <row r="719" ht="15.75" customHeight="1">
       <c r="E719" s="1"/>
       <c r="G719" s="2"/>
       <c r="H719" s="2"/>
       <c r="I719" s="3"/>
     </row>
-    <row r="720" spans="5:9" ht="15.75" customHeight="1">
+    <row r="720" ht="15.75" customHeight="1">
       <c r="E720" s="1"/>
       <c r="G720" s="2"/>
       <c r="H720" s="2"/>
       <c r="I720" s="3"/>
     </row>
-    <row r="721" spans="5:9" ht="15.75" customHeight="1">
+    <row r="721" ht="15.75" customHeight="1">
       <c r="E721" s="1"/>
       <c r="G721" s="2"/>
       <c r="H721" s="2"/>
       <c r="I721" s="3"/>
     </row>
-    <row r="722" spans="5:9" ht="15.75" customHeight="1">
+    <row r="722" ht="15.75" customHeight="1">
       <c r="E722" s="1"/>
       <c r="G722" s="2"/>
       <c r="H722" s="2"/>
       <c r="I722" s="3"/>
     </row>
-    <row r="723" spans="5:9" ht="15.75" customHeight="1">
+    <row r="723" ht="15.75" customHeight="1">
       <c r="E723" s="1"/>
       <c r="G723" s="2"/>
       <c r="H723" s="2"/>
       <c r="I723" s="3"/>
     </row>
-    <row r="724" spans="5:9" ht="15.75" customHeight="1">
+    <row r="724" ht="15.75" customHeight="1">
       <c r="E724" s="1"/>
       <c r="G724" s="2"/>
       <c r="H724" s="2"/>
       <c r="I724" s="3"/>
     </row>
-    <row r="725" spans="5:9" ht="15.75" customHeight="1">
+    <row r="725" ht="15.75" customHeight="1">
       <c r="E725" s="1"/>
       <c r="G725" s="2"/>
       <c r="H725" s="2"/>
       <c r="I725" s="3"/>
     </row>
-    <row r="726" spans="5:9" ht="15.75" customHeight="1">
+    <row r="726" ht="15.75" customHeight="1">
       <c r="E726" s="1"/>
       <c r="G726" s="2"/>
       <c r="H726" s="2"/>
       <c r="I726" s="3"/>
     </row>
-    <row r="727" spans="5:9" ht="15.75" customHeight="1">
+    <row r="727" ht="15.75" customHeight="1">
       <c r="E727" s="1"/>
       <c r="G727" s="2"/>
       <c r="H727" s="2"/>
       <c r="I727" s="3"/>
     </row>
-    <row r="728" spans="5:9" ht="15.75" customHeight="1">
+    <row r="728" ht="15.75" customHeight="1">
       <c r="E728" s="1"/>
       <c r="G728" s="2"/>
       <c r="H728" s="2"/>
       <c r="I728" s="3"/>
     </row>
-    <row r="729" spans="5:9" ht="15.75" customHeight="1">
+    <row r="729" ht="15.75" customHeight="1">
       <c r="E729" s="1"/>
       <c r="G729" s="2"/>
       <c r="H729" s="2"/>
       <c r="I729" s="3"/>
     </row>
-    <row r="730" spans="5:9" ht="15.75" customHeight="1">
+    <row r="730" ht="15.75" customHeight="1">
       <c r="E730" s="1"/>
       <c r="G730" s="2"/>
       <c r="H730" s="2"/>
       <c r="I730" s="3"/>
     </row>
-    <row r="731" spans="5:9" ht="15.75" customHeight="1">
+    <row r="731" ht="15.75" customHeight="1">
       <c r="E731" s="1"/>
       <c r="G731" s="2"/>
       <c r="H731" s="2"/>
       <c r="I731" s="3"/>
     </row>
-    <row r="732" spans="5:9" ht="15.75" customHeight="1">
+    <row r="732" ht="15.75" customHeight="1">
       <c r="E732" s="1"/>
       <c r="G732" s="2"/>
       <c r="H732" s="2"/>
       <c r="I732" s="3"/>
     </row>
-    <row r="733" spans="5:9" ht="15.75" customHeight="1">
+    <row r="733" ht="15.75" customHeight="1">
       <c r="E733" s="1"/>
       <c r="G733" s="2"/>
       <c r="H733" s="2"/>
       <c r="I733" s="3"/>
     </row>
-    <row r="734" spans="5:9" ht="15.75" customHeight="1">
+    <row r="734" ht="15.75" customHeight="1">
       <c r="E734" s="1"/>
       <c r="G734" s="2"/>
       <c r="H734" s="2"/>
       <c r="I734" s="3"/>
     </row>
-    <row r="735" spans="5:9" ht="15.75" customHeight="1">
+    <row r="735" ht="15.75" customHeight="1">
       <c r="E735" s="1"/>
       <c r="G735" s="2"/>
       <c r="H735" s="2"/>
       <c r="I735" s="3"/>
     </row>
-    <row r="736" spans="5:9" ht="15.75" customHeight="1">
+    <row r="736" ht="15.75" customHeight="1">
       <c r="E736" s="1"/>
       <c r="G736" s="2"/>
       <c r="H736" s="2"/>
       <c r="I736" s="3"/>
     </row>
-    <row r="737" spans="5:9" ht="15.75" customHeight="1">
+    <row r="737" ht="15.75" customHeight="1">
       <c r="E737" s="1"/>
       <c r="G737" s="2"/>
       <c r="H737" s="2"/>
       <c r="I737" s="3"/>
     </row>
-    <row r="738" spans="5:9" ht="15.75" customHeight="1">
+    <row r="738" ht="15.75" customHeight="1">
       <c r="E738" s="1"/>
       <c r="G738" s="2"/>
       <c r="H738" s="2"/>
       <c r="I738" s="3"/>
     </row>
-    <row r="739" spans="5:9" ht="15.75" customHeight="1">
+    <row r="739" ht="15.75" customHeight="1">
       <c r="E739" s="1"/>
       <c r="G739" s="2"/>
       <c r="H739" s="2"/>
       <c r="I739" s="3"/>
     </row>
-    <row r="740" spans="5:9" ht="15.75" customHeight="1">
+    <row r="740" ht="15.75" customHeight="1">
       <c r="E740" s="1"/>
       <c r="G740" s="2"/>
       <c r="H740" s="2"/>
       <c r="I740" s="3"/>
     </row>
-    <row r="741" spans="5:9" ht="15.75" customHeight="1">
+    <row r="741" ht="15.75" customHeight="1">
       <c r="E741" s="1"/>
       <c r="G741" s="2"/>
       <c r="H741" s="2"/>
       <c r="I741" s="3"/>
     </row>
-    <row r="742" spans="5:9" ht="15.75" customHeight="1">
+    <row r="742" ht="15.75" customHeight="1">
       <c r="E742" s="1"/>
       <c r="G742" s="2"/>
       <c r="H742" s="2"/>
       <c r="I742" s="3"/>
     </row>
-    <row r="743" spans="5:9" ht="15.75" customHeight="1">
+    <row r="743" ht="15.75" customHeight="1">
       <c r="E743" s="1"/>
       <c r="G743" s="2"/>
       <c r="H743" s="2"/>
       <c r="I743" s="3"/>
     </row>
-    <row r="744" spans="5:9" ht="15.75" customHeight="1">
+    <row r="744" ht="15.75" customHeight="1">
       <c r="E744" s="1"/>
       <c r="G744" s="2"/>
       <c r="H744" s="2"/>
       <c r="I744" s="3"/>
     </row>
-    <row r="745" spans="5:9" ht="15.75" customHeight="1">
+    <row r="745" ht="15.75" customHeight="1">
       <c r="E745" s="1"/>
       <c r="G745" s="2"/>
       <c r="H745" s="2"/>
       <c r="I745" s="3"/>
     </row>
-    <row r="746" spans="5:9" ht="15.75" customHeight="1">
+    <row r="746" ht="15.75" customHeight="1">
       <c r="E746" s="1"/>
       <c r="G746" s="2"/>
       <c r="H746" s="2"/>
       <c r="I746" s="3"/>
     </row>
-    <row r="747" spans="5:9" ht="15.75" customHeight="1">
+    <row r="747" ht="15.75" customHeight="1">
       <c r="E747" s="1"/>
       <c r="G747" s="2"/>
       <c r="H747" s="2"/>
       <c r="I747" s="3"/>
     </row>
-    <row r="748" spans="5:9" ht="15.75" customHeight="1">
+    <row r="748" ht="15.75" customHeight="1">
       <c r="E748" s="1"/>
       <c r="G748" s="2"/>
       <c r="H748" s="2"/>
       <c r="I748" s="3"/>
     </row>
-    <row r="749" spans="5:9" ht="15.75" customHeight="1">
+    <row r="749" ht="15.75" customHeight="1">
       <c r="E749" s="1"/>
       <c r="G749" s="2"/>
       <c r="H749" s="2"/>
       <c r="I749" s="3"/>
     </row>
-    <row r="750" spans="5:9" ht="15.75" customHeight="1">
+    <row r="750" ht="15.75" customHeight="1">
       <c r="E750" s="1"/>
       <c r="G750" s="2"/>
       <c r="H750" s="2"/>
       <c r="I750" s="3"/>
     </row>
-    <row r="751" spans="5:9" ht="15.75" customHeight="1">
+    <row r="751" ht="15.75" customHeight="1">
       <c r="E751" s="1"/>
       <c r="G751" s="2"/>
       <c r="H751" s="2"/>
       <c r="I751" s="3"/>
     </row>
-    <row r="752" spans="5:9" ht="15.75" customHeight="1">
+    <row r="752" ht="15.75" customHeight="1">
       <c r="E752" s="1"/>
       <c r="G752" s="2"/>
       <c r="H752" s="2"/>
       <c r="I752" s="3"/>
     </row>
-    <row r="753" spans="5:9" ht="15.75" customHeight="1">
+    <row r="753" ht="15.75" customHeight="1">
       <c r="E753" s="1"/>
       <c r="G753" s="2"/>
       <c r="H753" s="2"/>
       <c r="I753" s="3"/>
     </row>
-    <row r="754" spans="5:9" ht="15.75" customHeight="1">
+    <row r="754" ht="15.75" customHeight="1">
       <c r="E754" s="1"/>
       <c r="G754" s="2"/>
       <c r="H754" s="2"/>
       <c r="I754" s="3"/>
     </row>
-    <row r="755" spans="5:9" ht="15.75" customHeight="1">
+    <row r="755" ht="15.75" customHeight="1">
       <c r="E755" s="1"/>
       <c r="G755" s="2"/>
       <c r="H755" s="2"/>
       <c r="I755" s="3"/>
     </row>
-    <row r="756" spans="5:9" ht="15.75" customHeight="1">
+    <row r="756" ht="15.75" customHeight="1">
       <c r="E756" s="1"/>
       <c r="G756" s="2"/>
       <c r="H756" s="2"/>
       <c r="I756" s="3"/>
     </row>
-    <row r="757" spans="5:9" ht="15.75" customHeight="1">
+    <row r="757" ht="15.75" customHeight="1">
       <c r="E757" s="1"/>
       <c r="G757" s="2"/>
       <c r="H757" s="2"/>
       <c r="I757" s="3"/>
     </row>
-    <row r="758" spans="5:9" ht="15.75" customHeight="1">
+    <row r="758" ht="15.75" customHeight="1">
       <c r="E758" s="1"/>
       <c r="G758" s="2"/>
       <c r="H758" s="2"/>
       <c r="I758" s="3"/>
     </row>
-    <row r="759" spans="5:9" ht="15.75" customHeight="1">
+    <row r="759" ht="15.75" customHeight="1">
       <c r="E759" s="1"/>
       <c r="G759" s="2"/>
       <c r="H759" s="2"/>
       <c r="I759" s="3"/>
     </row>
-    <row r="760" spans="5:9" ht="15.75" customHeight="1">
+    <row r="760" ht="15.75" customHeight="1">
       <c r="E760" s="1"/>
       <c r="G760" s="2"/>
       <c r="H760" s="2"/>
       <c r="I760" s="3"/>
     </row>
-    <row r="761" spans="5:9" ht="15.75" customHeight="1">
+    <row r="761" ht="15.75" customHeight="1">
       <c r="E761" s="1"/>
       <c r="G761" s="2"/>
       <c r="H761" s="2"/>
       <c r="I761" s="3"/>
     </row>
-    <row r="762" spans="5:9" ht="15.75" customHeight="1">
+    <row r="762" ht="15.75" customHeight="1">
       <c r="E762" s="1"/>
       <c r="G762" s="2"/>
       <c r="H762" s="2"/>
       <c r="I762" s="3"/>
     </row>
-    <row r="763" spans="5:9" ht="15.75" customHeight="1">
+    <row r="763" ht="15.75" customHeight="1">
       <c r="E763" s="1"/>
       <c r="G763" s="2"/>
       <c r="H763" s="2"/>
       <c r="I763" s="3"/>
     </row>
-    <row r="764" spans="5:9" ht="15.75" customHeight="1">
+    <row r="764" ht="15.75" customHeight="1">
       <c r="E764" s="1"/>
       <c r="G764" s="2"/>
       <c r="H764" s="2"/>
       <c r="I764" s="3"/>
     </row>
-    <row r="765" spans="5:9" ht="15.75" customHeight="1">
+    <row r="765" ht="15.75" customHeight="1">
       <c r="E765" s="1"/>
       <c r="G765" s="2"/>
       <c r="H765" s="2"/>
       <c r="I765" s="3"/>
     </row>
-    <row r="766" spans="5:9" ht="15.75" customHeight="1">
+    <row r="766" ht="15.75" customHeight="1">
       <c r="E766" s="1"/>
       <c r="G766" s="2"/>
       <c r="H766" s="2"/>
       <c r="I766" s="3"/>
     </row>
-    <row r="767" spans="5:9" ht="15.75" customHeight="1">
+    <row r="767" ht="15.75" customHeight="1">
       <c r="E767" s="1"/>
       <c r="G767" s="2"/>
       <c r="H767" s="2"/>
       <c r="I767" s="3"/>
     </row>
-    <row r="768" spans="5:9" ht="15.75" customHeight="1">
+    <row r="768" ht="15.75" customHeight="1">
       <c r="E768" s="1"/>
       <c r="G768" s="2"/>
       <c r="H768" s="2"/>
       <c r="I768" s="3"/>
     </row>
-    <row r="769" spans="5:9" ht="15.75" customHeight="1">
+    <row r="769" ht="15.75" customHeight="1">
       <c r="E769" s="1"/>
       <c r="G769" s="2"/>
       <c r="H769" s="2"/>
       <c r="I769" s="3"/>
     </row>
-    <row r="770" spans="5:9" ht="15.75" customHeight="1">
+    <row r="770" ht="15.75" customHeight="1">
       <c r="E770" s="1"/>
       <c r="G770" s="2"/>
       <c r="H770" s="2"/>
       <c r="I770" s="3"/>
     </row>
-    <row r="771" spans="5:9" ht="15.75" customHeight="1">
+    <row r="771" ht="15.75" customHeight="1">
       <c r="E771" s="1"/>
       <c r="G771" s="2"/>
       <c r="H771" s="2"/>
       <c r="I771" s="3"/>
     </row>
-    <row r="772" spans="5:9" ht="15.75" customHeight="1">
+    <row r="772" ht="15.75" customHeight="1">
       <c r="E772" s="1"/>
       <c r="G772" s="2"/>
       <c r="H772" s="2"/>
       <c r="I772" s="3"/>
     </row>
-    <row r="773" spans="5:9" ht="15.75" customHeight="1">
+    <row r="773" ht="15.75" customHeight="1">
       <c r="E773" s="1"/>
       <c r="G773" s="2"/>
       <c r="H773" s="2"/>
       <c r="I773" s="3"/>
     </row>
-    <row r="774" spans="5:9" ht="15.75" customHeight="1">
+    <row r="774" ht="15.75" customHeight="1">
       <c r="E774" s="1"/>
       <c r="G774" s="2"/>
       <c r="H774" s="2"/>
       <c r="I774" s="3"/>
     </row>
-    <row r="775" spans="5:9" ht="15.75" customHeight="1">
+    <row r="775" ht="15.75" customHeight="1">
       <c r="E775" s="1"/>
       <c r="G775" s="2"/>
       <c r="H775" s="2"/>
       <c r="I775" s="3"/>
     </row>
-    <row r="776" spans="5:9" ht="15.75" customHeight="1">
+    <row r="776" ht="15.75" customHeight="1">
       <c r="E776" s="1"/>
       <c r="G776" s="2"/>
       <c r="H776" s="2"/>
       <c r="I776" s="3"/>
     </row>
-    <row r="777" spans="5:9" ht="15.75" customHeight="1">
+    <row r="777" ht="15.75" customHeight="1">
       <c r="E777" s="1"/>
       <c r="G777" s="2"/>
       <c r="H777" s="2"/>
       <c r="I777" s="3"/>
     </row>
-    <row r="778" spans="5:9" ht="15.75" customHeight="1">
+    <row r="778" ht="15.75" customHeight="1">
       <c r="E778" s="1"/>
       <c r="G778" s="2"/>
       <c r="H778" s="2"/>
       <c r="I778" s="3"/>
     </row>
-    <row r="779" spans="5:9" ht="15.75" customHeight="1">
+    <row r="779" ht="15.75" customHeight="1">
       <c r="E779" s="1"/>
       <c r="G779" s="2"/>
       <c r="H779" s="2"/>
       <c r="I779" s="3"/>
     </row>
-    <row r="780" spans="5:9" ht="15.75" customHeight="1">
+    <row r="780" ht="15.75" customHeight="1">
       <c r="E780" s="1"/>
       <c r="G780" s="2"/>
       <c r="H780" s="2"/>
       <c r="I780" s="3"/>
     </row>
-    <row r="781" spans="5:9" ht="15.75" customHeight="1">
+    <row r="781" ht="15.75" customHeight="1">
       <c r="E781" s="1"/>
       <c r="G781" s="2"/>
       <c r="H781" s="2"/>
       <c r="I781" s="3"/>
     </row>
-    <row r="782" spans="5:9" ht="15.75" customHeight="1">
+    <row r="782" ht="15.75" customHeight="1">
       <c r="E782" s="1"/>
       <c r="G782" s="2"/>
       <c r="H782" s="2"/>
       <c r="I782" s="3"/>
     </row>
-    <row r="783" spans="5:9" ht="15.75" customHeight="1">
+    <row r="783" ht="15.75" customHeight="1">
       <c r="E783" s="1"/>
       <c r="G783" s="2"/>
       <c r="H783" s="2"/>
       <c r="I783" s="3"/>
     </row>
-    <row r="784" spans="5:9" ht="15.75" customHeight="1">
+    <row r="784" ht="15.75" customHeight="1">
       <c r="E784" s="1"/>
       <c r="G784" s="2"/>
       <c r="H784" s="2"/>
       <c r="I784" s="3"/>
     </row>
-    <row r="785" spans="5:9" ht="15.75" customHeight="1">
+    <row r="785" ht="15.75" customHeight="1">
       <c r="E785" s="1"/>
       <c r="G785" s="2"/>
       <c r="H785" s="2"/>
       <c r="I785" s="3"/>
     </row>
-    <row r="786" spans="5:9" ht="15.75" customHeight="1">
+    <row r="786" ht="15.75" customHeight="1">
       <c r="E786" s="1"/>
       <c r="G786" s="2"/>
       <c r="H786" s="2"/>
       <c r="I786" s="3"/>
     </row>
-    <row r="787" spans="5:9" ht="15.75" customHeight="1">
+    <row r="787" ht="15.75" customHeight="1">
       <c r="E787" s="1"/>
       <c r="G787" s="2"/>
       <c r="H787" s="2"/>
       <c r="I787" s="3"/>
     </row>
-    <row r="788" spans="5:9" ht="15.75" customHeight="1">
+    <row r="788" ht="15.75" customHeight="1">
       <c r="E788" s="1"/>
       <c r="G788" s="2"/>
       <c r="H788" s="2"/>
       <c r="I788" s="3"/>
     </row>
-    <row r="789" spans="5:9" ht="15.75" customHeight="1">
+    <row r="789" ht="15.75" customHeight="1">
       <c r="E789" s="1"/>
       <c r="G789" s="2"/>
       <c r="H789" s="2"/>
       <c r="I789" s="3"/>
     </row>
-    <row r="790" spans="5:9" ht="15.75" customHeight="1">
+    <row r="790" ht="15.75" customHeight="1">
       <c r="E790" s="1"/>
       <c r="G790" s="2"/>
       <c r="H790" s="2"/>
       <c r="I790" s="3"/>
     </row>
-    <row r="791" spans="5:9" ht="15.75" customHeight="1">
+    <row r="791" ht="15.75" customHeight="1">
       <c r="E791" s="1"/>
       <c r="G791" s="2"/>
       <c r="H791" s="2"/>
       <c r="I791" s="3"/>
     </row>
-    <row r="792" spans="5:9" ht="15.75" customHeight="1">
+    <row r="792" ht="15.75" customHeight="1">
       <c r="E792" s="1"/>
       <c r="G792" s="2"/>
       <c r="H792" s="2"/>
       <c r="I792" s="3"/>
     </row>
-    <row r="793" spans="5:9" ht="15.75" customHeight="1">
+    <row r="793" ht="15.75" customHeight="1">
       <c r="E793" s="1"/>
       <c r="G793" s="2"/>
       <c r="H793" s="2"/>
       <c r="I793" s="3"/>
     </row>
-    <row r="794" spans="5:9" ht="15.75" customHeight="1">
+    <row r="794" ht="15.75" customHeight="1">
       <c r="E794" s="1"/>
       <c r="G794" s="2"/>
       <c r="H794" s="2"/>
       <c r="I794" s="3"/>
     </row>
-    <row r="795" spans="5:9" ht="15.75" customHeight="1">
+    <row r="795" ht="15.75" customHeight="1">
       <c r="E795" s="1"/>
       <c r="G795" s="2"/>
       <c r="H795" s="2"/>
       <c r="I795" s="3"/>
     </row>
-    <row r="796" spans="5:9" ht="15.75" customHeight="1">
+    <row r="796" ht="15.75" customHeight="1">
       <c r="E796" s="1"/>
       <c r="G796" s="2"/>
       <c r="H796" s="2"/>
       <c r="I796" s="3"/>
     </row>
-    <row r="797" spans="5:9" ht="15.75" customHeight="1">
+    <row r="797" ht="15.75" customHeight="1">
       <c r="E797" s="1"/>
       <c r="G797" s="2"/>
       <c r="H797" s="2"/>
       <c r="I797" s="3"/>
     </row>
-    <row r="798" spans="5:9" ht="15.75" customHeight="1">
+    <row r="798" ht="15.75" customHeight="1">
       <c r="E798" s="1"/>
       <c r="G798" s="2"/>
       <c r="H798" s="2"/>
       <c r="I798" s="3"/>
     </row>
-    <row r="799" spans="5:9" ht="15.75" customHeight="1">
+    <row r="799" ht="15.75" customHeight="1">
       <c r="E799" s="1"/>
       <c r="G799" s="2"/>
       <c r="H799" s="2"/>
       <c r="I799" s="3"/>
     </row>
-    <row r="800" spans="5:9" ht="15.75" customHeight="1">
+    <row r="800" ht="15.75" customHeight="1">
       <c r="E800" s="1"/>
       <c r="G800" s="2"/>
       <c r="H800" s="2"/>
       <c r="I800" s="3"/>
     </row>
-    <row r="801" spans="5:9" ht="15.75" customHeight="1">
+    <row r="801" ht="15.75" customHeight="1">
       <c r="E801" s="1"/>
       <c r="G801" s="2"/>
       <c r="H801" s="2"/>
       <c r="I801" s="3"/>
     </row>
-    <row r="802" spans="5:9" ht="15.75" customHeight="1">
+    <row r="802" ht="15.75" customHeight="1">
       <c r="E802" s="1"/>
       <c r="G802" s="2"/>
       <c r="H802" s="2"/>
       <c r="I802" s="3"/>
     </row>
-    <row r="803" spans="5:9" ht="15.75" customHeight="1">
+    <row r="803" ht="15.75" customHeight="1">
       <c r="E803" s="1"/>
       <c r="G803" s="2"/>
       <c r="H803" s="2"/>
       <c r="I803" s="3"/>
     </row>
-    <row r="804" spans="5:9" ht="15.75" customHeight="1">
+    <row r="804" ht="15.75" customHeight="1">
       <c r="E804" s="1"/>
       <c r="G804" s="2"/>
       <c r="H804" s="2"/>
       <c r="I804" s="3"/>
     </row>
-    <row r="805" spans="5:9" ht="15.75" customHeight="1">
+    <row r="805" ht="15.75" customHeight="1">
       <c r="E805" s="1"/>
       <c r="G805" s="2"/>
       <c r="H805" s="2"/>
       <c r="I805" s="3"/>
     </row>
-    <row r="806" spans="5:9" ht="15.75" customHeight="1">
+    <row r="806" ht="15.75" customHeight="1">
       <c r="E806" s="1"/>
       <c r="G806" s="2"/>
       <c r="H806" s="2"/>
       <c r="I806" s="3"/>
     </row>
-    <row r="807" spans="5:9" ht="15.75" customHeight="1">
+    <row r="807" ht="15.75" customHeight="1">
       <c r="E807" s="1"/>
       <c r="G807" s="2"/>
       <c r="H807" s="2"/>
       <c r="I807" s="3"/>
     </row>
-    <row r="808" spans="5:9" ht="15.75" customHeight="1">
+    <row r="808" ht="15.75" customHeight="1">
       <c r="E808" s="1"/>
       <c r="G808" s="2"/>
       <c r="H808" s="2"/>
       <c r="I808" s="3"/>
     </row>
-    <row r="809" spans="5:9" ht="15.75" customHeight="1">
+    <row r="809" ht="15.75" customHeight="1">
       <c r="E809" s="1"/>
       <c r="G809" s="2"/>
       <c r="H809" s="2"/>
       <c r="I809" s="3"/>
     </row>
-    <row r="810" spans="5:9" ht="15.75" customHeight="1">
+    <row r="810" ht="15.75" customHeight="1">
       <c r="E810" s="1"/>
       <c r="G810" s="2"/>
       <c r="H810" s="2"/>
       <c r="I810" s="3"/>
     </row>
-    <row r="811" spans="5:9" ht="15.75" customHeight="1">
+    <row r="811" ht="15.75" customHeight="1">
       <c r="E811" s="1"/>
       <c r="G811" s="2"/>
       <c r="H811" s="2"/>
       <c r="I811" s="3"/>
     </row>
-    <row r="812" spans="5:9" ht="15.75" customHeight="1">
+    <row r="812" ht="15.75" customHeight="1">
       <c r="E812" s="1"/>
       <c r="G812" s="2"/>
       <c r="H812" s="2"/>
       <c r="I812" s="3"/>
     </row>
-    <row r="813" spans="5:9" ht="15.75" customHeight="1">
+    <row r="813" ht="15.75" customHeight="1">
       <c r="E813" s="1"/>
       <c r="G813" s="2"/>
       <c r="H813" s="2"/>
       <c r="I813" s="3"/>
     </row>
-    <row r="814" spans="5:9" ht="15.75" customHeight="1">
+    <row r="814" ht="15.75" customHeight="1">
       <c r="E814" s="1"/>
       <c r="G814" s="2"/>
       <c r="H814" s="2"/>
       <c r="I814" s="3"/>
     </row>
-    <row r="815" spans="5:9" ht="15.75" customHeight="1">
+    <row r="815" ht="15.75" customHeight="1">
       <c r="E815" s="1"/>
       <c r="G815" s="2"/>
       <c r="H815" s="2"/>
       <c r="I815" s="3"/>
     </row>
-    <row r="816" spans="5:9" ht="15.75" customHeight="1">
+    <row r="816" ht="15.75" customHeight="1">
       <c r="E816" s="1"/>
       <c r="G816" s="2"/>
       <c r="H816" s="2"/>
       <c r="I816" s="3"/>
     </row>
-    <row r="817" spans="5:9" ht="15.75" customHeight="1">
+    <row r="817" ht="15.75" customHeight="1">
       <c r="E817" s="1"/>
       <c r="G817" s="2"/>
       <c r="H817" s="2"/>
       <c r="I817" s="3"/>
     </row>
-    <row r="818" spans="5:9" ht="15.75" customHeight="1">
+    <row r="818" ht="15.75" customHeight="1">
       <c r="E818" s="1"/>
       <c r="G818" s="2"/>
       <c r="H818" s="2"/>
       <c r="I818" s="3"/>
     </row>
-    <row r="819" spans="5:9" ht="15.75" customHeight="1">
+    <row r="819" ht="15.75" customHeight="1">
       <c r="E819" s="1"/>
       <c r="G819" s="2"/>
       <c r="H819" s="2"/>
       <c r="I819" s="3"/>
     </row>
-    <row r="820" spans="5:9" ht="15.75" customHeight="1">
+    <row r="820" ht="15.75" customHeight="1">
       <c r="E820" s="1"/>
       <c r="G820" s="2"/>
       <c r="H820" s="2"/>
       <c r="I820" s="3"/>
     </row>
-    <row r="821" spans="5:9" ht="15.75" customHeight="1">
+    <row r="821" ht="15.75" customHeight="1">
       <c r="E821" s="1"/>
       <c r="G821" s="2"/>
       <c r="H821" s="2"/>
       <c r="I821" s="3"/>
     </row>
-    <row r="822" spans="5:9" ht="15.75" customHeight="1">
+    <row r="822" ht="15.75" customHeight="1">
       <c r="E822" s="1"/>
       <c r="G822" s="2"/>
       <c r="H822" s="2"/>
       <c r="I822" s="3"/>
     </row>
-    <row r="823" spans="5:9" ht="15.75" customHeight="1">
+    <row r="823" ht="15.75" customHeight="1">
       <c r="E823" s="1"/>
       <c r="G823" s="2"/>
       <c r="H823" s="2"/>
       <c r="I823" s="3"/>
     </row>
-    <row r="824" spans="5:9" ht="15.75" customHeight="1">
+    <row r="824" ht="15.75" customHeight="1">
       <c r="E824" s="1"/>
       <c r="G824" s="2"/>
       <c r="H824" s="2"/>
       <c r="I824" s="3"/>
     </row>
-    <row r="825" spans="5:9" ht="15.75" customHeight="1">
+    <row r="825" ht="15.75" customHeight="1">
       <c r="E825" s="1"/>
       <c r="G825" s="2"/>
       <c r="H825" s="2"/>
       <c r="I825" s="3"/>
     </row>
-    <row r="826" spans="5:9" ht="15.75" customHeight="1">
+    <row r="826" ht="15.75" customHeight="1">
       <c r="E826" s="1"/>
       <c r="G826" s="2"/>
       <c r="H826" s="2"/>
       <c r="I826" s="3"/>
     </row>
-    <row r="827" spans="5:9" ht="15.75" customHeight="1">
+    <row r="827" ht="15.75" customHeight="1">
       <c r="E827" s="1"/>
       <c r="G827" s="2"/>
       <c r="H827" s="2"/>
       <c r="I827" s="3"/>
     </row>
-    <row r="828" spans="5:9" ht="15.75" customHeight="1">
+    <row r="828" ht="15.75" customHeight="1">
       <c r="E828" s="1"/>
       <c r="G828" s="2"/>
       <c r="H828" s="2"/>
       <c r="I828" s="3"/>
     </row>
-    <row r="829" spans="5:9" ht="15.75" customHeight="1">
+    <row r="829" ht="15.75" customHeight="1">
       <c r="E829" s="1"/>
       <c r="G829" s="2"/>
       <c r="H829" s="2"/>
       <c r="I829" s="3"/>
     </row>
-    <row r="830" spans="5:9" ht="15.75" customHeight="1">
+    <row r="830" ht="15.75" customHeight="1">
       <c r="E830" s="1"/>
       <c r="G830" s="2"/>
       <c r="H830" s="2"/>
       <c r="I830" s="3"/>
     </row>
-    <row r="831" spans="5:9" ht="15.75" customHeight="1">
+    <row r="831" ht="15.75" customHeight="1">
       <c r="E831" s="1"/>
       <c r="G831" s="2"/>
       <c r="H831" s="2"/>
       <c r="I831" s="3"/>
     </row>
-    <row r="832" spans="5:9" ht="15.75" customHeight="1">
+    <row r="832" ht="15.75" customHeight="1">
       <c r="E832" s="1"/>
       <c r="G832" s="2"/>
       <c r="H832" s="2"/>
       <c r="I832" s="3"/>
     </row>
-    <row r="833" spans="5:9" ht="15.75" customHeight="1">
+    <row r="833" ht="15.75" customHeight="1">
       <c r="E833" s="1"/>
       <c r="G833" s="2"/>
       <c r="H833" s="2"/>
       <c r="I833" s="3"/>
     </row>
-    <row r="834" spans="5:9" ht="15.75" customHeight="1">
+    <row r="834" ht="15.75" customHeight="1">
       <c r="E834" s="1"/>
       <c r="G834" s="2"/>
       <c r="H834" s="2"/>
       <c r="I834" s="3"/>
     </row>
-    <row r="835" spans="5:9" ht="15.75" customHeight="1">
+    <row r="835" ht="15.75" customHeight="1">
       <c r="E835" s="1"/>
       <c r="G835" s="2"/>
       <c r="H835" s="2"/>
       <c r="I835" s="3"/>
     </row>
-    <row r="836" spans="5:9" ht="15.75" customHeight="1">
+    <row r="836" ht="15.75" customHeight="1">
       <c r="E836" s="1"/>
       <c r="G836" s="2"/>
       <c r="H836" s="2"/>
       <c r="I836" s="3"/>
     </row>
-    <row r="837" spans="5:9" ht="15.75" customHeight="1">
+    <row r="837" ht="15.75" customHeight="1">
       <c r="E837" s="1"/>
       <c r="G837" s="2"/>
       <c r="H837" s="2"/>
       <c r="I837" s="3"/>
     </row>
-    <row r="838" spans="5:9" ht="15.75" customHeight="1">
+    <row r="838" ht="15.75" customHeight="1">
       <c r="E838" s="1"/>
       <c r="G838" s="2"/>
       <c r="H838" s="2"/>
       <c r="I838" s="3"/>
     </row>
-    <row r="839" spans="5:9" ht="15.75" customHeight="1">
+    <row r="839" ht="15.75" customHeight="1">
       <c r="E839" s="1"/>
       <c r="G839" s="2"/>
       <c r="H839" s="2"/>
       <c r="I839" s="3"/>
     </row>
-    <row r="840" spans="5:9" ht="15.75" customHeight="1">
+    <row r="840" ht="15.75" customHeight="1">
       <c r="E840" s="1"/>
       <c r="G840" s="2"/>
       <c r="H840" s="2"/>
       <c r="I840" s="3"/>
     </row>
-    <row r="841" spans="5:9" ht="15.75" customHeight="1">
+    <row r="841" ht="15.75" customHeight="1">
       <c r="E841" s="1"/>
       <c r="G841" s="2"/>
       <c r="H841" s="2"/>
       <c r="I841" s="3"/>
     </row>
-    <row r="842" spans="5:9" ht="15.75" customHeight="1">
+    <row r="842" ht="15.75" customHeight="1">
       <c r="E842" s="1"/>
       <c r="G842" s="2"/>
       <c r="H842" s="2"/>
       <c r="I842" s="3"/>
     </row>
-    <row r="843" spans="5:9" ht="15.75" customHeight="1">
+    <row r="843" ht="15.75" customHeight="1">
       <c r="E843" s="1"/>
       <c r="G843" s="2"/>
       <c r="H843" s="2"/>
       <c r="I843" s="3"/>
     </row>
-    <row r="844" spans="5:9" ht="15.75" customHeight="1">
+    <row r="844" ht="15.75" customHeight="1">
       <c r="E844" s="1"/>
       <c r="G844" s="2"/>
       <c r="H844" s="2"/>
       <c r="I844" s="3"/>
     </row>
-    <row r="845" spans="5:9" ht="15.75" customHeight="1">
+    <row r="845" ht="15.75" customHeight="1">
       <c r="E845" s="1"/>
       <c r="G845" s="2"/>
       <c r="H845" s="2"/>
       <c r="I845" s="3"/>
     </row>
-    <row r="846" spans="5:9" ht="15.75" customHeight="1">
+    <row r="846" ht="15.75" customHeight="1">
       <c r="E846" s="1"/>
       <c r="G846" s="2"/>
       <c r="H846" s="2"/>
       <c r="I846" s="3"/>
     </row>
-    <row r="847" spans="5:9" ht="15.75" customHeight="1">
+    <row r="847" ht="15.75" customHeight="1">
       <c r="E847" s="1"/>
       <c r="G847" s="2"/>
       <c r="H847" s="2"/>
       <c r="I847" s="3"/>
     </row>
-    <row r="848" spans="5:9" ht="15.75" customHeight="1">
+    <row r="848" ht="15.75" customHeight="1">
       <c r="E848" s="1"/>
       <c r="G848" s="2"/>
       <c r="H848" s="2"/>
       <c r="I848" s="3"/>
     </row>
-    <row r="849" spans="5:9" ht="15.75" customHeight="1">
+    <row r="849" ht="15.75" customHeight="1">
       <c r="E849" s="1"/>
       <c r="G849" s="2"/>
       <c r="H849" s="2"/>
       <c r="I849" s="3"/>
     </row>
-    <row r="850" spans="5:9" ht="15.75" customHeight="1">
+    <row r="850" ht="15.75" customHeight="1">
       <c r="E850" s="1"/>
       <c r="G850" s="2"/>
       <c r="H850" s="2"/>
       <c r="I850" s="3"/>
     </row>
-    <row r="851" spans="5:9" ht="15.75" customHeight="1">
+    <row r="851" ht="15.75" customHeight="1">
       <c r="E851" s="1"/>
       <c r="G851" s="2"/>
       <c r="H851" s="2"/>
       <c r="I851" s="3"/>
     </row>
-    <row r="852" spans="5:9" ht="15.75" customHeight="1">
+    <row r="852" ht="15.75" customHeight="1">
       <c r="E852" s="1"/>
       <c r="G852" s="2"/>
       <c r="H852" s="2"/>
       <c r="I852" s="3"/>
     </row>
-    <row r="853" spans="5:9" ht="15.75" customHeight="1">
+    <row r="853" ht="15.75" customHeight="1">
       <c r="E853" s="1"/>
       <c r="G853" s="2"/>
       <c r="H853" s="2"/>
       <c r="I853" s="3"/>
     </row>
-    <row r="854" spans="5:9" ht="15.75" customHeight="1">
+    <row r="854" ht="15.75" customHeight="1">
       <c r="E854" s="1"/>
       <c r="G854" s="2"/>
       <c r="H854" s="2"/>
       <c r="I854" s="3"/>
     </row>
-    <row r="855" spans="5:9" ht="15.75" customHeight="1">
+    <row r="855" ht="15.75" customHeight="1">
       <c r="E855" s="1"/>
       <c r="G855" s="2"/>
       <c r="H855" s="2"/>
       <c r="I855" s="3"/>
     </row>
-    <row r="856" spans="5:9" ht="15.75" customHeight="1">
+    <row r="856" ht="15.75" customHeight="1">
       <c r="E856" s="1"/>
       <c r="G856" s="2"/>
       <c r="H856" s="2"/>
       <c r="I856" s="3"/>
     </row>
-    <row r="857" spans="5:9" ht="15.75" customHeight="1">
+    <row r="857" ht="15.75" customHeight="1">
       <c r="E857" s="1"/>
       <c r="G857" s="2"/>
       <c r="H857" s="2"/>
       <c r="I857" s="3"/>
     </row>
-    <row r="858" spans="5:9" ht="15.75" customHeight="1">
+    <row r="858" ht="15.75" customHeight="1">
       <c r="E858" s="1"/>
       <c r="G858" s="2"/>
       <c r="H858" s="2"/>
       <c r="I858" s="3"/>
     </row>
-    <row r="859" spans="5:9" ht="15.75" customHeight="1">
+    <row r="859" ht="15.75" customHeight="1">
       <c r="E859" s="1"/>
       <c r="G859" s="2"/>
       <c r="H859" s="2"/>
       <c r="I859" s="3"/>
     </row>
-    <row r="860" spans="5:9" ht="15.75" customHeight="1">
+    <row r="860" ht="15.75" customHeight="1">
       <c r="E860" s="1"/>
       <c r="G860" s="2"/>
       <c r="H860" s="2"/>
       <c r="I860" s="3"/>
     </row>
-    <row r="861" spans="5:9" ht="15.75" customHeight="1">
+    <row r="861" ht="15.75" customHeight="1">
       <c r="E861" s="1"/>
       <c r="G861" s="2"/>
       <c r="H861" s="2"/>
       <c r="I861" s="3"/>
     </row>
-    <row r="862" spans="5:9" ht="15.75" customHeight="1">
+    <row r="862" ht="15.75" customHeight="1">
       <c r="E862" s="1"/>
       <c r="G862" s="2"/>
       <c r="H862" s="2"/>
       <c r="I862" s="3"/>
     </row>
-    <row r="863" spans="5:9" ht="15.75" customHeight="1">
+    <row r="863" ht="15.75" customHeight="1">
       <c r="E863" s="1"/>
       <c r="G863" s="2"/>
       <c r="H863" s="2"/>
       <c r="I863" s="3"/>
     </row>
-    <row r="864" spans="5:9" ht="15.75" customHeight="1">
+    <row r="864" ht="15.75" customHeight="1">
       <c r="E864" s="1"/>
       <c r="G864" s="2"/>
       <c r="H864" s="2"/>
       <c r="I864" s="3"/>
     </row>
-    <row r="865" spans="5:9" ht="15.75" customHeight="1">
+    <row r="865" ht="15.75" customHeight="1">
       <c r="E865" s="1"/>
       <c r="G865" s="2"/>
       <c r="H865" s="2"/>
       <c r="I865" s="3"/>
     </row>
-    <row r="866" spans="5:9" ht="15.75" customHeight="1">
+    <row r="866" ht="15.75" customHeight="1">
       <c r="E866" s="1"/>
       <c r="G866" s="2"/>
       <c r="H866" s="2"/>
       <c r="I866" s="3"/>
     </row>
-    <row r="867" spans="5:9" ht="15.75" customHeight="1">
+    <row r="867" ht="15.75" customHeight="1">
       <c r="E867" s="1"/>
       <c r="G867" s="2"/>
       <c r="H867" s="2"/>
       <c r="I867" s="3"/>
     </row>
-    <row r="868" spans="5:9" ht="15.75" customHeight="1">
+    <row r="868" ht="15.75" customHeight="1">
       <c r="E868" s="1"/>
       <c r="G868" s="2"/>
       <c r="H868" s="2"/>
       <c r="I868" s="3"/>
     </row>
-    <row r="869" spans="5:9" ht="15.75" customHeight="1">
+    <row r="869" ht="15.75" customHeight="1">
       <c r="E869" s="1"/>
       <c r="G869" s="2"/>
       <c r="H869" s="2"/>
       <c r="I869" s="3"/>
     </row>
-    <row r="870" spans="5:9" ht="15.75" customHeight="1">
+    <row r="870" ht="15.75" customHeight="1">
       <c r="E870" s="1"/>
       <c r="G870" s="2"/>
       <c r="H870" s="2"/>
       <c r="I870" s="3"/>
     </row>
-    <row r="871" spans="5:9" ht="15.75" customHeight="1">
+    <row r="871" ht="15.75" customHeight="1">
       <c r="E871" s="1"/>
       <c r="G871" s="2"/>
       <c r="H871" s="2"/>
       <c r="I871" s="3"/>
     </row>
-    <row r="872" spans="5:9" ht="15.75" customHeight="1">
+    <row r="872" ht="15.75" customHeight="1">
       <c r="E872" s="1"/>
       <c r="G872" s="2"/>
       <c r="H872" s="2"/>
       <c r="I872" s="3"/>
     </row>
-    <row r="873" spans="5:9" ht="15.75" customHeight="1">
+    <row r="873" ht="15.75" customHeight="1">
       <c r="E873" s="1"/>
       <c r="G873" s="2"/>
       <c r="H873" s="2"/>
       <c r="I873" s="3"/>
     </row>
-    <row r="874" spans="5:9" ht="15.75" customHeight="1">
+    <row r="874" ht="15.75" customHeight="1">
       <c r="E874" s="1"/>
       <c r="G874" s="2"/>
       <c r="H874" s="2"/>
       <c r="I874" s="3"/>
     </row>
-    <row r="875" spans="5:9" ht="15.75" customHeight="1">
+    <row r="875" ht="15.75" customHeight="1">
       <c r="E875" s="1"/>
       <c r="G875" s="2"/>
       <c r="H875" s="2"/>
       <c r="I875" s="3"/>
     </row>
-    <row r="876" spans="5:9" ht="15.75" customHeight="1">
+    <row r="876" ht="15.75" customHeight="1">
       <c r="E876" s="1"/>
       <c r="G876" s="2"/>
       <c r="H876" s="2"/>
       <c r="I876" s="3"/>
     </row>
-    <row r="877" spans="5:9" ht="15.75" customHeight="1">
+    <row r="877" ht="15.75" customHeight="1">
       <c r="E877" s="1"/>
       <c r="G877" s="2"/>
       <c r="H877" s="2"/>
       <c r="I877" s="3"/>
     </row>
-    <row r="878" spans="5:9" ht="15.75" customHeight="1">
+    <row r="878" ht="15.75" customHeight="1">
       <c r="E878" s="1"/>
       <c r="G878" s="2"/>
       <c r="H878" s="2"/>
       <c r="I878" s="3"/>
     </row>
-    <row r="879" spans="5:9" ht="15.75" customHeight="1">
+    <row r="879" ht="15.75" customHeight="1">
       <c r="E879" s="1"/>
       <c r="G879" s="2"/>
       <c r="H879" s="2"/>
       <c r="I879" s="3"/>
     </row>
-    <row r="880" spans="5:9" ht="15.75" customHeight="1">
+    <row r="880" ht="15.75" customHeight="1">
       <c r="E880" s="1"/>
       <c r="G880" s="2"/>
       <c r="H880" s="2"/>
       <c r="I880" s="3"/>
     </row>
-    <row r="881" spans="5:9" ht="15.75" customHeight="1">
+    <row r="881" ht="15.75" customHeight="1">
       <c r="E881" s="1"/>
       <c r="G881" s="2"/>
       <c r="H881" s="2"/>
       <c r="I881" s="3"/>
     </row>
-    <row r="882" spans="5:9" ht="15.75" customHeight="1">
+    <row r="882" ht="15.75" customHeight="1">
       <c r="E882" s="1"/>
       <c r="G882" s="2"/>
       <c r="H882" s="2"/>
       <c r="I882" s="3"/>
     </row>
-    <row r="883" spans="5:9" ht="15.75" customHeight="1">
+    <row r="883" ht="15.75" customHeight="1">
       <c r="E883" s="1"/>
       <c r="G883" s="2"/>
       <c r="H883" s="2"/>
       <c r="I883" s="3"/>
     </row>
-    <row r="884" spans="5:9" ht="15.75" customHeight="1">
+    <row r="884" ht="15.75" customHeight="1">
       <c r="E884" s="1"/>
       <c r="G884" s="2"/>
       <c r="H884" s="2"/>
       <c r="I884" s="3"/>
     </row>
-    <row r="885" spans="5:9" ht="15.75" customHeight="1">
+    <row r="885" ht="15.75" customHeight="1">
       <c r="E885" s="1"/>
       <c r="G885" s="2"/>
       <c r="H885" s="2"/>
       <c r="I885" s="3"/>
     </row>
-    <row r="886" spans="5:9" ht="15.75" customHeight="1">
+    <row r="886" ht="15.75" customHeight="1">
       <c r="E886" s="1"/>
       <c r="G886" s="2"/>
       <c r="H886" s="2"/>
       <c r="I886" s="3"/>
     </row>
-    <row r="887" spans="5:9" ht="15.75" customHeight="1">
+    <row r="887" ht="15.75" customHeight="1">
       <c r="E887" s="1"/>
       <c r="G887" s="2"/>
       <c r="H887" s="2"/>
       <c r="I887" s="3"/>
     </row>
-    <row r="888" spans="5:9" ht="15.75" customHeight="1">
+    <row r="888" ht="15.75" customHeight="1">
       <c r="E888" s="1"/>
       <c r="G888" s="2"/>
       <c r="H888" s="2"/>
       <c r="I888" s="3"/>
     </row>
-    <row r="889" spans="5:9" ht="15.75" customHeight="1">
+    <row r="889" ht="15.75" customHeight="1">
       <c r="E889" s="1"/>
       <c r="G889" s="2"/>
       <c r="H889" s="2"/>
       <c r="I889" s="3"/>
     </row>
-    <row r="890" spans="5:9" ht="15.75" customHeight="1">
+    <row r="890" ht="15.75" customHeight="1">
       <c r="E890" s="1"/>
       <c r="G890" s="2"/>
       <c r="H890" s="2"/>
       <c r="I890" s="3"/>
     </row>
-    <row r="891" spans="5:9" ht="15.75" customHeight="1">
+    <row r="891" ht="15.75" customHeight="1">
       <c r="E891" s="1"/>
       <c r="G891" s="2"/>
       <c r="H891" s="2"/>
       <c r="I891" s="3"/>
     </row>
-    <row r="892" spans="5:9" ht="15.75" customHeight="1">
+    <row r="892" ht="15.75" customHeight="1">
       <c r="E892" s="1"/>
       <c r="G892" s="2"/>
       <c r="H892" s="2"/>
       <c r="I892" s="3"/>
     </row>
-    <row r="893" spans="5:9" ht="15.75" customHeight="1">
+    <row r="893" ht="15.75" customHeight="1">
       <c r="E893" s="1"/>
       <c r="G893" s="2"/>
       <c r="H893" s="2"/>
       <c r="I893" s="3"/>
     </row>
-    <row r="894" spans="5:9" ht="15.75" customHeight="1">
+    <row r="894" ht="15.75" customHeight="1">
       <c r="E894" s="1"/>
       <c r="G894" s="2"/>
       <c r="H894" s="2"/>
       <c r="I894" s="3"/>
     </row>
-    <row r="895" spans="5:9" ht="15.75" customHeight="1">
+    <row r="895" ht="15.75" customHeight="1">
       <c r="E895" s="1"/>
       <c r="G895" s="2"/>
       <c r="H895" s="2"/>
       <c r="I895" s="3"/>
     </row>
-    <row r="896" spans="5:9" ht="15.75" customHeight="1">
+    <row r="896" ht="15.75" customHeight="1">
       <c r="E896" s="1"/>
       <c r="G896" s="2"/>
       <c r="H896" s="2"/>
       <c r="I896" s="3"/>
     </row>
-    <row r="897" spans="5:9" ht="15.75" customHeight="1">
+    <row r="897" ht="15.75" customHeight="1">
       <c r="E897" s="1"/>
       <c r="G897" s="2"/>
       <c r="H897" s="2"/>
       <c r="I897" s="3"/>
     </row>
-    <row r="898" spans="5:9" ht="15.75" customHeight="1">
+    <row r="898" ht="15.75" customHeight="1">
       <c r="E898" s="1"/>
       <c r="G898" s="2"/>
       <c r="H898" s="2"/>
       <c r="I898" s="3"/>
     </row>
-    <row r="899" spans="5:9" ht="15.75" customHeight="1">
+    <row r="899" ht="15.75" customHeight="1">
       <c r="E899" s="1"/>
       <c r="G899" s="2"/>
       <c r="H899" s="2"/>
       <c r="I899" s="3"/>
     </row>
-    <row r="900" spans="5:9" ht="15.75" customHeight="1">
+    <row r="900" ht="15.75" customHeight="1">
       <c r="E900" s="1"/>
       <c r="G900" s="2"/>
       <c r="H900" s="2"/>
       <c r="I900" s="3"/>
     </row>
-    <row r="901" spans="5:9" ht="15.75" customHeight="1">
+    <row r="901" ht="15.75" customHeight="1">
       <c r="E901" s="1"/>
       <c r="G901" s="2"/>
       <c r="H901" s="2"/>
       <c r="I901" s="3"/>
     </row>
-    <row r="902" spans="5:9" ht="15.75" customHeight="1">
+    <row r="902" ht="15.75" customHeight="1">
       <c r="E902" s="1"/>
       <c r="G902" s="2"/>
       <c r="H902" s="2"/>
       <c r="I902" s="3"/>
     </row>
-    <row r="903" spans="5:9" ht="15.75" customHeight="1">
+    <row r="903" ht="15.75" customHeight="1">
       <c r="E903" s="1"/>
       <c r="G903" s="2"/>
       <c r="H903" s="2"/>
       <c r="I903" s="3"/>
     </row>
-    <row r="904" spans="5:9" ht="15.75" customHeight="1">
+    <row r="904" ht="15.75" customHeight="1">
       <c r="E904" s="1"/>
       <c r="G904" s="2"/>
       <c r="H904" s="2"/>
       <c r="I904" s="3"/>
     </row>
-    <row r="905" spans="5:9" ht="15.75" customHeight="1">
+    <row r="905" ht="15.75" customHeight="1">
       <c r="E905" s="1"/>
       <c r="G905" s="2"/>
       <c r="H905" s="2"/>
       <c r="I905" s="3"/>
     </row>
-    <row r="906" spans="5:9" ht="15.75" customHeight="1">
+    <row r="906" ht="15.75" customHeight="1">
       <c r="E906" s="1"/>
       <c r="G906" s="2"/>
       <c r="H906" s="2"/>
       <c r="I906" s="3"/>
     </row>
-    <row r="907" spans="5:9" ht="15.75" customHeight="1">
+    <row r="907" ht="15.75" customHeight="1">
       <c r="E907" s="1"/>
       <c r="G907" s="2"/>
       <c r="H907" s="2"/>
       <c r="I907" s="3"/>
     </row>
-    <row r="908" spans="5:9" ht="15.75" customHeight="1">
+    <row r="908" ht="15.75" customHeight="1">
       <c r="E908" s="1"/>
       <c r="G908" s="2"/>
       <c r="H908" s="2"/>
       <c r="I908" s="3"/>
     </row>
-    <row r="909" spans="5:9" ht="15.75" customHeight="1">
+    <row r="909" ht="15.75" customHeight="1">
       <c r="E909" s="1"/>
       <c r="G909" s="2"/>
       <c r="H909" s="2"/>
       <c r="I909" s="3"/>
     </row>
-    <row r="910" spans="5:9" ht="15.75" customHeight="1">
+    <row r="910" ht="15.75" customHeight="1">
       <c r="E910" s="1"/>
       <c r="G910" s="2"/>
       <c r="H910" s="2"/>
       <c r="I910" s="3"/>
     </row>
-    <row r="911" spans="5:9" ht="15.75" customHeight="1">
+    <row r="911" ht="15.75" customHeight="1">
       <c r="E911" s="1"/>
       <c r="G911" s="2"/>
       <c r="H911" s="2"/>
       <c r="I911" s="3"/>
     </row>
-    <row r="912" spans="5:9" ht="15.75" customHeight="1">
+    <row r="912" ht="15.75" customHeight="1">
       <c r="E912" s="1"/>
       <c r="G912" s="2"/>
       <c r="H912" s="2"/>
       <c r="I912" s="3"/>
     </row>
-    <row r="913" spans="5:9" ht="15.75" customHeight="1">
+    <row r="913" ht="15.75" customHeight="1">
       <c r="E913" s="1"/>
       <c r="G913" s="2"/>
       <c r="H913" s="2"/>
       <c r="I913" s="3"/>
     </row>
-    <row r="914" spans="5:9" ht="15.75" customHeight="1">
+    <row r="914" ht="15.75" customHeight="1">
       <c r="E914" s="1"/>
       <c r="G914" s="2"/>
       <c r="H914" s="2"/>
       <c r="I914" s="3"/>
     </row>
-    <row r="915" spans="5:9" ht="15.75" customHeight="1">
+    <row r="915" ht="15.75" customHeight="1">
       <c r="E915" s="1"/>
       <c r="G915" s="2"/>
       <c r="H915" s="2"/>
       <c r="I915" s="3"/>
     </row>
-    <row r="916" spans="5:9" ht="15.75" customHeight="1">
+    <row r="916" ht="15.75" customHeight="1">
       <c r="E916" s="1"/>
       <c r="G916" s="2"/>
       <c r="H916" s="2"/>
       <c r="I916" s="3"/>
     </row>
-    <row r="917" spans="5:9" ht="15.75" customHeight="1">
+    <row r="917" ht="15.75" customHeight="1">
       <c r="E917" s="1"/>
       <c r="G917" s="2"/>
       <c r="H917" s="2"/>
       <c r="I917" s="3"/>
     </row>
-    <row r="918" spans="5:9" ht="15.75" customHeight="1">
+    <row r="918" ht="15.75" customHeight="1">
       <c r="E918" s="1"/>
       <c r="G918" s="2"/>
       <c r="H918" s="2"/>
       <c r="I918" s="3"/>
     </row>
-    <row r="919" spans="5:9" ht="15.75" customHeight="1">
+    <row r="919" ht="15.75" customHeight="1">
       <c r="E919" s="1"/>
       <c r="G919" s="2"/>
       <c r="H919" s="2"/>
       <c r="I919" s="3"/>
     </row>
-    <row r="920" spans="5:9" ht="15.75" customHeight="1">
+    <row r="920" ht="15.75" customHeight="1">
       <c r="E920" s="1"/>
       <c r="G920" s="2"/>
       <c r="H920" s="2"/>
       <c r="I920" s="3"/>
     </row>
-    <row r="921" spans="5:9" ht="15.75" customHeight="1">
+    <row r="921" ht="15.75" customHeight="1">
       <c r="E921" s="1"/>
       <c r="G921" s="2"/>
       <c r="H921" s="2"/>
       <c r="I921" s="3"/>
     </row>
-    <row r="922" spans="5:9" ht="15.75" customHeight="1">
+    <row r="922" ht="15.75" customHeight="1">
       <c r="E922" s="1"/>
       <c r="G922" s="2"/>
       <c r="H922" s="2"/>
       <c r="I922" s="3"/>
     </row>
-    <row r="923" spans="5:9" ht="15.75" customHeight="1">
+    <row r="923" ht="15.75" customHeight="1">
       <c r="E923" s="1"/>
       <c r="G923" s="2"/>
       <c r="H923" s="2"/>
       <c r="I923" s="3"/>
     </row>
-    <row r="924" spans="5:9" ht="15.75" customHeight="1">
+    <row r="924" ht="15.75" customHeight="1">
       <c r="E924" s="1"/>
       <c r="G924" s="2"/>
       <c r="H924" s="2"/>
       <c r="I924" s="3"/>
     </row>
-    <row r="925" spans="5:9" ht="15.75" customHeight="1">
+    <row r="925" ht="15.75" customHeight="1">
       <c r="E925" s="1"/>
       <c r="G925" s="2"/>
       <c r="H925" s="2"/>
       <c r="I925" s="3"/>
     </row>
-    <row r="926" spans="5:9" ht="15.75" customHeight="1">
+    <row r="926" ht="15.75" customHeight="1">
       <c r="E926" s="1"/>
       <c r="G926" s="2"/>
       <c r="H926" s="2"/>
       <c r="I926" s="3"/>
     </row>
-    <row r="927" spans="5:9" ht="15.75" customHeight="1">
+    <row r="927" ht="15.75" customHeight="1">
       <c r="E927" s="1"/>
       <c r="G927" s="2"/>
       <c r="H927" s="2"/>
       <c r="I927" s="3"/>
     </row>
-    <row r="928" spans="5:9" ht="15.75" customHeight="1">
+    <row r="928" ht="15.75" customHeight="1">
       <c r="E928" s="1"/>
       <c r="G928" s="2"/>
       <c r="H928" s="2"/>
       <c r="I928" s="3"/>
     </row>
-    <row r="929" spans="5:9" ht="15.75" customHeight="1">
+    <row r="929" ht="15.75" customHeight="1">
       <c r="E929" s="1"/>
       <c r="G929" s="2"/>
       <c r="H929" s="2"/>
       <c r="I929" s="3"/>
     </row>
-    <row r="930" spans="5:9" ht="15.75" customHeight="1">
+    <row r="930" ht="15.75" customHeight="1">
       <c r="E930" s="1"/>
       <c r="G930" s="2"/>
       <c r="H930" s="2"/>
       <c r="I930" s="3"/>
     </row>
-    <row r="931" spans="5:9" ht="15.75" customHeight="1">
+    <row r="931" ht="15.75" customHeight="1">
       <c r="E931" s="1"/>
       <c r="G931" s="2"/>
       <c r="H931" s="2"/>
       <c r="I931" s="3"/>
     </row>
-    <row r="932" spans="5:9" ht="15.75" customHeight="1">
+    <row r="932" ht="15.75" customHeight="1">
       <c r="E932" s="1"/>
       <c r="G932" s="2"/>
       <c r="H932" s="2"/>
       <c r="I932" s="3"/>
     </row>
-    <row r="933" spans="5:9" ht="15.75" customHeight="1">
+    <row r="933" ht="15.75" customHeight="1">
       <c r="E933" s="1"/>
       <c r="G933" s="2"/>
       <c r="H933" s="2"/>
       <c r="I933" s="3"/>
     </row>
-    <row r="934" spans="5:9" ht="15.75" customHeight="1">
+    <row r="934" ht="15.75" customHeight="1">
       <c r="E934" s="1"/>
       <c r="G934" s="2"/>
       <c r="H934" s="2"/>
       <c r="I934" s="3"/>
     </row>
-    <row r="935" spans="5:9" ht="15.75" customHeight="1">
+    <row r="935" ht="15.75" customHeight="1">
       <c r="E935" s="1"/>
       <c r="G935" s="2"/>
       <c r="H935" s="2"/>
       <c r="I935" s="3"/>
     </row>
-    <row r="936" spans="5:9" ht="15.75" customHeight="1">
+    <row r="936" ht="15.75" customHeight="1">
       <c r="E936" s="1"/>
       <c r="G936" s="2"/>
       <c r="H936" s="2"/>
       <c r="I936" s="3"/>
     </row>
-    <row r="937" spans="5:9" ht="15.75" customHeight="1">
+    <row r="937" ht="15.75" customHeight="1">
       <c r="E937" s="1"/>
       <c r="G937" s="2"/>
       <c r="H937" s="2"/>
       <c r="I937" s="3"/>
     </row>
-    <row r="938" spans="5:9" ht="15.75" customHeight="1">
+    <row r="938" ht="15.75" customHeight="1">
       <c r="E938" s="1"/>
       <c r="G938" s="2"/>
       <c r="H938" s="2"/>
       <c r="I938" s="3"/>
     </row>
-    <row r="939" spans="5:9" ht="15.75" customHeight="1">
+    <row r="939" ht="15.75" customHeight="1">
       <c r="E939" s="1"/>
       <c r="G939" s="2"/>
       <c r="H939" s="2"/>
       <c r="I939" s="3"/>
     </row>
-    <row r="940" spans="5:9" ht="15.75" customHeight="1">
+    <row r="940" ht="15.75" customHeight="1">
       <c r="E940" s="1"/>
       <c r="G940" s="2"/>
       <c r="H940" s="2"/>
       <c r="I940" s="3"/>
     </row>
-    <row r="941" spans="5:9" ht="15.75" customHeight="1">
+    <row r="941" ht="15.75" customHeight="1">
       <c r="E941" s="1"/>
       <c r="G941" s="2"/>
       <c r="H941" s="2"/>
       <c r="I941" s="3"/>
     </row>
-    <row r="942" spans="5:9" ht="15.75" customHeight="1">
+    <row r="942" ht="15.75" customHeight="1">
       <c r="E942" s="1"/>
       <c r="G942" s="2"/>
       <c r="H942" s="2"/>
       <c r="I942" s="3"/>
     </row>
-    <row r="943" spans="5:9" ht="15.75" customHeight="1">
+    <row r="943" ht="15.75" customHeight="1">
       <c r="E943" s="1"/>
       <c r="G943" s="2"/>
       <c r="H943" s="2"/>
       <c r="I943" s="3"/>
     </row>
-    <row r="944" spans="5:9" ht="15.75" customHeight="1">
+    <row r="944" ht="15.75" customHeight="1">
       <c r="E944" s="1"/>
       <c r="G944" s="2"/>
       <c r="H944" s="2"/>
       <c r="I944" s="3"/>
     </row>
-    <row r="945" spans="5:9" ht="15.75" customHeight="1">
+    <row r="945" ht="15.75" customHeight="1">
       <c r="E945" s="1"/>
       <c r="G945" s="2"/>
       <c r="H945" s="2"/>
       <c r="I945" s="3"/>
     </row>
-    <row r="946" spans="5:9" ht="15.75" customHeight="1">
+    <row r="946" ht="15.75" customHeight="1">
       <c r="E946" s="1"/>
       <c r="G946" s="2"/>
       <c r="H946" s="2"/>
       <c r="I946" s="3"/>
     </row>
-    <row r="947" spans="5:9" ht="15.75" customHeight="1">
+    <row r="947" ht="15.75" customHeight="1">
       <c r="E947" s="1"/>
       <c r="G947" s="2"/>
       <c r="H947" s="2"/>
       <c r="I947" s="3"/>
     </row>
-    <row r="948" spans="5:9" ht="15.75" customHeight="1">
+    <row r="948" ht="15.75" customHeight="1">
       <c r="E948" s="1"/>
       <c r="G948" s="2"/>
       <c r="H948" s="2"/>
       <c r="I948" s="3"/>
     </row>
-    <row r="949" spans="5:9" ht="15.75" customHeight="1">
+    <row r="949" ht="15.75" customHeight="1">
       <c r="E949" s="1"/>
       <c r="G949" s="2"/>
       <c r="H949" s="2"/>
       <c r="I949" s="3"/>
     </row>
-    <row r="950" spans="5:9" ht="15.75" customHeight="1">
+    <row r="950" ht="15.75" customHeight="1">
       <c r="E950" s="1"/>
       <c r="G950" s="2"/>
       <c r="H950" s="2"/>
       <c r="I950" s="3"/>
     </row>
-    <row r="951" spans="5:9" ht="15.75" customHeight="1">
+    <row r="951" ht="15.75" customHeight="1">
       <c r="E951" s="1"/>
       <c r="G951" s="2"/>
       <c r="H951" s="2"/>
       <c r="I951" s="3"/>
     </row>
-    <row r="952" spans="5:9" ht="15.75" customHeight="1">
+    <row r="952" ht="15.75" customHeight="1">
       <c r="E952" s="1"/>
       <c r="G952" s="2"/>
       <c r="H952" s="2"/>
       <c r="I952" s="3"/>
     </row>
-    <row r="953" spans="5:9" ht="15.75" customHeight="1">
+    <row r="953" ht="15.75" customHeight="1">
       <c r="E953" s="1"/>
       <c r="G953" s="2"/>
       <c r="H953" s="2"/>
       <c r="I953" s="3"/>
     </row>
-    <row r="954" spans="5:9" ht="15.75" customHeight="1">
+    <row r="954" ht="15.75" customHeight="1">
       <c r="E954" s="1"/>
       <c r="G954" s="2"/>
       <c r="H954" s="2"/>
       <c r="I954" s="3"/>
     </row>
-    <row r="955" spans="5:9" ht="15.75" customHeight="1">
+    <row r="955" ht="15.75" customHeight="1">
       <c r="E955" s="1"/>
       <c r="G955" s="2"/>
       <c r="H955" s="2"/>
       <c r="I955" s="3"/>
     </row>
-    <row r="956" spans="5:9" ht="15.75" customHeight="1">
+    <row r="956" ht="15.75" customHeight="1">
       <c r="E956" s="1"/>
       <c r="G956" s="2"/>
       <c r="H956" s="2"/>
       <c r="I956" s="3"/>
     </row>
-    <row r="957" spans="5:9" ht="15.75" customHeight="1">
+    <row r="957" ht="15.75" customHeight="1">
       <c r="E957" s="1"/>
       <c r="G957" s="2"/>
       <c r="H957" s="2"/>
       <c r="I957" s="3"/>
     </row>
-    <row r="958" spans="5:9" ht="15.75" customHeight="1">
+    <row r="958" ht="15.75" customHeight="1">
       <c r="E958" s="1"/>
       <c r="G958" s="2"/>
       <c r="H958" s="2"/>
       <c r="I958" s="3"/>
     </row>
-    <row r="959" spans="5:9" ht="15.75" customHeight="1">
+    <row r="959" ht="15.75" customHeight="1">
       <c r="E959" s="1"/>
       <c r="G959" s="2"/>
       <c r="H959" s="2"/>
       <c r="I959" s="3"/>
     </row>
-    <row r="960" spans="5:9" ht="15.75" customHeight="1">
+    <row r="960" ht="15.75" customHeight="1">
       <c r="E960" s="1"/>
       <c r="G960" s="2"/>
       <c r="H960" s="2"/>
       <c r="I960" s="3"/>
     </row>
-    <row r="961" spans="5:9" ht="15.75" customHeight="1">
+    <row r="961" ht="15.75" customHeight="1">
       <c r="E961" s="1"/>
       <c r="G961" s="2"/>
       <c r="H961" s="2"/>
       <c r="I961" s="3"/>
     </row>
-    <row r="962" spans="5:9" ht="15.75" customHeight="1">
+    <row r="962" ht="15.75" customHeight="1">
       <c r="E962" s="1"/>
       <c r="G962" s="2"/>
       <c r="H962" s="2"/>
       <c r="I962" s="3"/>
     </row>
-    <row r="963" spans="5:9" ht="15.75" customHeight="1">
+    <row r="963" ht="15.75" customHeight="1">
       <c r="E963" s="1"/>
       <c r="G963" s="2"/>
       <c r="H963" s="2"/>
       <c r="I963" s="3"/>
     </row>
-    <row r="964" spans="5:9" ht="15.75" customHeight="1">
+    <row r="964" ht="15.75" customHeight="1">
       <c r="E964" s="1"/>
       <c r="G964" s="2"/>
       <c r="H964" s="2"/>
       <c r="I964" s="3"/>
     </row>
-    <row r="965" spans="5:9" ht="15.75" customHeight="1">
+    <row r="965" ht="15.75" customHeight="1">
       <c r="E965" s="1"/>
       <c r="G965" s="2"/>
       <c r="H965" s="2"/>
       <c r="I965" s="3"/>
     </row>
-    <row r="966" spans="5:9" ht="15.75" customHeight="1">
+    <row r="966" ht="15.75" customHeight="1">
       <c r="E966" s="1"/>
       <c r="G966" s="2"/>
       <c r="H966" s="2"/>
       <c r="I966" s="3"/>
     </row>
-    <row r="967" spans="5:9" ht="15.75" customHeight="1">
+    <row r="967" ht="15.75" customHeight="1">
       <c r="E967" s="1"/>
       <c r="G967" s="2"/>
       <c r="H967" s="2"/>
       <c r="I967" s="3"/>
     </row>
-    <row r="968" spans="5:9" ht="15.75" customHeight="1">
+    <row r="968" ht="15.75" customHeight="1">
       <c r="E968" s="1"/>
       <c r="G968" s="2"/>
       <c r="H968" s="2"/>
       <c r="I968" s="3"/>
     </row>
-    <row r="969" spans="5:9" ht="15.75" customHeight="1">
+    <row r="969" ht="15.75" customHeight="1">
       <c r="E969" s="1"/>
       <c r="G969" s="2"/>
       <c r="H969" s="2"/>
       <c r="I969" s="3"/>
     </row>
-    <row r="970" spans="5:9" ht="15.75" customHeight="1">
+    <row r="970" ht="15.75" customHeight="1">
       <c r="E970" s="1"/>
       <c r="G970" s="2"/>
       <c r="H970" s="2"/>
       <c r="I970" s="3"/>
     </row>
-    <row r="971" spans="5:9" ht="15.75" customHeight="1">
+    <row r="971" ht="15.75" customHeight="1">
       <c r="E971" s="1"/>
       <c r="G971" s="2"/>
       <c r="H971" s="2"/>
       <c r="I971" s="3"/>
     </row>
-    <row r="972" spans="5:9" ht="15.75" customHeight="1">
+    <row r="972" ht="15.75" customHeight="1">
       <c r="E972" s="1"/>
       <c r="G972" s="2"/>
       <c r="H972" s="2"/>
       <c r="I972" s="3"/>
     </row>
-    <row r="973" spans="5:9" ht="15.75" customHeight="1">
+    <row r="973" ht="15.75" customHeight="1">
       <c r="E973" s="1"/>
       <c r="G973" s="2"/>
       <c r="H973" s="2"/>
       <c r="I973" s="3"/>
     </row>
-    <row r="974" spans="5:9" ht="15.75" customHeight="1">
+    <row r="974" ht="15.75" customHeight="1">
       <c r="E974" s="1"/>
       <c r="G974" s="2"/>
       <c r="H974" s="2"/>
       <c r="I974" s="3"/>
     </row>
-    <row r="975" spans="5:9" ht="15.75" customHeight="1">
+    <row r="975" ht="15.75" customHeight="1">
       <c r="E975" s="1"/>
       <c r="G975" s="2"/>
       <c r="H975" s="2"/>
       <c r="I975" s="3"/>
     </row>
-    <row r="976" spans="5:9" ht="15.75" customHeight="1">
+    <row r="976" ht="15.75" customHeight="1">
       <c r="E976" s="1"/>
       <c r="G976" s="2"/>
       <c r="H976" s="2"/>
       <c r="I976" s="3"/>
     </row>
-    <row r="977" spans="5:9" ht="15.75" customHeight="1">
+    <row r="977" ht="15.75" customHeight="1">
       <c r="E977" s="1"/>
       <c r="G977" s="2"/>
       <c r="H977" s="2"/>
       <c r="I977" s="3"/>
     </row>
-    <row r="978" spans="5:9" ht="15.75" customHeight="1">
+    <row r="978" ht="15.75" customHeight="1">
       <c r="E978" s="1"/>
       <c r="G978" s="2"/>
       <c r="H978" s="2"/>
       <c r="I978" s="3"/>
     </row>
-    <row r="979" spans="5:9" ht="15.75" customHeight="1">
+    <row r="979" ht="15.75" customHeight="1">
       <c r="E979" s="1"/>
       <c r="G979" s="2"/>
       <c r="H979" s="2"/>
       <c r="I979" s="3"/>
     </row>
-    <row r="980" spans="5:9" ht="15.75" customHeight="1">
+    <row r="980" ht="15.75" customHeight="1">
       <c r="E980" s="1"/>
       <c r="G980" s="2"/>
       <c r="H980" s="2"/>
       <c r="I980" s="3"/>
     </row>
-    <row r="981" spans="5:9" ht="15.75" customHeight="1">
+    <row r="981" ht="15.75" customHeight="1">
       <c r="E981" s="1"/>
       <c r="G981" s="2"/>
       <c r="H981" s="2"/>
       <c r="I981" s="3"/>
     </row>
-    <row r="982" spans="5:9" ht="15.75" customHeight="1">
+    <row r="982" ht="15.75" customHeight="1">
       <c r="E982" s="1"/>
       <c r="G982" s="2"/>
       <c r="H982" s="2"/>
       <c r="I982" s="3"/>
     </row>
-    <row r="983" spans="5:9" ht="15.75" customHeight="1">
+    <row r="983" ht="15.75" customHeight="1">
       <c r="E983" s="1"/>
       <c r="G983" s="2"/>
       <c r="H983" s="2"/>
       <c r="I983" s="3"/>
     </row>
-    <row r="984" spans="5:9" ht="15.75" customHeight="1">
+    <row r="984" ht="15.75" customHeight="1">
       <c r="E984" s="1"/>
       <c r="G984" s="2"/>
       <c r="H984" s="2"/>
       <c r="I984" s="3"/>
     </row>
-    <row r="985" spans="5:9" ht="15.75" customHeight="1">
+    <row r="985" ht="15.75" customHeight="1">
       <c r="E985" s="1"/>
       <c r="G985" s="2"/>
       <c r="H985" s="2"/>
       <c r="I985" s="3"/>
     </row>
-    <row r="986" spans="5:9" ht="15.75" customHeight="1">
+    <row r="986" ht="15.75" customHeight="1">
       <c r="E986" s="1"/>
       <c r="G986" s="2"/>
       <c r="H986" s="2"/>
       <c r="I986" s="3"/>
     </row>
-    <row r="987" spans="5:9" ht="15.75" customHeight="1">
+    <row r="987" ht="15.75" customHeight="1">
       <c r="E987" s="1"/>
       <c r="G987" s="2"/>
       <c r="H987" s="2"/>
       <c r="I987" s="3"/>
     </row>
-    <row r="988" spans="5:9" ht="15.75" customHeight="1">
+    <row r="988" ht="15.75" customHeight="1">
       <c r="E988" s="1"/>
       <c r="G988" s="2"/>
       <c r="H988" s="2"/>
       <c r="I988" s="3"/>
     </row>
-    <row r="989" spans="5:9" ht="15.75" customHeight="1">
+    <row r="989" ht="15.75" customHeight="1">
       <c r="E989" s="1"/>
       <c r="G989" s="2"/>
       <c r="H989" s="2"/>
       <c r="I989" s="3"/>
     </row>
-    <row r="990" spans="5:9" ht="15.75" customHeight="1">
+    <row r="990" ht="15.75" customHeight="1">
       <c r="E990" s="1"/>
       <c r="G990" s="2"/>
       <c r="H990" s="2"/>
       <c r="I990" s="3"/>
     </row>
-    <row r="991" spans="5:9" ht="15.75" customHeight="1">
+    <row r="991" ht="15.75" customHeight="1">
       <c r="E991" s="1"/>
       <c r="G991" s="2"/>
       <c r="H991" s="2"/>
       <c r="I991" s="3"/>
     </row>
-    <row r="992" spans="5:9" ht="15.75" customHeight="1">
+    <row r="992" ht="15.75" customHeight="1">
       <c r="E992" s="1"/>
       <c r="G992" s="2"/>
       <c r="H992" s="2"/>
       <c r="I992" s="3"/>
     </row>
-    <row r="993" spans="5:9" ht="15.75" customHeight="1">
+    <row r="993" ht="15.75" customHeight="1">
       <c r="E993" s="1"/>
       <c r="G993" s="2"/>
       <c r="H993" s="2"/>
       <c r="I993" s="3"/>
     </row>
-    <row r="994" spans="5:9" ht="15.75" customHeight="1">
+    <row r="994" ht="15.75" customHeight="1">
       <c r="E994" s="1"/>
       <c r="G994" s="2"/>
       <c r="H994" s="2"/>
       <c r="I994" s="3"/>
     </row>
-    <row r="995" spans="5:9" ht="15.75" customHeight="1">
+    <row r="995" ht="15.75" customHeight="1">
       <c r="E995" s="1"/>
       <c r="G995" s="2"/>
       <c r="H995" s="2"/>
       <c r="I995" s="3"/>
     </row>
-    <row r="996" spans="5:9" ht="15.75" customHeight="1">
+    <row r="996" ht="15.75" customHeight="1">
       <c r="E996" s="1"/>
       <c r="G996" s="2"/>
       <c r="H996" s="2"/>
       <c r="I996" s="3"/>
     </row>
-    <row r="997" spans="5:9" ht="15.75" customHeight="1">
+    <row r="997" ht="15.75" customHeight="1">
       <c r="E997" s="1"/>
       <c r="G997" s="2"/>
       <c r="H997" s="2"/>
       <c r="I997" s="3"/>
     </row>
-    <row r="998" spans="5:9" ht="15.75" customHeight="1">
+    <row r="998" ht="15.75" customHeight="1">
       <c r="E998" s="1"/>
       <c r="G998" s="2"/>
       <c r="H998" s="2"/>
       <c r="I998" s="3"/>
     </row>
-    <row r="999" spans="5:9" ht="15.75" customHeight="1">
+    <row r="999" ht="15.75" customHeight="1">
       <c r="E999" s="1"/>
       <c r="G999" s="2"/>
       <c r="H999" s="2"/>
       <c r="I999" s="3"/>
     </row>
-    <row r="1000" spans="5:9" ht="15.75" customHeight="1">
+    <row r="1000" ht="15.75" customHeight="1">
       <c r="E1000" s="1"/>
       <c r="G1000" s="2"/>
       <c r="H1000" s="2"/>
       <c r="I1000" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A21:H1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.57"/>
+    <col customWidth="1" min="2" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7996,7 +7554,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -8005,7 +7563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -8014,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -8023,34 +7581,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="14">
         <f>B25/H38</f>
-        <v>9.0336590663285694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+        <v>9.033659066</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="14">
         <f>B25/H39</f>
-        <v>8.6818458941193271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+        <v>8.681845894</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>0.35181317220924235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+        <v>0.3518131722</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -8059,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -8068,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="E35" s="4" t="s">
         <v>3</v>
       </c>
@@ -8082,13 +7640,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="1">
         <f>MIN(Sheet1!E2:E1000)</f>
-        <v>2.0833333255723119E-3</v>
+        <v>0.002083333326</v>
       </c>
       <c r="F36" s="14">
         <f>MIN(Sheet1!F2:F1000)</f>
@@ -8096,20 +7654,20 @@
       </c>
       <c r="G36" s="14">
         <f>MIN(Sheet1!G2:G1000)</f>
-        <v>1.3000000003026799</v>
+        <v>1.3</v>
       </c>
       <c r="H36" s="14">
         <f>MIN(Sheet1!H2:H1000)</f>
-        <v>78.00000001816079</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+        <v>78.00000002</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="1">
         <f>MAX(Sheet1!E2:E1000)</f>
-        <v>2.7777777773735579E-2</v>
+        <v>0.02777777777</v>
       </c>
       <c r="F37" s="14">
         <f>MAX(Sheet1!F2:F1000)</f>
@@ -8117,20 +7675,20 @@
       </c>
       <c r="G37" s="14">
         <f>MAX(Sheet1!G2:G1000)</f>
-        <v>4.6666666840513544</v>
+        <v>4.666666684</v>
       </c>
       <c r="H37" s="14">
         <f>MAX(Sheet1!H2:H1000)</f>
-        <v>280.00000104308128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+        <v>280.000001</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="D38" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="1">
         <f>MEDIAN(Sheet1!E2:E1000)</f>
-        <v>2.0486111108766636E-2</v>
+        <v>0.02048611111</v>
       </c>
       <c r="F38" s="14">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
@@ -8138,20 +7696,20 @@
       </c>
       <c r="G38" s="14">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>1.8449519230572733</v>
+        <v>1.844951923</v>
       </c>
       <c r="H38" s="14">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>110.6971153834364</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+        <v>110.6971154</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="D39" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="1">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>1.9374999999490682E-2</v>
+        <v>0.019375</v>
       </c>
       <c r="F39" s="14">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
@@ -8159,20 +7717,20 @@
       </c>
       <c r="G39" s="14">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>1.9197146401729939</v>
+        <v>1.91971464</v>
       </c>
       <c r="H39" s="14">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>115.18287841037963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+        <v>115.1828784</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="D40" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="15">
         <f>SUM(Sheet1!E2:E1000)</f>
-        <v>0.38749999998981366</v>
+        <v>0.3875</v>
       </c>
       <c r="F40" s="14">
         <f>SUM(Sheet1!F2:F1000)</f>
@@ -8181,14 +7739,14 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -9142,21 +8700,24 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A21:A1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -10140,7 +9701,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>